--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -27,6 +27,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Michael O'Connor</author>
+  </authors>
+  <commentList>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael O'Connor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+note: this is not the provider key that's within the careteam key</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michael O'Connor</author>
@@ -85,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="248">
   <si>
     <t>table</t>
   </si>
@@ -208,9 +242,6 @@
   </si>
   <si>
     <t>a provider number like an oscar number</t>
-  </si>
-  <si>
-    <t>prvdr_num</t>
   </si>
   <si>
     <t>us-npi</t>
@@ -627,17 +658,6 @@
     <t>populate src_billable_period_start, src_billable_perriod_end</t>
   </si>
   <si>
-    <t xml:space="preserve">important especially for bb_eob.src_type IN (
-       '10'  --HHA   
-       , '20' --SNF
-       , '30' --SNF
-       ,'40' --Outpatient
-       ,'50' --Hospice
-       ,'60' --Inpatient
-       ,'61' --Inpatient
-       ,'PDE'   -- part d events </t>
-  </si>
-  <si>
     <t>no data in the field yet</t>
   </si>
   <si>
@@ -645,9 +665,6 @@
   </si>
   <si>
     <t>to_char(bb_eob.src_billable_period_end, 'm-YYYY-MM') AS activity_thru_month_cd</t>
-  </si>
-  <si>
-    <t>Eng did not populate</t>
   </si>
   <si>
     <t>bb_eob_item.src_serviced_date AS activity_from_date</t>
@@ -703,9 +720,6 @@
   </si>
   <si>
     <t>an npi at fac level</t>
-  </si>
-  <si>
-    <t>fk_patient_id</t>
   </si>
   <si>
     <t>model has src_patient_reference, but I don’t see way to join to bb_patient</t>
@@ -811,6 +825,115 @@
   </si>
   <si>
     <t>needed?, likely for 'fac_proc'</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_ip_stay_id</t>
+  </si>
+  <si>
+    <t>NULL AS ip_stay_from_dt</t>
+  </si>
+  <si>
+    <t>NULL AS ip_stay_thru_dt</t>
+  </si>
+  <si>
+    <t>NULL AS ip_stay_from_month_cd</t>
+  </si>
+  <si>
+    <t>NULL AS ip_stay_thru_month_cd</t>
+  </si>
+  <si>
+    <t>bb_eob, bb_eob_item, bb_eob_care_team</t>
+  </si>
+  <si>
+    <t>system: prvdr_num</t>
+  </si>
+  <si>
+    <t>change: pks, fks begin with 'cms_mssp', change to 'cms_bb' like in bb_patient (double check on this)</t>
+  </si>
+  <si>
+    <t>in Insights, the field concatenates cur_clm_uniq_id, clm_ctrl_num, clm_rndrg_prvdr_tax_num, fk_bene_id and claim from - to dates,  The 1st 3 aren't provide in BB data, so wil use bb_eob_identifier claim_id and claim_group and maybe src_provider (within eob_care_team) with the provider NPI but not all claims have care_teams.  Not sure why Insights uses the claim start end dates here insteam of claim line dates.  fk_bene_id is TBD by Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phys'||'|'||eobidPvt.clm_id||'|'||eobidPvt.claim_group||'|'||COALESCE(bb_eob_care_team.src_provider_npi,'#NA')||'|'||bb_eob.src_patient_reference||'|'||to_char(bb_eob_item.src_serviced_period_start,'m-YYYY-MM')||'|'||to_char(bb_eob_item.src_serviced_period_end,'m-YYYY-MM') AS fk_visit_id
+</t>
+  </si>
+  <si>
+    <t>important for all src_types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coalesce(bb_eob.src_billable_period_start, bb_eob_item.src_serviced_period_start) AS visit_from_dt
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coalesce(bb_eob.src_billable_period_end, bb_eob_item.src_serviced_period_end) AS visit_thru_dt 
+</t>
+  </si>
+  <si>
+    <t>Insights uses claim level dates for these but Eng needs to populate src Billable perioid start end, so I'm coalescing with claim line level (eob_item) dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to_char(coalesce(bb_eob.src_billable_period_start, bb_eob_item.src_serviced_period_start) ,'m-YYYY-MM') AS visit_from_month_cd
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to_char(coalesce(bb_eob.src_billable_period_end, bb_eob_item.src_serviced_period_end) ,'m-YYYY-MM') AS visit_thru_month_cd
+</t>
+  </si>
+  <si>
+    <t>fk_patient/bene_id</t>
+  </si>
+  <si>
+    <t>no sample records were loaded for Humana or Geisenger</t>
+  </si>
+  <si>
+    <t>{{dag_run.conf.org_id}}' AS org_id</t>
+  </si>
+  <si>
+    <t>{{dag_run.conf.org_id}}' AS org_id    'HUMANA'</t>
+  </si>
+  <si>
+    <t>phys'||'|'||bb_eob.pk_eob_id AS pk_activity_id</t>
+  </si>
+  <si>
+    <t>phys' AS activity_type_cd</t>
+  </si>
+  <si>
+    <t>carrier, outpatient, ?other</t>
+  </si>
+  <si>
+    <t>dme'||'|'||bb_eob.pk_eob_id AS pk_activity_id</t>
+  </si>
+  <si>
+    <t>dme' AS activity_type_cd</t>
+  </si>
+  <si>
+    <t>Eng did not populate the src_serviced_date field</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_visit_id</t>
+  </si>
+  <si>
+    <t>NULL AS visit_from_dt</t>
+  </si>
+  <si>
+    <t>NULL AS visit_thru_dt</t>
+  </si>
+  <si>
+    <t>#NA' AS visit_from_month_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS visit_thru_month_cd</t>
+  </si>
+  <si>
+    <t>all non carrier types, the fac types, pde (organization and facility)</t>
+  </si>
+  <si>
+    <t>Insights concatenates src_clm_srvc_prvdr_gnrc_id_num, the fk_bene_id and a clm line from date.  Tne 1st of these doesn't seem to be in the BB data (standarrd).   Organization and Facility sections carry npi information but Eng needs to add these fields.   Care_Team has npi and I'll use that for now. Eng needs to populate/create fK_bene_id and service date portions to I'll use src_patient_ref and a dummy date forr now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">med'||'|'||bb_eob_care_team.src_provider_npi||'|'||bb_eob.src_patient_reference||'|'||
+   to_char(COALESCE(bb_eob_item.src_serviced_date,CAST('1900-01-01' AS DATE)),'YYYYMMDD')
+  fk_visit_id </t>
   </si>
 </sst>
 </file>
@@ -1155,12 +1278,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1294,7 @@
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="92.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1220,15 +1343,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1236,10 +1359,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1264,13 +1387,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" t="s">
         <v>168</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>169</v>
       </c>
-      <c r="E6" t="s">
-        <v>170</v>
+      <c r="G6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,7 +1450,7 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -1347,16 +1473,16 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1370,16 +1496,16 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1390,10 +1516,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1401,11 +1527,20 @@
         <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1413,10 +1548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1562,7 @@
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" customWidth="1"/>
     <col min="17" max="17" width="18.140625" customWidth="1"/>
@@ -1437,77 +1571,85 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" t="s">
         <v>127</v>
       </c>
-      <c r="F2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" t="s">
         <v>128</v>
       </c>
-      <c r="I2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" t="s">
         <v>129</v>
       </c>
-      <c r="L2" t="s">
-        <v>172</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q2" t="s">
         <v>130</v>
       </c>
-      <c r="O2" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>131</v>
-      </c>
       <c r="R2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O3" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="Q3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -1515,87 +1657,99 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F5" s="1"/>
+      <c r="K5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="K6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -1603,25 +1757,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,25 +1783,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="R10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1655,13 +1809,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -1669,13 +1832,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -1683,13 +1855,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -1697,13 +1878,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -1711,185 +1901,252 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="225" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1897,7 +2154,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,7 +2162,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1913,7 +2170,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1921,7 +2178,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1929,7 +2186,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,7 +2194,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1945,7 +2202,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1953,7 +2210,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1961,7 +2218,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1969,7 +2226,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1977,7 +2234,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1985,7 +2242,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,7 +2250,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2001,7 +2258,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2009,7 +2266,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2017,7 +2274,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2025,7 +2282,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,7 +2290,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,7 +2298,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2306,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,7 +2314,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2065,7 +2322,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,7 +2330,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,7 +2338,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2089,7 +2346,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2097,7 +2354,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2105,7 +2362,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2113,7 +2370,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2121,7 +2378,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2129,7 +2386,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2137,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2145,7 +2402,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2153,7 +2410,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2161,7 +2418,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2169,7 +2426,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2177,7 +2434,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2185,7 +2442,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2193,7 +2450,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2201,7 +2458,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2209,7 +2466,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2217,7 +2474,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,7 +2482,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2233,7 +2490,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,7 +2498,7 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,7 +2506,7 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2257,7 +2514,7 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2265,7 +2522,7 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2273,7 +2530,7 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2281,7 +2538,7 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2306,10 +2563,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2325,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,7 +2590,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2341,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +2606,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,7 +2614,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2365,7 +2622,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,7 +2630,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,7 +2638,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2389,7 +2646,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2397,7 +2654,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2405,7 +2662,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2413,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2421,7 +2678,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2429,7 +2686,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2437,7 +2694,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2702,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2453,7 +2710,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,7 +2718,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2469,7 +2726,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2477,7 +2734,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2485,7 +2742,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,7 +2750,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2501,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,7 +2766,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2517,7 +2774,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +2782,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +2790,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2541,7 +2798,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2549,7 +2806,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2557,7 +2814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2565,7 +2822,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2573,7 +2830,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,7 +2838,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2589,7 +2846,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2597,7 +2854,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2605,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2613,7 +2870,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +2878,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2629,7 +2886,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2637,7 +2894,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2645,7 +2902,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2653,7 +2910,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2661,7 +2918,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +2926,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +2934,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +2942,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2693,7 +2950,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2701,7 +2958,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,7 +2966,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,7 +2974,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,7 +2982,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,7 +2990,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2788,10 +3045,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2799,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2810,7 +3067,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
   <si>
     <t>table</t>
   </si>
@@ -166,9 +166,6 @@
     <t>to -add</t>
   </si>
   <si>
-    <t>What's in Use field?  Field doesn't exist (marked in red)</t>
-  </si>
-  <si>
     <t>src diagnosis system</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
   </si>
   <si>
     <t>us-npi</t>
-  </si>
-  <si>
-    <t>us-npi, clm_fac_type_cd</t>
   </si>
   <si>
     <t>Only populated for Carrier Claims? (71), yes per BB Sanbox examples</t>
@@ -935,12 +929,98 @@
    to_char(COALESCE(bb_eob_item.src_serviced_date,CAST('1900-01-01' AS DATE)),'YYYYMMDD')
   fk_visit_id </t>
   </si>
+  <si>
+    <t>Source data pointer(s)</t>
+  </si>
+  <si>
+    <t>https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_inpatient.bb.json#L223
+https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_outpatient.bb.json#L165</t>
+  </si>
+  <si>
+    <t>Insights uses this field src_prvdr_oscar_num which I believe is supplied in a Provider section in source data, but Eng needs to pull it into new field.  Using a dummy number for now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insights uses src_fac_prvdr_npi_num which I believe is supplied in a facility section but Eng needs to retrieve into new field. Using dummy number for now., </t>
+  </si>
+  <si>
+    <t>012345' AS facility_ccn_num</t>
+  </si>
+  <si>
+    <t>see above note.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COALESCE('ccn_num'||'|'||'012345', '#NA') AS fk_facility_id  </t>
+  </si>
+  <si>
+    <t>https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_inpatient.bb.json#L246
+https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_outpatient.bb.json#L188</t>
+  </si>
+  <si>
+    <t>0123456789' AS facility_npi_num</t>
+  </si>
+  <si>
+    <t>clm_fac_type_cd</t>
+  </si>
+  <si>
+    <t>https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_outpatient.bb.json#L183</t>
+  </si>
+  <si>
+    <t>a type code at fac level</t>
+  </si>
+  <si>
+    <t>7' AS facility_type_cd</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_bill_fac_type_cd which is supplied in a facility section (clm_fac_type_cd) but eng needs to pull into new field.  Using dummy for now.</t>
+  </si>
+  <si>
+    <t>src_clm_bill_fac_type_cd (ods PI name)</t>
+  </si>
+  <si>
+    <t>src_clm_bill_clsfctn_cd  (ods PI name)</t>
+  </si>
+  <si>
+    <t>another classification cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insights uses src_clm_bill_clsfctn_cd.  The BB data provides for this (clm_srvc_clsfctn_type_cd) in the Type section. If that's correct Eng will need to pull into new field. Using dummy placeholderr. </t>
+  </si>
+  <si>
+    <t>1' AS facility_classification_cd</t>
+  </si>
+  <si>
+    <t>In Type section  clm_srvc_clsfctn_type_cd</t>
+  </si>
+  <si>
+    <t>https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_inpatient.fhir.json#L37</t>
+  </si>
+  <si>
+    <t>mapped as in Insights</t>
+  </si>
+  <si>
+    <t>#NA' AS facility_place_of_service_cd</t>
+  </si>
+  <si>
+    <t>Insights uses src_prvdr_oscar_num, src_clm_line_prod_rev_ctr_cd.  Oscar seems supplied in a prrovider section that needs to be pulled.   We are retrieving revenue codes.</t>
+  </si>
+  <si>
+    <t>ccn_num'||'|'||'012345'||'|'||bb_eob_item.src_revenue AS fk_facility_rev_ctr_id</t>
+  </si>
+  <si>
+    <t>bb_eob_item.src_revenue AS facility_revenue_center_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_tin_id</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_tin_rendering_id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,6 +1049,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -987,10 +1075,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -999,8 +1088,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1279,11 +1372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,12 +1385,13 @@
     <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.140625" customWidth="1"/>
+    <col min="8" max="8" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1311,16 +1405,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1333,73 +1430,70 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" t="s">
         <v>167</v>
       </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1407,39 +1501,39 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1447,22 +1541,25 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
+        <v>218</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1470,22 +1567,22 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1493,22 +1590,25 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>195</v>
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="G11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1516,31 +1616,83 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>260</v>
+      </c>
+      <c r="D12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" t="s">
+        <v>262</v>
+      </c>
+      <c r="H13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>221</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" location="L223" display="https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_inpatient.bb.json#L223"/>
+    <hyperlink ref="E11" r:id="rId2" location="L246" display="https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_inpatient.bb.json#L246"/>
+    <hyperlink ref="E12" r:id="rId3" location="L183"/>
+    <hyperlink ref="E13" r:id="rId4" location="L37"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1548,9 +1700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,68 +1723,68 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" t="s">
         <v>126</v>
       </c>
-      <c r="F2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" t="s">
         <v>127</v>
       </c>
-      <c r="I2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q2" t="s">
         <v>128</v>
       </c>
-      <c r="L2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>130</v>
-      </c>
       <c r="R2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1640,16 +1792,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -1657,17 +1809,17 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F5" s="1"/>
       <c r="K5" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1675,17 +1827,17 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -1693,31 +1845,31 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -1725,31 +1877,31 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="O8" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -1757,25 +1909,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,25 +1935,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1809,22 +1961,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -1832,22 +1984,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -1855,22 +2007,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -1878,22 +2030,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -1901,22 +2053,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,28 +2076,28 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="135" x14ac:dyDescent="0.25">
@@ -1953,22 +2105,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="N17" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="135" x14ac:dyDescent="0.25">
@@ -1976,22 +2128,22 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="165" x14ac:dyDescent="0.25">
@@ -1999,19 +2151,19 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="165" x14ac:dyDescent="0.25">
@@ -2019,19 +2171,19 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="90" x14ac:dyDescent="0.25">
@@ -2039,90 +2191,136 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2130,15 +2328,27 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2146,7 +2356,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2154,7 +2364,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2162,7 +2372,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2170,7 +2380,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2178,7 +2388,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2186,7 +2396,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2194,7 +2404,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2202,7 +2412,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2210,7 +2420,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2218,7 +2428,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2226,7 +2436,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2234,7 +2444,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2242,7 +2452,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2250,7 +2460,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2258,7 +2468,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2266,7 +2476,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2274,7 +2484,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2282,7 +2492,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2290,7 +2500,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2298,7 +2508,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2306,7 +2516,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2314,7 +2524,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2322,7 +2532,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2330,7 +2540,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2338,7 +2548,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2346,7 +2556,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2354,7 +2564,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2362,7 +2572,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2370,7 +2580,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,7 +2588,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2386,7 +2596,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2394,7 +2604,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2402,7 +2612,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2410,7 +2620,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2418,7 +2628,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2426,7 +2636,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2434,7 +2644,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2442,7 +2652,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2450,7 +2660,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2458,7 +2668,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2466,7 +2676,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2474,7 +2684,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2482,7 +2692,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2490,7 +2700,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2498,7 +2708,7 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2506,7 +2716,7 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2514,7 +2724,7 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,7 +2732,7 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2530,7 +2740,7 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2538,7 +2748,7 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2563,10 +2773,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2582,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2590,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2598,7 +2808,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2606,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,7 +2824,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2622,7 +2832,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2630,7 +2840,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2848,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2646,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2654,7 +2864,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2662,7 +2872,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2670,7 +2880,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,7 +2888,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,7 +2896,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2694,7 +2904,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,7 +2912,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2710,7 +2920,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,7 +2928,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2936,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2944,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2742,7 +2952,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,7 +2960,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,7 +2968,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2766,7 +2976,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2774,7 +2984,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,7 +2992,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2790,7 +3000,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +3008,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2806,7 +3016,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,7 +3024,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2822,7 +3032,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +3040,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2838,7 +3048,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2846,7 +3056,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2854,7 +3064,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2862,7 +3072,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2870,7 +3080,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2878,7 +3088,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2886,7 +3096,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,7 +3104,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +3112,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,7 +3120,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2918,7 +3128,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2926,7 +3136,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2934,7 +3144,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2942,7 +3152,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2950,7 +3160,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2958,7 +3168,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2966,7 +3176,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +3184,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,7 +3192,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2990,7 +3200,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3031,7 +3241,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -3045,10 +3255,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3056,21 +3266,21 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="changes or adds" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Michael O'Connor</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="300">
   <si>
     <t>table</t>
   </si>
@@ -1015,12 +1015,91 @@
   <si>
     <t>#NA' AS fk_tin_rendering_id</t>
   </si>
+  <si>
+    <t>insights uses src_clm_rndrg_prvdr_tax_num,  the supplied BB data and BB specs don’t have TINs or clear references to the EOB's fac, provider, or org.  Using '#NA' for now</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_facility_id</t>
+  </si>
+  <si>
+    <t>mapped as in insights</t>
+  </si>
+  <si>
+    <t>#NA' AS facility_ccn_num</t>
+  </si>
+  <si>
+    <t>#NA' AS facility_npi_num</t>
+  </si>
+  <si>
+    <t>#NA' AS facility_type_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS facility_classification_cd</t>
+  </si>
+  <si>
+    <t>Insights uses src_clm_pos_cd.. BB source data provides line_place_of_srvc_cd in a locationCodeableConcept section and it seems Eng did pull this into eob_item.src_location_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb_eob_item.src_location_code AS facility_place_of_service_cd </t>
+  </si>
+  <si>
+    <t>insighta uses src_clm_rndrg_prvdr_tax_num and src_clm_pos_cd.  I don't see BB providing TIN.  Concatenating with '#NA' for now</t>
+  </si>
+  <si>
+    <t>#NA' AS facility_revenue_center_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tin_pos'||'|'||'#NA'||'|'||bb_eob_item.src_location_code AS fk_facility_rev_ctr_id
+</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_rndrg_prvdr_tax_num.  TIN not provided by BB.  Using '#NA' for now</t>
+  </si>
+  <si>
+    <t>bb_eob_item.src_serviced_date AS visit_from_dt</t>
+  </si>
+  <si>
+    <t>bb_eob_item.src_serviced_date AS visit_thru_dt</t>
+  </si>
+  <si>
+    <t>TO_CHAR(bb_eob_item.src_serviced_date,'m-YYYY-MM') AS visit_from_month_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO_CHAR(bb_eob_item.src_serviced_date,'m-YYYY-MM') AS visit_thru_month_cd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insights uses src_prvdr_prsbng_id_qlfyr_cd and src_clm_srvc_prvdr_gnrc_id_num,  qlfyr code clarifies gnrc id (npi, ncpdp_num, tax_id).  I see no such info in the BB data except npi's in fac and org sections of EOB level.  Eng need to pull this.  Using dummy npi in the concatenate for now.  </t>
+  </si>
+  <si>
+    <t>dspns_prvdr'||'|'||'npi_num'||'|'||COALESCE('0123456789','#NA') AS fk_facility_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS facility_ccn_num </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS facility_classification_cd </t>
+  </si>
+  <si>
+    <t>insights uses c.src_clm_pos_cd.  I believe such information was pulled into bb_eob_item.src_location_code</t>
+  </si>
+  <si>
+    <t>bb_eob_item.src_location_code AS facility_place_of_service_cd</t>
+  </si>
+  <si>
+    <t>Eng will need to pull npi in fac section, using dummy number for now.</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>dspns_prvdr'||'|'||COALESCE('0123456789','#NA') AS facility_npi_num</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,6 +1136,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1079,7 +1165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1089,6 +1175,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1372,324 +1461,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.140625" customWidth="1"/>
-    <col min="8" max="8" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.140625" customWidth="1"/>
+    <col min="9" max="9" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>246</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>181</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>165</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>166</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>167</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>192</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>193</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>260</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>257</v>
       </c>
-      <c r="H12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>262</v>
       </c>
-      <c r="H13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>228</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>217</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" location="L223" display="https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_inpatient.bb.json#L223"/>
-    <hyperlink ref="E11" r:id="rId2" location="L246" display="https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_inpatient.bb.json#L246"/>
-    <hyperlink ref="E12" r:id="rId3" location="L183"/>
-    <hyperlink ref="E13" r:id="rId4" location="L37"/>
+    <hyperlink ref="F9" r:id="rId1" location="L223" display="https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_inpatient.bb.json#L223"/>
+    <hyperlink ref="F11" r:id="rId2" location="L246" display="https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_inpatient.bb.json#L246"/>
+    <hyperlink ref="F12" r:id="rId3" location="L183"/>
+    <hyperlink ref="F13" r:id="rId4" location="L37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId5"/>
@@ -1700,9 +1838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2238,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2122,8 +2260,11 @@
       <c r="N17" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2145,8 +2286,11 @@
       <c r="N18" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2165,8 +2309,11 @@
       <c r="N19" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2185,8 +2332,11 @@
       <c r="N20" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2212,8 +2362,14 @@
       <c r="O21" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2226,9 +2382,26 @@
       <c r="F22" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="K22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2241,8 +2414,26 @@
       <c r="F23" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="K23" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="R23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2255,8 +2446,26 @@
       <c r="F24" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="K24" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2269,8 +2478,20 @@
       <c r="F25" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="K25" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2283,8 +2504,20 @@
       <c r="F26" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="K26" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2297,8 +2530,20 @@
       <c r="F27" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="K27" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2308,8 +2553,14 @@
       <c r="E28" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="K28" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2322,8 +2573,14 @@
       <c r="F29" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2336,8 +2593,14 @@
       <c r="F30" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="K30" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2350,8 +2613,14 @@
       <c r="F31" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K31" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -66,6 +66,30 @@
     <author>Michael O'Connor</author>
   </authors>
   <commentList>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael O'Connor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+see mapping link: https://bluebutton.cms.gov/resources/codesystem/eob-type/</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -119,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="310">
   <si>
     <t>table</t>
   </si>
@@ -613,9 +637,6 @@
  AND bb_eob_item.src_revenue IS null </t>
   </si>
   <si>
-    <t>filtering</t>
-  </si>
-  <si>
     <t>bb_eob.src_type = 'PDE'</t>
   </si>
   <si>
@@ -1093,6 +1114,40 @@
   </si>
   <si>
     <t>dspns_prvdr'||'|'||COALESCE('0123456789','#NA') AS facility_npi_num</t>
+  </si>
+  <si>
+    <t>'#NA' AS facility_place_of_service_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_facility_rev_ctr_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS facility_revenue_center_cd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS fk_tin_rendering_id </t>
+  </si>
+  <si>
+    <t>insights uses src_clm_srvc_prvdr_gnrc_id_num with qualifier code '11'.  I don’t see such fields in the BB data/spec.  Will use '#NA'</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_srvc_prvdr_gnrc_id_num, src_clm_prsbng_prvdr_gnrc_id_num and qlfyr codes.  BB data and spec doesn’t have those.  BB has these provider roles:  primary, assist, supervisor, other</t>
+  </si>
+  <si>
+    <t>bb_eob_care_team</t>
+  </si>
+  <si>
+    <t>check that we're pulling from the CareTeam section of the eobs, not just providers coded as 'primary' but also as 'assist;,'supervisor','other'.   I'm only see 2 records not 'primary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filtering
+</t>
+  </si>
+  <si>
+    <t>med'||'|'||bb_eob.pk_eob_id AS pk_activity_id</t>
+  </si>
+  <si>
+    <t>med' AS activity_type_cd</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1225,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1178,6 +1232,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1461,11 +1518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1540,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1498,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -1541,10 +1598,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1555,10 +1612,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1589,16 +1646,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
         <v>165</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>166</v>
       </c>
-      <c r="G6" t="s">
-        <v>167</v>
-      </c>
       <c r="I6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1626,7 +1683,7 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1661,10 +1718,10 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>247</v>
+        <v>217</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1693,13 +1750,13 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -1718,17 +1775,17 @@
       <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>253</v>
+      <c r="F11" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="G11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1742,16 +1799,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" t="s">
         <v>256</v>
-      </c>
-      <c r="G12" t="s">
-        <v>257</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
@@ -1768,16 +1825,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" t="s">
         <v>261</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" t="s">
-        <v>262</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -1794,10 +1851,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1808,7 +1865,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1816,10 +1873,21 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -1838,9 +1906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,31 +1932,31 @@
         <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
         <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
         <v>126</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N2" t="s">
         <v>127</v>
       </c>
       <c r="O2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
         <v>128</v>
       </c>
       <c r="R2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -1898,8 +1966,8 @@
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>161</v>
+      <c r="D3" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>159</v>
@@ -1909,20 +1977,20 @@
         <v>160</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1933,13 +2001,16 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="N4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>230</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -1950,14 +2021,17 @@
         <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="K5" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>235</v>
+      <c r="K5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1967,15 +2041,18 @@
       <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>236</v>
+      <c r="E6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -1986,28 +2063,28 @@
         <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -2018,28 +2095,28 @@
         <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -2050,22 +2127,22 @@
         <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2076,22 +2153,22 @@
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2102,19 +2179,19 @@
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2125,19 +2202,19 @@
         <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2148,19 +2225,19 @@
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -2171,19 +2248,19 @@
         <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -2194,19 +2271,19 @@
         <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2217,25 +2294,25 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>221</v>
+        <v>200</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>245</v>
+        <v>219</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -2246,22 +2323,22 @@
         <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -2272,22 +2349,22 @@
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2298,19 +2375,19 @@
         <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2321,19 +2398,19 @@
         <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -2344,29 +2421,29 @@
         <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="O21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="R21" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2376,29 +2453,29 @@
       <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>252</v>
+      <c r="E22" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>292</v>
+      <c r="Q22" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2408,29 +2485,29 @@
       <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>277</v>
+      <c r="K23" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="O23" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>293</v>
+        <v>275</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="R23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -2440,29 +2517,29 @@
       <c r="B24" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>254</v>
+      <c r="E24" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>278</v>
+        <v>248</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>299</v>
+        <v>275</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -2472,23 +2549,29 @@
       <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>279</v>
+      <c r="K25" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -2498,23 +2581,29 @@
       <c r="B26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>264</v>
+      <c r="E26" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>280</v>
+        <v>262</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>294</v>
+        <v>275</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -2524,23 +2613,29 @@
       <c r="B27" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>270</v>
+      <c r="E27" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>296</v>
+        <v>268</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>295</v>
+        <v>275</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -2551,13 +2646,25 @@
         <v>70</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>284</v>
+        <v>270</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2567,17 +2674,29 @@
       <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>268</v>
+      <c r="E29" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -2587,17 +2706,29 @@
       <c r="B30" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>272</v>
+      <c r="E30" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>286</v>
+        <v>266</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -2608,24 +2739,39 @@
         <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>74</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3546,7 +3692,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="5340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="changes or adds" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael O'Connor:</t>
         </r>
@@ -49,7 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 note: this is not the provider key that's within the careteam key</t>
@@ -74,7 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael O'Connor:</t>
         </r>
@@ -83,7 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 see mapping link: https://bluebutton.cms.gov/resources/codesystem/eob-type/</t>
@@ -98,7 +98,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael O'Connor:</t>
         </r>
@@ -107,7 +107,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 no reecords rertrieved</t>
@@ -122,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael O'Connor:</t>
         </r>
@@ -131,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Billable Period Start and End are NULL currently so this evaluates tp NULL</t>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="349">
   <si>
     <t>table</t>
   </si>
@@ -866,9 +866,6 @@
     <t>change: pks, fks begin with 'cms_mssp', change to 'cms_bb' like in bb_patient (double check on this)</t>
   </si>
   <si>
-    <t>in Insights, the field concatenates cur_clm_uniq_id, clm_ctrl_num, clm_rndrg_prvdr_tax_num, fk_bene_id and claim from - to dates,  The 1st 3 aren't provide in BB data, so wil use bb_eob_identifier claim_id and claim_group and maybe src_provider (within eob_care_team) with the provider NPI but not all claims have care_teams.  Not sure why Insights uses the claim start end dates here insteam of claim line dates.  fk_bene_id is TBD by Eng</t>
-  </si>
-  <si>
     <t xml:space="preserve">phys'||'|'||eobidPvt.clm_id||'|'||eobidPvt.claim_group||'|'||COALESCE(bb_eob_care_team.src_provider_npi,'#NA')||'|'||bb_eob.src_patient_reference||'|'||to_char(bb_eob_item.src_serviced_period_start,'m-YYYY-MM')||'|'||to_char(bb_eob_item.src_serviced_period_end,'m-YYYY-MM') AS fk_visit_id
 </t>
   </si>
@@ -946,11 +943,6 @@
     <t>Insights concatenates src_clm_srvc_prvdr_gnrc_id_num, the fk_bene_id and a clm line from date.  Tne 1st of these doesn't seem to be in the BB data (standarrd).   Organization and Facility sections carry npi information but Eng needs to add these fields.   Care_Team has npi and I'll use that for now. Eng needs to populate/create fK_bene_id and service date portions to I'll use src_patient_ref and a dummy date forr now</t>
   </si>
   <si>
-    <t xml:space="preserve">med'||'|'||bb_eob_care_team.src_provider_npi||'|'||bb_eob.src_patient_reference||'|'||
-   to_char(COALESCE(bb_eob_item.src_serviced_date,CAST('1900-01-01' AS DATE)),'YYYYMMDD')
-  fk_visit_id </t>
-  </si>
-  <si>
     <t>Source data pointer(s)</t>
   </si>
   <si>
@@ -1131,9 +1123,6 @@
     <t>insights uses src_clm_srvc_prvdr_gnrc_id_num with qualifier code '11'.  I don’t see such fields in the BB data/spec.  Will use '#NA'</t>
   </si>
   <si>
-    <t>insights uses src_clm_srvc_prvdr_gnrc_id_num, src_clm_prsbng_prvdr_gnrc_id_num and qlfyr codes.  BB data and spec doesn’t have those.  BB has these provider roles:  primary, assist, supervisor, other</t>
-  </si>
-  <si>
     <t>bb_eob_care_team</t>
   </si>
   <si>
@@ -1148,13 +1137,141 @@
   </si>
   <si>
     <t>med' AS activity_type_cd</t>
+  </si>
+  <si>
+    <t>in Insights, the field concatenates cur_clm_uniq_id, clm_ctrl_num, clm_rndrg_prvdr_tax_num, fk_bene_id and claim from - to dates,  The 1st 3 aren't provide in BB data, so wil use bb_eob_identifier claim_id and claim_group and maybe src_provider (within eob_care_team) with the provider NPI but not all claims have care_teams.  Not sure why Insights uses the claim start end dates here instead of claim line dates.  fk_bene_id is TBD by Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COALESCE(primaryOnlyPrvdrNPILabel.providerID,array_construct('#NA')) AS fk_provider_id_list </t>
+  </si>
+  <si>
+    <t>insights again uses src_rndrg_prvdr_npi_num.  Will use 'primary' at index 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trim(primaryOnlyPrvdrNPILabel.providerID[0]) AS fk_provider_primary_id </t>
+  </si>
+  <si>
+    <t>#NA' AS fk_provider_operating_id</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_provider_attending_id</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_provider_other_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trim(primaryOnlyPrvdrNPILabel.providerID[0]) AS fk_provider_rendering_id </t>
+  </si>
+  <si>
+    <t>insights uses src_clm_prvdr_spclty_cd.  Will providerSpclty at index 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trim(primaryOnlyPrvdrNPILabel.providerSpclty[0]) AS provider_rendering_speecialty_cd </t>
+  </si>
+  <si>
+    <t>insights uses src_rndrg_prvdr_type_cd.  Will used providerRole at index 0.  This doesn't seem correct  BB provides this: carr_line_prvdr_type_cd in an eob_careteam extension section but we're not pulling that</t>
+  </si>
+  <si>
+    <t>trim(primaryOnlyPrvdrNPILabel.providerRole[0]) AS provider_rendering_type_cd</t>
+  </si>
+  <si>
+    <t>'#NA' AS fk_provider_pay_to_id</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_provider_ordering_id</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_provider_dispensing_id</t>
+  </si>
+  <si>
+    <t>'#NA' AS provider_dispensing_id_type_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_provider_prescribing_id</t>
+  </si>
+  <si>
+    <t>#NA' AS provider_prescribing_id_type_cd</t>
+  </si>
+  <si>
+    <t>insights uses src_rndrg_prvdr_npi_num,  BB has care team member is varied roles: primary, supervisor, assist, other.  Will use provders in Primary roles</t>
+  </si>
+  <si>
+    <t>insights uses: h.src_oprtg_prvdr_npi_num,h.src_atndg_prvdr_npi_num,h.src_othr_prvdr_npi_num.  Will use providers in all roles: primary, supervisor, assist, other</t>
+  </si>
+  <si>
+    <t>allPrvdrNPILabel.providerID AS fk_provider_id_list</t>
+  </si>
+  <si>
+    <t>insights uses h.src_oprtg_prvdr_npi_num,h.src_atndg_prvdr_npi_num,h.src_othr_prvdr_npi_num.  Will used providers in primary roles and use the one at index 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coalesce(trim(primaryOnlyPrvdrNPILabel.providerID[0]), 'npiNum|#NA') AS fk_provider_primary_id 
+</t>
+  </si>
+  <si>
+    <t>insights uses src_oprtg_prvdr_npi_num.  I don't see such a role in BB.  Will use '#NA'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS fk_provider_operating_id </t>
+  </si>
+  <si>
+    <t>insights uses src_atndg_prvdr_npi_num.  I don't see such a role in BB.  Will use '#NA'</t>
+  </si>
+  <si>
+    <t>insights uses h.src_othr_prvdr_npi_num.  Will use providers in supervisor, assist, other roles and select the one at index 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coalesce(trim(allOtherPrvdrNPILabel.providerID[0]), 'npiNum|#NA') AS fk_provider_other_id </t>
+  </si>
+  <si>
+    <t>#NA' AS fk_provider_rendering_id</t>
+  </si>
+  <si>
+    <t>#NA' AS provider_rendering_specialty_cd</t>
+  </si>
+  <si>
+    <t>'#NA' AS provider_rendering_type_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_provider_pay_to_id</t>
+  </si>
+  <si>
+    <t>#NA' AS provider_dispensing_id_type_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">med'||'|'||split_part(primaryOnlyPrvdrNPILabel.providerID[0],'|',2)||'|'||bb_eob.src_patient_reference||'|'||
+   to_char(COALESCE(bb_eob_item.src_serviced_date,CAST('1900-01-01' AS DATE)),'YYYYMMDD') AS fk_visit_id </t>
+  </si>
+  <si>
+    <t>insights uses src_clm_srvc_prvdr_gnrc_id_num, src_clm_prsbng_prvdr_gnrc_id_num and qlfyr codes.  BB data and spec doesn’t have those.  BB has these provider roles:  primary, assist, supervisor, other.  Will use providers in any/all roles.</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_prsbng_prvdr_gnrc_id_num.   Will use all primary providers getting the one at index 0</t>
+  </si>
+  <si>
+    <t>trim(primaryOnlyPrvdrNPILabel.providerID[0]) AS fk_provider_primary_id</t>
+  </si>
+  <si>
+    <t>#NA' AS provider_rendering_type_cd</t>
+  </si>
+  <si>
+    <t>insighs uses src_clm_srvc_prvdr_gnrc_id_num, I don't see this in BB unless fac section is relevant and Eng need to pull that.  Using #NA for now</t>
+  </si>
+  <si>
+    <t>insights uses src_prvdr_srvc_id_qlfyr_cd,  I don't see this in BB unless fac section is relevant and Eng need to pull that.  Using #NA for now</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_prsbng_prvdr_gnrc_id_num.   I don't see this in BB .. Using #NA</t>
+  </si>
+  <si>
+    <t>insights uses src_prvdr_prsbng_id_qlfyr_cd.  I don't see this iin BB, using '#NA;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1166,14 +1283,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -1193,6 +1310,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1220,7 +1343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1235,6 +1358,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1520,9 +1649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1669,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1555,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -1601,7 +1730,7 @@
         <v>172</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1655,7 +1784,7 @@
         <v>166</v>
       </c>
       <c r="I6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1721,7 +1850,7 @@
         <v>217</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1756,7 +1885,7 @@
         <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -1776,7 +1905,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G11" t="s">
         <v>192</v>
@@ -1785,7 +1914,7 @@
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1799,16 +1928,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" t="s">
         <v>254</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" t="s">
-        <v>256</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
@@ -1825,16 +1954,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -1851,7 +1980,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>193</v>
@@ -1884,10 +2013,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -1906,15 +2035,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
@@ -1967,7 +2096,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>159</v>
@@ -1987,7 +2116,7 @@
         <v>183</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>161</v>
@@ -2004,13 +2133,13 @@
         <v>162</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -2025,13 +2154,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="K5" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2046,13 +2175,13 @@
       </c>
       <c r="F6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -2084,7 +2213,7 @@
         <v>176</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -2116,7 +2245,7 @@
         <v>177</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -2300,19 +2429,19 @@
         <v>200</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -2329,16 +2458,16 @@
         <v>196</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -2355,16 +2484,16 @@
         <v>196</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2381,13 +2510,13 @@
         <v>196</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2404,13 +2533,13 @@
         <v>196</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -2454,28 +2583,28 @@
         <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L22" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="Q22" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2486,28 +2615,28 @@
         <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -2518,28 +2647,28 @@
         <v>66</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="O24" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -2550,28 +2679,28 @@
         <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -2582,28 +2711,28 @@
         <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -2614,28 +2743,28 @@
         <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -2646,25 +2775,25 @@
         <v>70</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2675,28 +2804,28 @@
         <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -2707,28 +2836,28 @@
         <v>72</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -2739,154 +2868,383 @@
         <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>74</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="R32" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="195" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2894,7 +3252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="375">
   <si>
     <t>table</t>
   </si>
@@ -620,10 +620,6 @@
   </si>
   <si>
     <t>DISCHARGE_STATUS_CD_LIST</t>
-  </si>
-  <si>
-    <t>bb_eob.src_type IN ('10', '20', '30','40','50','60','61') 
- AND bb_eob_item.src_revenue IS NOT null</t>
   </si>
   <si>
     <t xml:space="preserve"> AND bb_eob.src_type IN ('10'  --HHA
@@ -1166,9 +1162,6 @@
     <t>insights uses src_clm_prvdr_spclty_cd.  Will providerSpclty at index 0</t>
   </si>
   <si>
-    <t xml:space="preserve">trim(primaryOnlyPrvdrNPILabel.providerSpclty[0]) AS provider_rendering_speecialty_cd </t>
-  </si>
-  <si>
     <t>insights uses src_rndrg_prvdr_type_cd.  Will used providerRole at index 0.  This doesn't seem correct  BB provides this: carr_line_prvdr_type_cd in an eob_careteam extension section but we're not pulling that</t>
   </si>
   <si>
@@ -1264,14 +1257,121 @@
     <t>insights uses src_clm_prsbng_prvdr_gnrc_id_num.   I don't see this in BB .. Using #NA</t>
   </si>
   <si>
-    <t>insights uses src_prvdr_prsbng_id_qlfyr_cd.  I don't see this iin BB, using '#NA;</t>
+    <t>insights uses src_prvdr_prsbng_id_qlfyr_cd.  I don't see this in BB, using '#NA;</t>
+  </si>
+  <si>
+    <t>insights uses src_ordrg_prvdr_npi_num, src_payto_prvdr_npi_num,  I do not see that the BB standard supplies these.   Will use all provider roles in careteam for now</t>
+  </si>
+  <si>
+    <t>insights uses src_ordrg_prvdr_npi_num.  I don’t; see that in the BB DME standard.  Will use providers in 'primary' roles and select the one at index 0</t>
+  </si>
+  <si>
+    <t>coalesce(trim(primaryOnlyPrvdrNPILabel.providerID[0]), 'npiNum|#NA') AS fk_provider_primary_id</t>
+  </si>
+  <si>
+    <t>'#NA' AS fk_provider_attending_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trim(primaryOnlyPrvdrNPILabel.providerSpclty[0]) AS provider_rendering_specialty_cd </t>
+  </si>
+  <si>
+    <t>insights uses src_payto_prvdr_npi_num.  I don’t seet this in BB Standard, Will again pull primary providers, selecting one at index 0</t>
+  </si>
+  <si>
+    <t>coalesce(trim(primaryOnlyPrvdrNPILabel.providerID[0]), 'npiNum|#NA') AS fk_provider_pay_to_id</t>
+  </si>
+  <si>
+    <t>coalesce(trim(primaryOnlyPrvdrNPILabel.providerID[0]), 'npiNum|#NA') AS fk_provider_ordering_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS provider_prescribing_id_type_cd </t>
+  </si>
+  <si>
+    <t>TO_ARRAY('#NA') AS fk_diagnosis_id_list</t>
+  </si>
+  <si>
+    <t>TO_ARRAY('#NA') AS diagnosis_provider_detail_icd_9_cd_list</t>
+  </si>
+  <si>
+    <t>TO_ARRAY('#NA') AS diagnosis_provider_detail_icd_10_cd_list</t>
+  </si>
+  <si>
+    <t>hcpcs_cd'||'|'||COALESCE(bb_eob_item.src_service,'#NA') AS fk_procedure_id</t>
+  </si>
+  <si>
+    <t>insights uses COALESCE(xref.target_1_value, '#NA').   For insitution claims I don’t see where BB provides Betos, so an xref table would be ncessary here too.</t>
+  </si>
+  <si>
+    <t>COALESCE(xref.target_1_value, '#NA') AS procedure_betos_cd</t>
+  </si>
+  <si>
+    <t>insights uses 'hcpcs_cd'||'|'||COALESCE(c.src_clm_line_hcpcs_cd
+BB provides hcpcs for some EOB types  in that we capture in bb_eob_item.src_service</t>
+  </si>
+  <si>
+    <t>COALESCE(bb_eob_item.src_service,'#NA') AS procedure_hcpcs_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb_eob.src_type IN ('10', '20', '30','40','50','60','61') 
+</t>
+  </si>
+  <si>
+    <r>
+      <t>insights uses src_clm_line_dgns_cd, src_clm_dgns_1_cd, src_clm_dgns_##_cd
+and also src_dgns_prcdr_icd_ind to determing icd9 vs icd10
+we are pulling BB dxs inito bb_eob_diagnosis.  Eng needs to add a field capturing 'system'  which indicates icd9 vs icd10
+will pre-pend the dx's with 'icd_10_cm'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fcr now</t>
+    </r>
+  </si>
+  <si>
+    <t>insights use the above dx code field the indicator to determine icd9 vs 10.  Eng needs to pull system.  Using NA for now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insights use the above dx code field the indicator to determine icd9 vs 10.  Eng needs to pull system. Will put all Dxs in this field for now. </t>
+  </si>
+  <si>
+    <t>allEOBDxCodeAgg.fkDiagCode AS fk_diagnosis_id_list</t>
+  </si>
+  <si>
+    <t>allEOBDxCodeAgg.diagCode AS diagnosis_provider_detail_icd_10_cd_list</t>
+  </si>
+  <si>
+    <t>insights uses COALESCE('hcpcs_cd'||'|'||c.src_clm_line_hcpcs_cd,'#NA'
+BB provides hcpcs for some EOB types  in that we capture in bb_eob_item.src_service</t>
+  </si>
+  <si>
+    <t>OALESCE('hcpcs_cd'||'|'||bb_eob_item.src_service,'#NA') AS fk_procedure_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inisghts uses COALESCE(xref.target_1_value, '#NA')
+BB for Carrier claims info around BETOS in an eob_itme_extension but Eng will have to add that and we'd need to utilize diagnosisLinkId
+for now, code using xref
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COALESCE(bb_eob_item.src_service,'#NA') AS procedure_hcpcs_cd</t>
+  </si>
+  <si>
+    <t>insights uses COALESCE(c.src_clm_line_hcpcs_cd,'#NA')
+BB provides hcpcs for some EOB types  that we capture in bb_eob_item.src_service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1317,6 +1417,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1650,8 +1758,8 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1777,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1684,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -1727,10 +1835,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1741,10 +1849,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1775,16 +1883,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="s">
         <v>164</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>165</v>
       </c>
-      <c r="G6" t="s">
-        <v>166</v>
-      </c>
       <c r="I6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1847,10 +1955,10 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1879,13 +1987,13 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -1905,16 +2013,16 @@
         <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1928,16 +2036,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" t="s">
         <v>253</v>
-      </c>
-      <c r="G12" t="s">
-        <v>254</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
@@ -1954,16 +2062,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" t="s">
         <v>258</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" t="s">
-        <v>259</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -1980,10 +2088,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1994,7 +2102,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2002,10 +2110,10 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2013,10 +2121,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2035,9 +2143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,31 +2169,31 @@
         <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
         <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
         <v>126</v>
       </c>
       <c r="L2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
         <v>127</v>
       </c>
       <c r="O2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="s">
         <v>128</v>
       </c>
       <c r="R2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -2096,30 +2204,30 @@
         <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>364</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2130,16 +2238,16 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -2150,17 +2258,17 @@
         <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1"/>
       <c r="K5" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2171,17 +2279,17 @@
         <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -2192,28 +2300,28 @@
         <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -2224,28 +2332,28 @@
         <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -2256,22 +2364,22 @@
         <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,22 +2390,22 @@
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2308,19 +2416,19 @@
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2331,19 +2439,19 @@
         <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2354,19 +2462,19 @@
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -2377,19 +2485,19 @@
         <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -2400,19 +2508,19 @@
         <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2423,25 +2531,25 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -2452,22 +2560,22 @@
         <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -2478,22 +2586,22 @@
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2504,19 +2612,19 @@
         <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2527,19 +2635,19 @@
         <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -2550,29 +2658,29 @@
         <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="O21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="R21" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2583,28 +2691,28 @@
         <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="Q22" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2615,28 +2723,28 @@
         <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="K23" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="O23" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -2647,28 +2755,28 @@
         <v>66</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -2679,28 +2787,28 @@
         <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -2711,28 +2819,28 @@
         <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -2743,28 +2851,28 @@
         <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -2775,25 +2883,25 @@
         <v>70</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2804,28 +2912,28 @@
         <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -2836,28 +2944,28 @@
         <v>72</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -2868,28 +2976,28 @@
         <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -2900,25 +3008,31 @@
         <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L32" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>325</v>
       </c>
+      <c r="O32" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="Q32" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2926,22 +3040,28 @@
         <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -2952,22 +3072,28 @@
         <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -2978,19 +3104,25 @@
         <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -3001,19 +3133,25 @@
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3024,19 +3162,25 @@
         <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3047,19 +3191,25 @@
         <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="195" x14ac:dyDescent="0.25">
@@ -3070,22 +3220,28 @@
         <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -3093,22 +3249,28 @@
         <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -3116,19 +3278,25 @@
         <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3139,22 +3307,28 @@
         <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3165,22 +3339,28 @@
         <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3191,22 +3371,28 @@
         <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -3217,74 +3403,151 @@
         <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -3292,7 +3555,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -3300,7 +3563,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -3308,7 +3571,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -3316,7 +3579,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -3324,7 +3587,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -3332,7 +3595,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -3340,7 +3603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -3348,7 +3611,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -3356,7 +3619,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -3364,7 +3627,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -3372,7 +3635,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -3380,7 +3643,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -4050,7 +4313,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -53,6 +53,30 @@
           </rPr>
           <t xml:space="preserve">
 note: this is not the provider key that's within the careteam key</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael O'Connor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+procedure_link_id seems removed from BB Standard</t>
         </r>
       </text>
     </comment>
@@ -134,7 +158,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Billable Period Start and End are NULL currently so this evaluates tp NULL</t>
+Billable Period Start and End are NULL currently so this evaluates to NULL</t>
         </r>
       </text>
     </comment>
@@ -143,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="407">
   <si>
     <t>table</t>
   </si>
@@ -620,17 +644,6 @@
   </si>
   <si>
     <t>DISCHARGE_STATUS_CD_LIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AND bb_eob.src_type IN ('10'  --HHA
-       , '20' --SNF
-       , '30' --SNF
-       ,'40' --Outpatient
-       ,'50' --Hospice
-       ,'60' --Inpatient
-       ,'61' --Inpatient
-       ) 
- AND bb_eob_item.src_revenue IS null </t>
   </si>
   <si>
     <t>bb_eob.src_type = 'PDE'</t>
@@ -1187,9 +1200,6 @@
   </si>
   <si>
     <t>insights uses src_rndrg_prvdr_npi_num,  BB has care team member is varied roles: primary, supervisor, assist, other.  Will use provders in Primary roles</t>
-  </si>
-  <si>
-    <t>insights uses: h.src_oprtg_prvdr_npi_num,h.src_atndg_prvdr_npi_num,h.src_othr_prvdr_npi_num.  Will use providers in all roles: primary, supervisor, assist, other</t>
   </si>
   <si>
     <t>allPrvdrNPILabel.providerID AS fk_provider_id_list</t>
@@ -1366,12 +1376,155 @@
     <t>insights uses COALESCE(c.src_clm_line_hcpcs_cd,'#NA')
 BB provides hcpcs for some EOB types  that we capture in bb_eob_item.src_service</t>
   </si>
+  <si>
+    <t xml:space="preserve">TO_ARRAY('#NA') AS diagnosis_provider_detail_icd_10_cd_list  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS fk_procedure_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS procedure_betos_cd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS procedure_hcpcs_cd </t>
+  </si>
+  <si>
+    <t>bb_eob_item</t>
+  </si>
+  <si>
+    <t>populate src_procedure_link_id currently all NULL.   This will help to link bb_eob_item to bb_eob_procedure.src_sequence</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>src_procedure_code AS procedure_icd_10_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS procedure_icd_9_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '#NA' AS procedure_betos_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS procedure_hcpcs_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TO_ARRAY('#NA') AS procedure_hcpcs_mod_cd_list</t>
+  </si>
+  <si>
+    <t>icd_10_pcs_cd'||'|'||bb_eob_procedure.src_procedure_code AS fk_procedure_id</t>
+  </si>
+  <si>
+    <t>Insights uses src_dgns_prcdr_icd_ind and src_clm_prcdr_cd of cclf_3_pt_a_proc_cd.  I assume this data would be pulled into bb_eob_procedure.src_procedure_cd and ?src_procedure_reference (we may need a 'system' field) but the table is not populated .  Eng needs to pull or client needs to supply.  Using a dummy calculation without the CASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AND bb_eob.src_type IN ('10'  --HHA
+       , '20' --SNF
+       , '30' --SNF
+       ,'40' --Outpatient
+       ,'50' --Hospice
+       ,'60' --Inpatient
+       ,'61' --Inpatient
+       ) 
+ AND bb_eob_item.src_revenue IS null 
+filter might be more correct with an inner join from bb_eob to bb_eob_procedure</t>
+  </si>
+  <si>
+    <t>fac_proc'||'|'|| bb_eob_procedure.pk_eob_procedure_id AS pk_activity_id</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_prcdr_prfrm_dt with a data check.  Will map this to bb_eob_procedure.src_date without the data cheeck</t>
+  </si>
+  <si>
+    <t>fac_proc' AS activity_type_cd</t>
+  </si>
+  <si>
+    <t>bb_eob_procedure.src_date AS activity_from_dt</t>
+  </si>
+  <si>
+    <t>bb_eob_procedure.src_date AS activity_thru_dt</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_prcdr_prfrm_dt.  Will use bb_eob_procedure.src_date</t>
+  </si>
+  <si>
+    <t>TO_CHAR(bb_eob_procedure.src_date,'m-YYYY-MM') AS activity_from_month_cd</t>
+  </si>
+  <si>
+    <t>TO_CHAR(bb_eob_procedure.src_date,'m-YYYY-MM') AS activity_thru_month_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE
+          WHEN bb_eob.src_type IN ('10','20','30','50','60','61')
+              THEN 'fac'||'|'||'012345'||'|'||'0123455689'||'|'||bb_eob.src_patient_reference||'|'||TO_CHAR(bb_eob.src_billable_period_start,'YYYYMMDD')||'|'||TO_CHAR(bb_eob.src_billable_period_end,'YYYYMMDD')
+          ELSE
+              '#NA'
+      END AS fk_ip_stay_id </t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN bb_eob.src_type IN ('10','20','30','50','60','61')
+              THEN bb_eob.src_billable_period_start
+          ELSE
+              NULL
+      END AS ip_stay_from_dt</t>
+  </si>
+  <si>
+    <t>Eng will need add fields (i.e.  src_provider, src_facility) to capture provider oscar num (prvdr_num?) and facility npi nbr.   For now, filling with dummy values.  Eng will need to add a fk to Patient (insights has an fk_bene_id).  Will just use src_patient_reference for now. Eng will need to populate billling period dates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE
+          WHEN bb_eob.src_type = '40'
+              THEN 'fac_proc'||'|'||'012345'||'|'||'0123456789'||'|'||bb_eob.src_patient_reference||'|'||TO_CHAR(bb_eob.src_billable_period_start,'YYYYMMDD')||'|'||TO_CHAR(bb_eob.src_billable_period_end,'YYYYMMDD')
+          ELSE
+              '#NA'
+      END AS fk_visit_id </t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN bb_eob.src_type  = '40'
+              THEN bb_eob.src_billable_period_start
+          ELSE
+              NULL
+      END AS visit_from_dt</t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN bb_eob.src_type IN ('10','40') --why '10' too..error? 
+              THEN bb_eob.src_billable_period_end
+          ELSE
+              NULL
+      END AS visit_thru_dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE
+          WHEN bb_eob.src_type = '40'
+              THEN TO_CHAR(bb_eob.src_billable_period_start,'m-YYYY-MM')
+          ELSE
+              NULL
+      END AS visit_from_month_cd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COALESCE('ccn_num'||'|'||'012345', '#NA') AS fk_facility_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1' AS facility_classification_cd </t>
+  </si>
+  <si>
+    <t>insights uses: h.src_oprtg_prvdr_npi_num,h.src_atndg_prvdr_npi_num,h.src_othr_prvdr_npi_num.  Will use providers in all roles: primary, supervisor, assist, other
+or just pull the one provider whose sequence number = bb_eob_item.src_care_team_link_id</t>
+  </si>
+  <si>
+    <t>allPrvdrNPILabel.providerID AS fk_provider_id_list
+to_array('npi_num'||'|'||bb_eob_care_team.src_provider_npi) AS fk_provider_id_list2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1429,6 +1582,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1451,7 +1625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1472,6 +1646,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1755,17 +1933,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -1777,7 +1955,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1792,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -1835,10 +2013,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1849,10 +2027,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1883,16 +2061,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
         <v>163</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>164</v>
       </c>
-      <c r="G6" t="s">
-        <v>165</v>
-      </c>
       <c r="I6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1955,10 +2133,10 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1987,13 +2165,13 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -2013,16 +2191,16 @@
         <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2036,16 +2214,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" t="s">
         <v>252</v>
-      </c>
-      <c r="G12" t="s">
-        <v>253</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
@@ -2062,16 +2240,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" t="s">
         <v>257</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G13" t="s">
-        <v>258</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -2088,10 +2266,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2102,29 +2280,40 @@
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2324,8 @@
     <hyperlink ref="F13" r:id="rId4" location="L37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2143,9 +2333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,7 +2345,7 @@
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
@@ -2169,34 +2359,34 @@
         <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
         <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
         <v>126</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N2" t="s">
         <v>127</v>
       </c>
       <c r="O2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
         <v>128</v>
       </c>
       <c r="R2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2204,30 +2394,30 @@
         <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2238,19 +2428,22 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2258,17 +2451,20 @@
         <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5" s="1"/>
+      <c r="H5" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="K5" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2279,17 +2475,20 @@
         <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="K6" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -2300,28 +2499,34 @@
         <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -2332,28 +2537,34 @@
         <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -2364,25 +2575,31 @@
         <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2390,22 +2607,28 @@
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,19 +2639,25 @@
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2439,19 +2668,25 @@
         <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>195</v>
+      <c r="H12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2462,19 +2697,25 @@
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="K13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -2485,19 +2726,22 @@
         <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -2508,19 +2752,22 @@
         <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2531,25 +2778,31 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -2560,25 +2813,31 @@
         <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2586,22 +2845,28 @@
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2612,19 +2877,25 @@
         <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2635,19 +2906,25 @@
         <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -2658,29 +2935,35 @@
         <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>205</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="O21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="R21" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2691,28 +2974,34 @@
         <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L22" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="O22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2723,28 +3012,34 @@
         <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>247</v>
+      <c r="H23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="O23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -2755,31 +3050,37 @@
         <v>66</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2787,31 +3088,37 @@
         <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>255</v>
+      <c r="H25" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2819,28 +3126,34 @@
         <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -2851,28 +3164,34 @@
         <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -2883,25 +3202,31 @@
         <v>70</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -2912,28 +3237,34 @@
         <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>263</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="K29" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -2944,28 +3275,34 @@
         <v>72</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -2976,31 +3313,37 @@
         <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3008,28 +3351,28 @@
         <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L32" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="O32" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3040,28 +3383,28 @@
         <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3072,28 +3415,28 @@
         <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3104,25 +3447,25 @@
         <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -3133,25 +3476,25 @@
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3162,25 +3505,25 @@
         <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3191,25 +3534,25 @@
         <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="195" x14ac:dyDescent="0.25">
@@ -3220,25 +3563,25 @@
         <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3249,25 +3592,25 @@
         <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3278,25 +3621,25 @@
         <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3307,28 +3650,28 @@
         <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3339,28 +3682,28 @@
         <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3371,28 +3714,28 @@
         <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -3403,28 +3746,28 @@
         <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="330" x14ac:dyDescent="0.25">
@@ -3435,16 +3778,22 @@
         <v>88</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -3455,16 +3804,22 @@
         <v>89</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3475,19 +3830,25 @@
         <v>90</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="240" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -3495,19 +3856,31 @@
         <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="255" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -3515,19 +3888,31 @@
         <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -3535,43 +3920,73 @@
         <v>93</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I51" t="s">
+        <v>271</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H52" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="240" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="240" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H54" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -3579,7 +3994,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -3587,7 +4002,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -3595,7 +4010,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -3603,7 +4018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -3611,7 +4026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -3619,7 +4034,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -3627,7 +4042,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -3635,7 +4050,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -3643,7 +4058,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -4313,7 +4728,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="416">
   <si>
     <t>table</t>
   </si>
@@ -1518,6 +1518,39 @@
   <si>
     <t>allPrvdrNPILabel.providerID AS fk_provider_id_list
 to_array('npi_num'||'|'||bb_eob_care_team.src_provider_npi) AS fk_provider_id_list2</t>
+  </si>
+  <si>
+    <t>insights uses src_hcpcs_1_mdfr_cd, src_hcpcs_2_mdfr_cd etc.   For BB, the data in bb_eob_item.src_modifier is an array of dictionaries</t>
+  </si>
+  <si>
+    <t>check src_modifier.   It's only being populated for carrier claims:  claim types 71 and 72</t>
+  </si>
+  <si>
+    <t>ARRAY_CONSTRUCT(
+            COALESCE(bb_eob_item.src_modifier[0].coding[0]['code'],'#NA')
+          , COALESCE(bb_eob_item.src_modifier[1].coding[0]['code'],'#NA')
+          , COALESCE(bb_eob_item.src_modifier[2].coding[0]['code'],'#NA')
+          , COALESCE(bb_eob_item.src_modifier[3].coding[0]['code'],'#NA')
+          , COALESCE(bb_eob_item.src_modifier[4].coding[0]['code'],'#NA')
+      ) AS procedure_hcpcs_mod_cd_list</t>
+  </si>
+  <si>
+    <t>#NA' AS procedure_icd_10_cd</t>
+  </si>
+  <si>
+    <t>insights uses  COALESCE(h.src_clm_op_srvc_type_cd,'#NA').  BB has a line_cms_type_srvc_cd in Category section of Item which we likely pull into bb_eob_item.src_category   but only relevant for carrier claims.</t>
+  </si>
+  <si>
+    <t>#NA' AS service_op_type_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS service_cms_type_cd</t>
+  </si>
+  <si>
+    <t>insghts uses c.src_clm_line_srvc_unit_qty.  Will use item's quantity field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bb_eob_item.src_quantity AS service_units</t>
   </si>
 </sst>
 </file>
@@ -1933,11 +1966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,6 +2349,14 @@
         <v>301</v>
       </c>
     </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" location="L223" display="https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_inpatient.bb.json#L223"/>
@@ -2333,9 +2374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,6 +3397,9 @@
       <c r="F32" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="H32" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="K32" s="1" t="s">
         <v>306</v>
       </c>
@@ -3944,12 +3988,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>94</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>407</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>384</v>
@@ -3965,6 +4015,12 @@
       <c r="B53" t="s">
         <v>95</v>
       </c>
+      <c r="E53" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="H53" s="2" t="s">
         <v>381</v>
       </c>
@@ -3979,6 +4035,12 @@
       <c r="B54" t="s">
         <v>96</v>
       </c>
+      <c r="E54" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="H54" s="1" t="s">
         <v>380</v>
       </c>
@@ -3986,28 +4048,46 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E55" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E56" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>99</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="450">
   <si>
     <t>table</t>
   </si>
@@ -1364,12 +1364,6 @@
     <t>OALESCE('hcpcs_cd'||'|'||bb_eob_item.src_service,'#NA') AS fk_procedure_id</t>
   </si>
   <si>
-    <t xml:space="preserve">inisghts uses COALESCE(xref.target_1_value, '#NA')
-BB for Carrier claims info around BETOS in an eob_itme_extension but Eng will have to add that and we'd need to utilize diagnosisLinkId
-for now, code using xref
-</t>
-  </si>
-  <si>
     <t xml:space="preserve"> COALESCE(bb_eob_item.src_service,'#NA') AS procedure_hcpcs_cd</t>
   </si>
   <si>
@@ -1547,10 +1541,121 @@
     <t>#NA' AS service_cms_type_cd</t>
   </si>
   <si>
-    <t>insghts uses c.src_clm_line_srvc_unit_qty.  Will use item's quantity field</t>
-  </si>
-  <si>
     <t xml:space="preserve"> bb_eob_item.src_quantity AS service_units</t>
+  </si>
+  <si>
+    <t>insights uses c.src_clm_line_srvc_unit_qty.  Will use item's quantity field</t>
+  </si>
+  <si>
+    <t>using same logic as fac_rev</t>
+  </si>
+  <si>
+    <t>using same logic as fac_rev.  There's no option here though of getting bb_eob_item.src_care_team_link_id since I don’t go to the bb_eob_item table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using same logic as fac_rev </t>
+  </si>
+  <si>
+    <t>coalesce(trim(allOtherPrvdrNPILabel.providerID[0]), 'npiNum|#NA') AS fk_provider_other_id</t>
+  </si>
+  <si>
+    <t>using same logice as fac_rev</t>
+  </si>
+  <si>
+    <t>same logic as fac_rev,  bb -&gt; cclf mapping says the field isn't there in BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '#NA' AS service_cms_type_cd</t>
+  </si>
+  <si>
+    <t>0.0 AS service_units</t>
+  </si>
+  <si>
+    <t>using same logic as fac_rev.  It’s consistent with Insights</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_fed_type_srvc_cd, according to bb-&gt; cclf mapping, it's line_cms_type_srvc_cd in BB.  This is in the Category section forr carrrier claims.  Eng did pull 'code' into the field</t>
+  </si>
+  <si>
+    <t>bb_eob_item.src_category AS service_cms_type_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inisghts uses COALESCE(xref.target_1_value, '#NA')
+BB for Carrier claims has info around BETOS in an eob_item_extension but Eng will have to add that and we'd need to utilize diagnosisLinkId
+for now, code using xref
+</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_procedure_id</t>
+  </si>
+  <si>
+    <t>#NA' AS procedure_betos_cd</t>
+  </si>
+  <si>
+    <t>TO_ARRAY('#NA') AS procedure_hcpcs_mod_cd_list</t>
+  </si>
+  <si>
+    <t>BB-&gt;cclf mapping says the field should be in a category section identified  by line_cms_type_srvc_cd'.  Will use the same field as we did for 'phys' which maps that way</t>
+  </si>
+  <si>
+    <t>insights uses c.src_clm_line_ndc_cd.  NDC codes were pulled into bb_eob_item.src_service for PDE EOBs</t>
+  </si>
+  <si>
+    <t>COALESCE(bb_eob_item.src_service,'#NA') AS medication_ndc_spl_cd</t>
+  </si>
+  <si>
+    <t>same as above</t>
+  </si>
+  <si>
+    <t>ndc_spl_cd'||'|'||COALESCE(bb_eob_item.src_service,'#NA') AS fk_medication_id</t>
+  </si>
+  <si>
+    <t>#NA' AS medication_hcpcs_cd</t>
+  </si>
+  <si>
+    <t>COALESCE(bb_eob_info.src_code,'#NA') AS medication_dispensing_status_cd</t>
+  </si>
+  <si>
+    <t>inisghts uses src_clm_daw_prod_slctn_cd.  According to bb-&gt; cclf mapping, this is eob information with a category of https://bluebutton.cms.gov/resources/variables/daw_prod_slctn_cd</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_dspnsng_stus_cd.  According to bb-&gt;cclf mapping, this is in eob information with a category of https://bluebutton.cms.gov/resources/variables/dspnsng_stus_cd</t>
+  </si>
+  <si>
+    <t>COALESCE(bb_eob_info2.src_code,'#NA') AS medication_dispense_as_written_code</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_line_rx_fill_num</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_line_srvc_unit_qty</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_line_days_suply_qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COALESCE(eobidPvt.rx_srvc_rfrnc_num,'#NA') AS medication_dispense_ref_num </t>
+  </si>
+  <si>
+    <t>insights uses src_clm_line_rx_srvc_rfrnc_num
+according to bb-&gt; cclf mapping this is in the eob_identifier section
+where category is like rx_srvc_rfrnc_num
+I do a pivot on the eob_identifier table, not sure this is optimal sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb_eob_item </t>
+  </si>
+  <si>
+    <t>populate src_quantity for 'PDE' claim, they're all NULL</t>
+  </si>
+  <si>
+    <t>PDE'</t>
+  </si>
+  <si>
+    <t>to-add: for 'PDE' claims add fields for fill-num and days supply</t>
+  </si>
+  <si>
+    <t>https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_pde.bb.json#L783-L789</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1685,6 +1790,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1966,11 +2072,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,16 +2424,16 @@
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2338,7 +2444,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2349,12 +2455,34 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -2363,10 +2491,11 @@
     <hyperlink ref="F11" r:id="rId2" location="L246" display="https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_inpatient.bb.json#L246"/>
     <hyperlink ref="F12" r:id="rId3" location="L183"/>
     <hyperlink ref="F13" r:id="rId4" location="L37"/>
+    <hyperlink ref="F21" r:id="rId5" location="L783-L789"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2374,9 +2503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,7 +2571,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>206</v>
@@ -2496,7 +2625,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>228</v>
@@ -2520,7 +2649,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>229</v>
@@ -2546,10 +2675,10 @@
         <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>183</v>
@@ -2584,10 +2713,10 @@
         <v>182</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>184</v>
@@ -2622,10 +2751,10 @@
         <v>171</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>185</v>
@@ -2654,10 +2783,10 @@
         <v>171</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>186</v>
@@ -2686,7 +2815,7 @@
         <v>198</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>198</v>
@@ -2715,7 +2844,7 @@
         <v>194</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>194</v>
@@ -2825,10 +2954,10 @@
         <v>198</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>217</v>
@@ -2860,7 +2989,7 @@
         <v>194</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>194</v>
@@ -2892,7 +3021,7 @@
         <v>194</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>194</v>
@@ -2924,7 +3053,7 @@
         <v>194</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>194</v>
@@ -3021,7 +3150,7 @@
         <v>243</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>243</v>
@@ -3173,7 +3302,7 @@
         <v>258</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>258</v>
@@ -3392,13 +3521,16 @@
         <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>323</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>306</v>
@@ -3432,6 +3564,12 @@
       <c r="F33" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="H33" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="K33" s="1" t="s">
         <v>308</v>
       </c>
@@ -3464,6 +3602,12 @@
       <c r="F34" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="H34" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="K34" s="2" t="s">
         <v>309</v>
       </c>
@@ -3496,6 +3640,12 @@
       <c r="F35" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="H35" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="K35" s="2" t="s">
         <v>310</v>
       </c>
@@ -3525,6 +3675,12 @@
       <c r="F36" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="H36" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="K36" s="2" t="s">
         <v>311</v>
       </c>
@@ -3554,6 +3710,12 @@
       <c r="F37" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="H37" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="K37" s="1" t="s">
         <v>312</v>
       </c>
@@ -3583,6 +3745,12 @@
       <c r="F38" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="H38" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="K38" s="1" t="s">
         <v>349</v>
       </c>
@@ -3612,6 +3780,9 @@
       <c r="F39" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="H39" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="K39" s="1" t="s">
         <v>315</v>
       </c>
@@ -3641,6 +3812,9 @@
       <c r="F40" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="H40" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="K40" s="1" t="s">
         <v>316</v>
       </c>
@@ -3670,6 +3844,9 @@
       <c r="F41" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="H41" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="K41" s="2" t="s">
         <v>317</v>
       </c>
@@ -3699,6 +3876,9 @@
       <c r="F42" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="H42" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="K42" s="2" t="s">
         <v>318</v>
       </c>
@@ -3731,6 +3911,9 @@
       <c r="F43" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="H43" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="K43" s="1" t="s">
         <v>319</v>
       </c>
@@ -3763,6 +3946,9 @@
       <c r="F44" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="H44" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="K44" s="2" t="s">
         <v>320</v>
       </c>
@@ -3795,6 +3981,9 @@
       <c r="F45" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="H45" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="K45" s="2" t="s">
         <v>321</v>
       </c>
@@ -3827,11 +4016,23 @@
       <c r="F46" s="7" t="s">
         <v>271</v>
       </c>
+      <c r="H46" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="K46" s="1" t="s">
         <v>366</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>363</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>354</v>
@@ -3853,11 +4054,23 @@
       <c r="F47" s="7" t="s">
         <v>271</v>
       </c>
+      <c r="H47" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="K47" s="1" t="s">
         <v>355</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>364</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>355</v>
@@ -3879,14 +4092,26 @@
       <c r="F48" s="7" t="s">
         <v>271</v>
       </c>
+      <c r="H48" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="K48" s="1" t="s">
         <v>367</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>365</v>
       </c>
+      <c r="N48" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="Q48" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>271</v>
@@ -3906,10 +4131,10 @@
         <v>360</v>
       </c>
       <c r="H49" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>369</v>
@@ -3917,8 +4142,14 @@
       <c r="L49" s="7" t="s">
         <v>368</v>
       </c>
+      <c r="N49" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="Q49" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>271</v>
@@ -3938,7 +4169,7 @@
         <v>358</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>271</v>
@@ -3947,10 +4178,16 @@
         <v>359</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>370</v>
+        <v>426</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>271</v>
@@ -3967,22 +4204,28 @@
         <v>361</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I51" t="s">
         <v>271</v>
       </c>
       <c r="K51" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>372</v>
+      <c r="N51" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>271</v>
@@ -3996,15 +4239,33 @@
         <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I52" t="s">
+        <v>271</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="R52" s="1" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4016,16 +4277,34 @@
         <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>262</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="240" x14ac:dyDescent="0.25">
@@ -4036,16 +4315,34 @@
         <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>262</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -4056,13 +4353,37 @@
         <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="I55" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -4070,10 +4391,34 @@
         <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>262</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -4084,85 +4429,154 @@
         <v>99</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H57" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q58" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q59" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q60" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q61" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q62" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q63" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R64" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
       <c r="B65" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R65" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R66" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -4170,7 +4584,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -4178,7 +4592,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -4186,7 +4600,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -4194,7 +4608,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -4202,7 +4616,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -4210,7 +4624,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -4218,7 +4632,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
@@ -4226,7 +4640,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
@@ -4234,7 +4648,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
@@ -4242,7 +4656,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
@@ -4250,7 +4664,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
@@ -4258,7 +4672,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
@@ -4266,7 +4680,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="489">
   <si>
     <t>table</t>
   </si>
@@ -913,16 +913,10 @@
     <t>{{dag_run.conf.org_id}}' AS org_id    'HUMANA'</t>
   </si>
   <si>
-    <t>phys'||'|'||bb_eob.pk_eob_id AS pk_activity_id</t>
-  </si>
-  <si>
     <t>phys' AS activity_type_cd</t>
   </si>
   <si>
     <t>carrier, outpatient, ?other</t>
-  </si>
-  <si>
-    <t>dme'||'|'||bb_eob.pk_eob_id AS pk_activity_id</t>
   </si>
   <si>
     <t>dme' AS activity_type_cd</t>
@@ -1140,9 +1134,6 @@
   <si>
     <t xml:space="preserve">filtering
 </t>
-  </si>
-  <si>
-    <t>med'||'|'||bb_eob.pk_eob_id AS pk_activity_id</t>
   </si>
   <si>
     <t>med' AS activity_type_cd</t>
@@ -1625,15 +1616,6 @@
     <t>COALESCE(bb_eob_info2.src_code,'#NA') AS medication_dispense_as_written_code</t>
   </si>
   <si>
-    <t>insights uses src_clm_line_rx_fill_num</t>
-  </si>
-  <si>
-    <t>insights uses src_clm_line_srvc_unit_qty</t>
-  </si>
-  <si>
-    <t>insights uses src_clm_line_days_suply_qty</t>
-  </si>
-  <si>
     <t xml:space="preserve">COALESCE(eobidPvt.rx_srvc_rfrnc_num,'#NA') AS medication_dispense_ref_num </t>
   </si>
   <si>
@@ -1656,6 +1638,180 @@
   </si>
   <si>
     <t>https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_pde.bb.json#L783-L789</t>
+  </si>
+  <si>
+    <t>bb_eob_item.src_quantity AS medication_units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insights uses src_clm_line_srvc_unit_qty.  Bb-&gt; cclf mapping indicates this is in item.quantiity.value that we must have brought to bb_eob_item.src_quantity.  Eng needs to populated this field for 'PDE' eobs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insights uses src_clm_line_rx_fill_num. this is carried in item.quantity.url=fill_num.   I don’t see that the datamodel includes this.  SQL has dummy number for now. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST('1' AS smallint) AS medication_dispense_fill_num </t>
+  </si>
+  <si>
+    <t>insights uses src_clm_line_days_suply_qty
+This is carried in item.quantity.url=days_suply_num.  
+I don’t see that the data model supports this.  SQL using dummy number for now</t>
+  </si>
+  <si>
+    <t>JSON sections and 'flags' identifid in BB-&gt;cclf mapping document</t>
+  </si>
+  <si>
+    <t>1 AS medication_days_supply</t>
+  </si>
+  <si>
+    <t>mapped like procedure_hcpcs_cd above</t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN SUBSTR(bb_eob_item.src_service, 1, 1) = 'J'
+              THEN 'hcpcs_cd'||'|'||bb_eob_item.src_service
+          ELSE
+              '#NA'
+      END AS fk_medication_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS medication_ndc_spl_cd </t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN SUBSTR(bb_eob_item.src_service, 1, 1) = 'J'
+              THEN bb_eob_item.src_service
+          ELSE
+              '#NA'
+      END AS medication_hcpcs_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS medication_dispensing_status_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS medication_dispense_as_written_code</t>
+  </si>
+  <si>
+    <t>#NA' AS medication_dispense_ref_num</t>
+  </si>
+  <si>
+    <t>0 AS medication_dispense_fill_num</t>
+  </si>
+  <si>
+    <t>0.0 AS medication_units</t>
+  </si>
+  <si>
+    <t>0 AS medication_days_supply</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_medication_id</t>
+  </si>
+  <si>
+    <t>#NA' AS medication_ndc_spl_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0 AS medication_units</t>
+  </si>
+  <si>
+    <t>mapped; using src_service</t>
+  </si>
+  <si>
+    <t>mapped using src_service</t>
+  </si>
+  <si>
+    <t>'#NA' AS medication_hcpcs_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_dme_id</t>
+  </si>
+  <si>
+    <t>#NA' AS dme_hcpcs_cd</t>
+  </si>
+  <si>
+    <t>med'||'|'||bb_eob_item.pk_eob_item_id AS pk_activity_id</t>
+  </si>
+  <si>
+    <t>using the pk from bb_eob_item</t>
+  </si>
+  <si>
+    <t>bb_eob_item.pk_eob_item_id AS claim_pk</t>
+  </si>
+  <si>
+    <t>from the cclf definitioin:  COALESCE(TO_VARCHAR(clm_line_from_dt),'') || '|' ||
+      COALESCE(TO_VARCHAR(prvdr_srvc_id_qlfyr_cd),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_srvc_prvdr_gnrc_id_num),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_dspnsng_stus_cd),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_line_rx_srvc_rfrnc_num),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_line_rx_fill_num),'')
+      AS ODS_PT_D_CLM_NK</t>
+  </si>
+  <si>
+    <t>bb_eob.src_type AS claim_type_cd</t>
+  </si>
+  <si>
+    <t>pk at item level</t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN SUBSTR(bb_eob_item.src_service, 1, 1) = 'E'
+              THEN 'hcpcs_cd'||'|'||bb_eob_item.src_service
+          ELSE
+              '#NA'
+      END AS fk_dme_id</t>
+  </si>
+  <si>
+    <t>using src_service</t>
+  </si>
+  <si>
+    <t>mapped like insights using src_service but I think prependinng with 'hcpcs_cd' is wrong</t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN SUBSTR(bb_eob_item.src_service, 1, 1) = 'E'
+              THEN 'hcpcs_cd'||'|'||bb_eob_item.src_service
+          ELSE
+              '#NA'
+      END AS dme_hcpcs_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb_eob_item.pk_eob_item_id AS claim_pk </t>
+  </si>
+  <si>
+    <t>from the cclf definition: 
+COALESCE(TO_VARCHAR(prvdr_oscar_num),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_from_dt),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_thru_dt),'') || '|' ||
+      COALESCE(TO_VARCHAR(bene_mbi_id),'')
+      AS ODS_PT_A_CLM_NK</t>
+  </si>
+  <si>
+    <t>bb_eob_procedure.pk_eob_procedure_id AS claim_pk</t>
+  </si>
+  <si>
+    <t>mapped like insights but I thing pre-pendinig with 'hcpcs_cd' is wrong</t>
+  </si>
+  <si>
+    <t>phys'||'|'||bb_eob_item.pk_eob_item_id AS pk_activity_id</t>
+  </si>
+  <si>
+    <t>from the cclf definitions 
+COALESCE(TO_VARCHAR(clm_cntl_num),'') || '|' ||
+      COALESCE(TO_VARCHAR(bene_mbi_id),'')
+      AS ODS_PT_B_CLM_NK</t>
+  </si>
+  <si>
+    <t>dme'||'|'||bb_eob_item.pk_eob_item_id AS pk_activity_id</t>
+  </si>
+  <si>
+    <t>hcpcs_cd'||'|'||bb_eob_item.src_service AS fk_dme_id</t>
+  </si>
+  <si>
+    <t>bb_eob_item.src_service AS dme_hcpcs_cd</t>
+  </si>
+  <si>
+    <t>from the cclf definitionns: 
+COALESCE(TO_VARCHAR(clm_cntl_num),'') || '|' ||
+      COALESCE(TO_VARCHAR(bene_mbi_id),'')
+      AS ODS_PT_B_CLM_NK</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2231,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -2094,7 +2250,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2109,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -2209,7 +2365,7 @@
         <v>164</v>
       </c>
       <c r="I6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2275,7 +2431,7 @@
         <v>215</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -2310,7 +2466,7 @@
         <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -2330,7 +2486,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G11" t="s">
         <v>190</v>
@@ -2339,7 +2495,7 @@
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2353,16 +2509,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" t="s">
         <v>250</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G12" t="s">
-        <v>252</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
@@ -2379,16 +2535,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -2424,13 +2580,13 @@
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2449,40 +2605,43 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -2503,9 +2662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q64" sqref="Q64"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,7 +2680,7 @@
     <col min="14" max="14" width="19" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" customWidth="1"/>
     <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="31.42578125" customWidth="1"/>
+    <col min="18" max="18" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2564,14 +2723,14 @@
         <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>206</v>
@@ -2623,18 +2782,23 @@
       <c r="E5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>228</v>
+        <v>483</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>231</v>
+        <v>485</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>303</v>
+        <v>469</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2649,16 +2813,16 @@
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -2675,10 +2839,10 @@
         <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>183</v>
@@ -2696,7 +2860,7 @@
         <v>174</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -2713,10 +2877,10 @@
         <v>182</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>184</v>
@@ -2734,7 +2898,7 @@
         <v>175</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -2751,10 +2915,10 @@
         <v>171</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>185</v>
@@ -2783,10 +2947,10 @@
         <v>171</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>186</v>
@@ -2815,7 +2979,7 @@
         <v>198</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>198</v>
@@ -2844,7 +3008,7 @@
         <v>194</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>194</v>
@@ -2954,25 +3118,25 @@
         <v>198</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>217</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -2989,7 +3153,7 @@
         <v>194</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>194</v>
@@ -3001,10 +3165,10 @@
         <v>221</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -3021,7 +3185,7 @@
         <v>194</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>194</v>
@@ -3033,10 +3197,10 @@
         <v>221</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -3053,7 +3217,7 @@
         <v>194</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>194</v>
@@ -3062,10 +3226,10 @@
         <v>222</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -3091,10 +3255,10 @@
         <v>223</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -3144,34 +3308,34 @@
         <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -3182,34 +3346,34 @@
         <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -3220,34 +3384,34 @@
         <v>66</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="O24" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3258,34 +3422,34 @@
         <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -3296,34 +3460,34 @@
         <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3334,34 +3498,34 @@
         <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3372,31 +3536,31 @@
         <v>70</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -3407,34 +3571,34 @@
         <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3445,34 +3609,34 @@
         <v>72</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3483,34 +3647,34 @@
         <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -3521,34 +3685,34 @@
         <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3559,34 +3723,34 @@
         <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3597,34 +3761,34 @@
         <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3635,31 +3799,31 @@
         <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -3670,31 +3834,31 @@
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3705,31 +3869,31 @@
         <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3740,31 +3904,31 @@
         <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="195" x14ac:dyDescent="0.25">
@@ -3775,28 +3939,28 @@
         <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3807,28 +3971,28 @@
         <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3839,28 +4003,28 @@
         <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3871,31 +4035,31 @@
         <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3906,31 +4070,31 @@
         <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3941,31 +4105,31 @@
         <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -3976,31 +4140,31 @@
         <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="330" x14ac:dyDescent="0.25">
@@ -4011,34 +4175,34 @@
         <v>88</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -4049,34 +4213,34 @@
         <v>89</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4087,34 +4251,34 @@
         <v>90</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="240" x14ac:dyDescent="0.25">
@@ -4125,34 +4289,34 @@
         <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="255" x14ac:dyDescent="0.25">
@@ -4163,34 +4327,34 @@
         <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4201,34 +4365,34 @@
         <v>93</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I51" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="360" x14ac:dyDescent="0.25">
@@ -4239,34 +4403,34 @@
         <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="240" x14ac:dyDescent="0.25">
@@ -4277,34 +4441,34 @@
         <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="240" x14ac:dyDescent="0.25">
@@ -4315,34 +4479,34 @@
         <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -4353,34 +4517,34 @@
         <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -4391,34 +4555,34 @@
         <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="N56" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -4429,48 +4593,69 @@
         <v>99</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>100</v>
       </c>
+      <c r="E58" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="Q58" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4480,25 +4665,64 @@
       <c r="B59" t="s">
         <v>101</v>
       </c>
+      <c r="E59" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>462</v>
+      </c>
       <c r="Q59" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>102</v>
       </c>
+      <c r="E60" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q60" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -4508,11 +4732,32 @@
       <c r="B61" t="s">
         <v>103</v>
       </c>
+      <c r="E61" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>455</v>
+      </c>
       <c r="Q61" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4522,11 +4767,32 @@
       <c r="B62" t="s">
         <v>104</v>
       </c>
+      <c r="E62" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>456</v>
+      </c>
       <c r="Q62" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -4536,84 +4802,276 @@
       <c r="B63" t="s">
         <v>105</v>
       </c>
+      <c r="E63" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="Q63" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>106</v>
       </c>
+      <c r="E64" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="R64" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
       <c r="B65" t="s">
         <v>107</v>
       </c>
+      <c r="E65" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="R65" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66" t="s">
         <v>108</v>
       </c>
+      <c r="E66" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="R66" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
       <c r="B67" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
       <c r="B68" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
       <c r="B69" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="315" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
       <c r="B70" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F70" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
       <c r="B71" t="s">
         <v>113</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="522">
   <si>
     <t>table</t>
   </si>
@@ -1736,82 +1736,239 @@
     <t>bb_eob_item.pk_eob_item_id AS claim_pk</t>
   </si>
   <si>
+    <t>bb_eob.src_type AS claim_type_cd</t>
+  </si>
+  <si>
+    <t>pk at item level</t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN SUBSTR(bb_eob_item.src_service, 1, 1) = 'E'
+              THEN 'hcpcs_cd'||'|'||bb_eob_item.src_service
+          ELSE
+              '#NA'
+      END AS fk_dme_id</t>
+  </si>
+  <si>
+    <t>using src_service</t>
+  </si>
+  <si>
+    <t>mapped like insights using src_service but I think prependinng with 'hcpcs_cd' is wrong</t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN SUBSTR(bb_eob_item.src_service, 1, 1) = 'E'
+              THEN 'hcpcs_cd'||'|'||bb_eob_item.src_service
+          ELSE
+              '#NA'
+      END AS dme_hcpcs_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb_eob_item.pk_eob_item_id AS claim_pk </t>
+  </si>
+  <si>
+    <t>from the cclf definition: 
+COALESCE(TO_VARCHAR(prvdr_oscar_num),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_from_dt),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_thru_dt),'') || '|' ||
+      COALESCE(TO_VARCHAR(bene_mbi_id),'')
+      AS ODS_PT_A_CLM_NK</t>
+  </si>
+  <si>
+    <t>bb_eob_procedure.pk_eob_procedure_id AS claim_pk</t>
+  </si>
+  <si>
+    <t>mapped like insights but I thing pre-pendinig with 'hcpcs_cd' is wrong</t>
+  </si>
+  <si>
+    <t>phys'||'|'||bb_eob_item.pk_eob_item_id AS pk_activity_id</t>
+  </si>
+  <si>
+    <t>dme'||'|'||bb_eob_item.pk_eob_item_id AS pk_activity_id</t>
+  </si>
+  <si>
+    <t>hcpcs_cd'||'|'||bb_eob_item.src_service AS fk_dme_id</t>
+  </si>
+  <si>
+    <t>bb_eob_item.src_service AS dme_hcpcs_cd</t>
+  </si>
+  <si>
+    <t>from the cclf definitionns: 
+COALESCE(TO_VARCHAR(clm_cntl_num),'') || '|' ||
+      COALESCE(TO_VARCHAR(bene_mbi_id),'')
+      AS ODS_PT_B_CLM_NK</t>
+  </si>
+  <si>
+    <t>from the cclf definition: 
+COALESCE(TO_VARCHAR(prvdr_oscar_num),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_from_dt),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_thru_dt),'') || '|' ||
+      COALESCE(TO_VARCHAR(bene_mbi_id),'')
+      AS ODS_PT_A_CLM_NK
+regarding prvdr_oscar_num Eng needs to pull into new field, regarding clm_from and thru Eng needs to populate src_billabl_start; and end, regarding bene_mbi Eng needs a better patient ID or fk.  in sample SQL, I'm using reference fields for now</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(bb_eob.src_provider_reference),'') || '|' ||
+      COALESCE(TO_VARCHAR(bb_eob.src_billable_period_start),'') || '|' ||
+      COALESCE(TO_VARCHAR(bb_eob.src_billable_period_end),'') || '|' ||
+      COALESCE(TO_VARCHAR(bb_eob.src_patient_reference),'')
+      AS ODS_PT_A_CLM_NK</t>
+  </si>
+  <si>
+    <t>from the cclf definitions 
+COALESCE(TO_VARCHAR(clm_cntl_num),'') || '|' ||
+      COALESCE(TO_VARCHAR(bene_mbi_id),'')
+      AS ODS_PT_B_CLM_NK
+for clm_cntl_num, I'm using clm_id from eob identifier section.  This aligns with BB-&gt;cclf mapping suggestion</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(eobidPvt.clm_id),'') || '|' ||
+      COALESCE(TO_VARCHAR(bb_eob.src_patient_reference),'')
+      AS ODS_PT_B_CLM_NK</t>
+  </si>
+  <si>
     <t>from the cclf definitioin:  COALESCE(TO_VARCHAR(clm_line_from_dt),'') || '|' ||
       COALESCE(TO_VARCHAR(prvdr_srvc_id_qlfyr_cd),'') || '|' ||
       COALESCE(TO_VARCHAR(clm_srvc_prvdr_gnrc_id_num),'') || '|' ||
       COALESCE(TO_VARCHAR(clm_dspnsng_stus_cd),'') || '|' ||
       COALESCE(TO_VARCHAR(clm_line_rx_srvc_rfrnc_num),'') || '|' ||
       COALESCE(TO_VARCHAR(clm_line_rx_fill_num),'')
+      AS ODS_PT_D_CLM_NK
+for prvdr_srvc_id_qlfyr_cd, need to access facility.identifier.system to calculate as :
+if facility.identifier.system =='http://hl7.org/fhir/sid/us-npi' then '01' else '#NA' end
+for clm_line_rx_fill_num, Eng need to create and populate a field and use bb-&gt;cclf mapping for JSON location</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(bb_eob_item.src_serviced_date),'') || '|' ||
+      COALESCE(TO_VARCHAR('01'),'') || '|' ||    --dummied as '01' until pull from facility.system 
+      COALESCE(TO_VARCHAR(bb_eob.src_facility_reference),'') || '|' ||  --facility field is improved in sandbox
+      COALESCE(TO_VARCHAR(bb_eob_info.src_code),'') || '|' ||
+      COALESCE(TO_VARCHAR(eobidPvt.rx_srvc_rfrnc_num),'') || '|' ||
+      COALESCE(TO_VARCHAR('02'),'')   --dummied as '2' until Eng pulls fill_num from JSON
       AS ODS_PT_D_CLM_NK</t>
   </si>
   <si>
-    <t>bb_eob.src_type AS claim_type_cd</t>
-  </si>
-  <si>
-    <t>pk at item level</t>
-  </si>
-  <si>
-    <t>CASE
-          WHEN SUBSTR(bb_eob_item.src_service, 1, 1) = 'E'
-              THEN 'hcpcs_cd'||'|'||bb_eob_item.src_service
+    <t>0.0 AS claim_line_allowed_amt</t>
+  </si>
+  <si>
+    <t>CASE 
+   WHEN SRC_CATEGORY LIKE '%clm_freq_cd' AND SRC_CODE = '8' --8:Void/cancel prior claim
+      THEN '1'
+   ELSE '0'
+    END AS src_clm_adjsmt_type_cd</t>
+  </si>
+  <si>
+    <t>this field is used internally in calculation of clm_line_paid_amt
+I used logic in a cte from bb-&gt; cclf mapping: 
+If information.[system=='https://bluebutton.cms.gov/resources/variables/clm_freq_cd'].code.coding.code == 8, then 1, else 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(CASE
+          WHEN bb_eob_info.src_clm_adjsmt_type_cd = '1'
+              THEN -1
           ELSE
-              '#NA'
-      END AS fk_dme_id</t>
-  </si>
-  <si>
-    <t>using src_service</t>
-  </si>
-  <si>
-    <t>mapped like insights using src_service but I think prependinng with 'hcpcs_cd' is wrong</t>
-  </si>
-  <si>
-    <t>CASE
-          WHEN SUBSTR(bb_eob_item.src_service, 1, 1) = 'E'
-              THEN 'hcpcs_cd'||'|'||bb_eob_item.src_service
+              1
+      END * bb_eob_item_adj.src_amount) AS claim_line_paid_amt </t>
+  </si>
+  <si>
+    <t>using cte's and similar logic as insights</t>
+  </si>
+  <si>
+    <t>0.0 AS claim_line_bene_paid_amt</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>0.0 AS claim_line_paid_amt</t>
+  </si>
+  <si>
+    <t>, 0.0 AS claim_line_bene_paid_am</t>
+  </si>
+  <si>
+    <t>CASE 
+    WHEN SRC_CATEGORY LIKE '%clm_freq_cd' AND SRC_CODE = '8' --8:Void/cancel prior claim
+       THEN '1'
+    ELSE '0'
+   END AS src_clm_adjsmt_type_cd</t>
+  </si>
+  <si>
+    <t>logic used in a cte patterned after insights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(CASE
+          WHEN bb_eob_info.src_clm_adjsmt_type_cd = '1'
+              THEN -1
           ELSE
-              '#NA'
-      END AS dme_hcpcs_cd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bb_eob_item.pk_eob_item_id AS claim_pk </t>
-  </si>
-  <si>
-    <t>from the cclf definition: 
-COALESCE(TO_VARCHAR(prvdr_oscar_num),'') || '|' ||
-      COALESCE(TO_VARCHAR(clm_from_dt),'') || '|' ||
-      COALESCE(TO_VARCHAR(clm_thru_dt),'') || '|' ||
-      COALESCE(TO_VARCHAR(bene_mbi_id),'')
-      AS ODS_PT_A_CLM_NK</t>
-  </si>
-  <si>
-    <t>bb_eob_procedure.pk_eob_procedure_id AS claim_pk</t>
-  </si>
-  <si>
-    <t>mapped like insights but I thing pre-pendinig with 'hcpcs_cd' is wrong</t>
-  </si>
-  <si>
-    <t>phys'||'|'||bb_eob_item.pk_eob_item_id AS pk_activity_id</t>
-  </si>
-  <si>
-    <t>from the cclf definitions 
-COALESCE(TO_VARCHAR(clm_cntl_num),'') || '|' ||
-      COALESCE(TO_VARCHAR(bene_mbi_id),'')
-      AS ODS_PT_B_CLM_NK</t>
-  </si>
-  <si>
-    <t>dme'||'|'||bb_eob_item.pk_eob_item_id AS pk_activity_id</t>
-  </si>
-  <si>
-    <t>hcpcs_cd'||'|'||bb_eob_item.src_service AS fk_dme_id</t>
-  </si>
-  <si>
-    <t>bb_eob_item.src_service AS dme_hcpcs_cd</t>
-  </si>
-  <si>
-    <t>from the cclf definitionns: 
-COALESCE(TO_VARCHAR(clm_cntl_num),'') || '|' ||
-      COALESCE(TO_VARCHAR(bene_mbi_id),'')
-      AS ODS_PT_B_CLM_NK</t>
+              1
+      END * bb_eob_item_adj.src_amount) AS claim_line_allowed_amt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(CASE
+          WHEN bb_eob_info.src_clm_adjsmt_type_cd = '1'
+              THEN -1
+          ELSE
+              1
+      END * bb_eob_item_adj2.src_amount) AS claim_line_paid_amt </t>
+  </si>
+  <si>
+    <t>, 0.0 AS claim_line_bene_paid_amt</t>
+  </si>
+  <si>
+    <t>, 0.0 AS claim_line_allowed_amt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE
+          WHEN bb_eob_info.src_clm_adjsmt_type_cd = '1'
+              THEN -1
+          ELSE
+              1
+      END * bb_eob_item_adj.src_amount) AS claim_line_paid_amt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(CASE
+          WHEN bb_eob_info.src_clm_adjsmt_type_cd = '1'
+              THEN -1
+          ELSE
+              1
+      END * bb_eob_item_adj.src_amount) AS claim_line_bene_paid_amt </t>
+  </si>
+  <si>
+    <t>{{dag_run.conf.load_period}}' AS load_period</t>
+  </si>
+  <si>
+    <t>according to bb-&gt;cclf mapping, this info isn’t in BB</t>
+  </si>
+  <si>
+    <t>{{ti.job_id}} AS load_run_id</t>
+  </si>
+  <si>
+    <t>, CURRENT_TIMESTAMP AS load_ts</t>
+  </si>
+  <si>
+    <t>not used in airflow script</t>
+  </si>
+  <si>
+    <t>#NA' AS claim_primary_payer_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">according to bb-&gt;cclf mapping, this info isn’t in BB
+if we want APCs, can we lik to ref table? </t>
+  </si>
+  <si>
+    <t>#NA' AS rev_apc_hipps_cd</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP AS load_ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS rev_apc_hipps_cd </t>
+  </si>
+  <si>
+    <t>null AS claim_primary_payer_cd</t>
+  </si>
+  <si>
+    <t>#NA' as rev_apc_hipps_cd</t>
   </si>
 </sst>
 </file>
@@ -2231,8 +2388,8 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,9 +2819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N70" sqref="N70"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,16 +2940,16 @@
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>384</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>469</v>
@@ -4943,10 +5100,10 @@
         <v>109</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>467</v>
@@ -4955,10 +5112,10 @@
         <v>269</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>467</v>
@@ -4975,10 +5132,10 @@
         <v>110</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>468</v>
@@ -4987,13 +5144,13 @@
         <v>269</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>468</v>
@@ -5010,10 +5167,10 @@
         <v>111</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>471</v>
@@ -5028,27 +5185,42 @@
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="315" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
       <c r="B70" t="s">
         <v>112</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="F70" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -5059,99 +5231,330 @@
         <v>113</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="195" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
       <c r="B72" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
       <c r="B73" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="195" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
       <c r="B74" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="195" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
       <c r="B75" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
       <c r="B76" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E76" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
       <c r="B77" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
       <c r="B78" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E79" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="R79" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E80" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I80" t="s">
+        <v>269</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
       <c r="B81" t="s">
         <v>123</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="5340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="changes or adds" sheetId="1" r:id="rId1"/>
     <sheet name="activity" sheetId="2" r:id="rId2"/>
-    <sheet name="visit" sheetId="3" r:id="rId3"/>
-    <sheet name="questions" sheetId="4" r:id="rId4"/>
+    <sheet name="inpatient stay" sheetId="5" r:id="rId3"/>
+    <sheet name="visit" sheetId="3" r:id="rId4"/>
+    <sheet name="questions" sheetId="4" r:id="rId5"/>
+    <sheet name="SNDBX_BB BB_EOB" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -166,8 +168,66 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Michael O'Connor</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael O'Connor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated in final SELECT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael O'Connor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated in final SELECT</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="646">
   <si>
     <t>table</t>
   </si>
@@ -1084,12 +1144,6 @@
     <t xml:space="preserve">TO_CHAR(bb_eob_item.src_serviced_date,'m-YYYY-MM') AS visit_thru_month_cd </t>
   </si>
   <si>
-    <t xml:space="preserve">Insights uses src_prvdr_prsbng_id_qlfyr_cd and src_clm_srvc_prvdr_gnrc_id_num,  qlfyr code clarifies gnrc id (npi, ncpdp_num, tax_id).  I see no such info in the BB data except npi's in fac and org sections of EOB level.  Eng need to pull this.  Using dummy npi in the concatenate for now.  </t>
-  </si>
-  <si>
-    <t>dspns_prvdr'||'|'||'npi_num'||'|'||COALESCE('0123456789','#NA') AS fk_facility_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">#NA' AS facility_ccn_num </t>
   </si>
   <si>
@@ -1108,9 +1162,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>dspns_prvdr'||'|'||COALESCE('0123456789','#NA') AS facility_npi_num</t>
-  </si>
-  <si>
     <t>'#NA' AS facility_place_of_service_cd</t>
   </si>
   <si>
@@ -1121,9 +1172,6 @@
   </si>
   <si>
     <t xml:space="preserve">#NA' AS fk_tin_rendering_id </t>
-  </si>
-  <si>
-    <t>insights uses src_clm_srvc_prvdr_gnrc_id_num with qualifier code '11'.  I don’t see such fields in the BB data/spec.  Will use '#NA'</t>
   </si>
   <si>
     <t>bb_eob_care_team</t>
@@ -1233,19 +1281,12 @@
     <t>#NA' AS provider_dispensing_id_type_cd</t>
   </si>
   <si>
-    <t xml:space="preserve">med'||'|'||split_part(primaryOnlyPrvdrNPILabel.providerID[0],'|',2)||'|'||bb_eob.src_patient_reference||'|'||
-   to_char(COALESCE(bb_eob_item.src_serviced_date,CAST('1900-01-01' AS DATE)),'YYYYMMDD') AS fk_visit_id </t>
-  </si>
-  <si>
     <t>insights uses src_clm_srvc_prvdr_gnrc_id_num, src_clm_prsbng_prvdr_gnrc_id_num and qlfyr codes.  BB data and spec doesn’t have those.  BB has these provider roles:  primary, assist, supervisor, other.  Will use providers in any/all roles.</t>
   </si>
   <si>
     <t>insights uses src_clm_prsbng_prvdr_gnrc_id_num.   Will use all primary providers getting the one at index 0</t>
   </si>
   <si>
-    <t>trim(primaryOnlyPrvdrNPILabel.providerID[0]) AS fk_provider_primary_id</t>
-  </si>
-  <si>
     <t>#NA' AS provider_rendering_type_cd</t>
   </si>
   <si>
@@ -1253,12 +1294,6 @@
   </si>
   <si>
     <t>insights uses src_prvdr_srvc_id_qlfyr_cd,  I don't see this in BB unless fac section is relevant and Eng need to pull that.  Using #NA for now</t>
-  </si>
-  <si>
-    <t>insights uses src_clm_prsbng_prvdr_gnrc_id_num.   I don't see this in BB .. Using #NA</t>
-  </si>
-  <si>
-    <t>insights uses src_prvdr_prsbng_id_qlfyr_cd.  I don't see this in BB, using '#NA;</t>
   </si>
   <si>
     <t>insights uses src_ordrg_prvdr_npi_num, src_payto_prvdr_npi_num,  I do not see that the BB standard supplies these.   Will use all provider roles in careteam for now</t>
@@ -1604,16 +1639,10 @@
     <t>#NA' AS medication_hcpcs_cd</t>
   </si>
   <si>
-    <t>COALESCE(bb_eob_info.src_code,'#NA') AS medication_dispensing_status_cd</t>
-  </si>
-  <si>
     <t>inisghts uses src_clm_daw_prod_slctn_cd.  According to bb-&gt; cclf mapping, this is eob information with a category of https://bluebutton.cms.gov/resources/variables/daw_prod_slctn_cd</t>
   </si>
   <si>
     <t>insights uses src_clm_dspnsng_stus_cd.  According to bb-&gt;cclf mapping, this is in eob information with a category of https://bluebutton.cms.gov/resources/variables/dspnsng_stus_cd</t>
-  </si>
-  <si>
-    <t>COALESCE(bb_eob_info2.src_code,'#NA') AS medication_dispense_as_written_code</t>
   </si>
   <si>
     <t xml:space="preserve">COALESCE(eobidPvt.rx_srvc_rfrnc_num,'#NA') AS medication_dispense_ref_num </t>
@@ -1839,15 +1868,6 @@
 for clm_line_rx_fill_num, Eng need to create and populate a field and use bb-&gt;cclf mapping for JSON location</t>
   </si>
   <si>
-    <t>COALESCE(TO_VARCHAR(bb_eob_item.src_serviced_date),'') || '|' ||
-      COALESCE(TO_VARCHAR('01'),'') || '|' ||    --dummied as '01' until pull from facility.system 
-      COALESCE(TO_VARCHAR(bb_eob.src_facility_reference),'') || '|' ||  --facility field is improved in sandbox
-      COALESCE(TO_VARCHAR(bb_eob_info.src_code),'') || '|' ||
-      COALESCE(TO_VARCHAR(eobidPvt.rx_srvc_rfrnc_num),'') || '|' ||
-      COALESCE(TO_VARCHAR('02'),'')   --dummied as '2' until Eng pulls fill_num from JSON
-      AS ODS_PT_D_CLM_NK</t>
-  </si>
-  <si>
     <t>0.0 AS claim_line_allowed_amt</t>
   </si>
   <si>
@@ -1926,49 +1946,520 @@
       END * bb_eob_item_adj.src_amount) AS claim_line_paid_amt </t>
   </si>
   <si>
-    <t xml:space="preserve">(CASE
-          WHEN bb_eob_info.src_clm_adjsmt_type_cd = '1'
+    <t>{{dag_run.conf.load_period}}' AS load_period</t>
+  </si>
+  <si>
+    <t>according to bb-&gt;cclf mapping, this info isn’t in BB</t>
+  </si>
+  <si>
+    <t>{{ti.job_id}} AS load_run_id</t>
+  </si>
+  <si>
+    <t>, CURRENT_TIMESTAMP AS load_ts</t>
+  </si>
+  <si>
+    <t>not used in airflow script</t>
+  </si>
+  <si>
+    <t>#NA' AS claim_primary_payer_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">according to bb-&gt;cclf mapping, this info isn’t in BB
+if we want APCs, can we lik to ref table? </t>
+  </si>
+  <si>
+    <t>#NA' AS rev_apc_hipps_cd</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP AS load_ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS rev_apc_hipps_cd </t>
+  </si>
+  <si>
+    <t>null AS claim_primary_payer_cd</t>
+  </si>
+  <si>
+    <t>#NA' as rev_apc_hipps_cd</t>
+  </si>
+  <si>
+    <t>COALESCE(eobInfoPvt.dspnsng_stus_cd,'#NA') AS medication_dispensing_status_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COALESCE(eobInfoPvt.daw_prod_slctn_cd,'#NA') AS medication_dispense_as_written_code</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(bb_eob_item.src_serviced_date),'') || '|' ||
+      COALESCE(TO_VARCHAR('01'),'') || '|' ||    --dummied as '01' until pull from facility.system 
+      COALESCE(TO_VARCHAR(bb_eob.src_facility_reference),'') || '|' ||  --facility field is improved in sandbox
+      COALESCE(TO_VARCHAR(eobInfoPvt.dspnsng_stus_cd),'') || '|' ||
+      COALESCE(TO_VARCHAR(eobidPvt.rx_srvc_rfrnc_num),'') || '|' ||
+      COALESCE(TO_VARCHAR('02'),'')   --dummied as '2' until Eng pulls fill_num from JSON
+      AS ODS_PT_D_CLM_NK</t>
+  </si>
+  <si>
+    <t>(CASE
+          WHEN eobInfoPvt.clm_freq_cd = '8'
               THEN -1
           ELSE
               1
-      END * bb_eob_item_adj.src_amount) AS claim_line_bene_paid_amt </t>
-  </si>
-  <si>
-    <t>{{dag_run.conf.load_period}}' AS load_period</t>
-  </si>
-  <si>
-    <t>according to bb-&gt;cclf mapping, this info isn’t in BB</t>
-  </si>
-  <si>
-    <t>{{ti.job_id}} AS load_run_id</t>
-  </si>
-  <si>
-    <t>, CURRENT_TIMESTAMP AS load_ts</t>
-  </si>
-  <si>
-    <t>not used in airflow script</t>
-  </si>
-  <si>
-    <t>#NA' AS claim_primary_payer_cd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">according to bb-&gt;cclf mapping, this info isn’t in BB
-if we want APCs, can we lik to ref table? </t>
-  </si>
-  <si>
-    <t>#NA' AS rev_apc_hipps_cd</t>
-  </si>
-  <si>
-    <t>CURRENT_TIMESTAMP AS load_ts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#NA' AS rev_apc_hipps_cd </t>
-  </si>
-  <si>
-    <t>null AS claim_primary_payer_cd</t>
-  </si>
-  <si>
-    <t>#NA' as rev_apc_hipps_cd</t>
+      END * bb_eob_item_adj.src_amount) AS claim_line_bene_paid_amt</t>
+  </si>
+  <si>
+    <t>med'||'|'||split_part(providers.fk_provider_primary_id_list[0],'|',2)||'|'||bb_eob.src_patient_reference||'|'||
+   to_char(COALESCE(bb_eob_item.src_serviced_date,CAST('1900-01-01' AS DATE)),'YYYYMMDD') AS fk_visit_id</t>
+  </si>
+  <si>
+    <t>trim(providers.fk_provider_primary_id_list[0]) AS fk_provider_primary_id</t>
+  </si>
+  <si>
+    <t>ORDINAL_POSITION</t>
+  </si>
+  <si>
+    <t>COLUMN_NAME</t>
+  </si>
+  <si>
+    <t>DATA_TYPE</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>PK_IP_STAY_ID</t>
+  </si>
+  <si>
+    <t>STAY_TYPE_CD</t>
+  </si>
+  <si>
+    <t>STAY_FROM_DT</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>STAY_FROM_MONTH_CD</t>
+  </si>
+  <si>
+    <t>STAY_THRU_DT</t>
+  </si>
+  <si>
+    <t>STAY_THRU_MONTH_CD</t>
+  </si>
+  <si>
+    <t>STAY_LENGTH_OF_STAY</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>STAY_ADMISSION_TYPE_CD_LIST</t>
+  </si>
+  <si>
+    <t>ARRAY</t>
+  </si>
+  <si>
+    <t>STAY_ADMISSION_SOURCE_CD_LIST</t>
+  </si>
+  <si>
+    <t>STAY_NH_ADMISSION_SOURCE_CD</t>
+  </si>
+  <si>
+    <t>STAY_DISCHARGE_STATUS_CD_LIST</t>
+  </si>
+  <si>
+    <t>STAY_NH_DISCHARGE_STATUS_CD</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS_FACILITY_ADMITTING_ICD_9_CD_LIST</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS_FACILITY_ADMITTING_ICD_10_CD_LIST</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS_FACILITY_DETAIL_PRESENT_ON_ADMISSION_CD_LIST</t>
+  </si>
+  <si>
+    <t>CLAIM_DRG_CD_LIST</t>
+  </si>
+  <si>
+    <t>TIMESTAMP_LTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filtering: </t>
+  </si>
+  <si>
+    <t>Prototype SQL</t>
+  </si>
+  <si>
+    <t>Insights uses: ARRAY_DISTINCT(ARRAY_AGG(COALESCE(c.src_clm_admsn_type_cd, '#NA'))WITHIN GROUP(ORDER BY c.src_clm_from_dt DESC,c.src_clm_thru_dt DESC)) AS stay_admission_type_cd_list</t>
+  </si>
+  <si>
+    <t>PK_EOB_ID</t>
+  </si>
+  <si>
+    <t>EFF_END_DT</t>
+  </si>
+  <si>
+    <t>EFFECTIVE_FLAG</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>STATUS_RUN_ID</t>
+  </si>
+  <si>
+    <t>STATUS_SET_ID</t>
+  </si>
+  <si>
+    <t>STATUS_TS</t>
+  </si>
+  <si>
+    <t>SRC_HASH</t>
+  </si>
+  <si>
+    <t>SRC_ID</t>
+  </si>
+  <si>
+    <t>SRC_STATUS</t>
+  </si>
+  <si>
+    <t>SRC_TYPE</t>
+  </si>
+  <si>
+    <t>SRC_SUBTYPE</t>
+  </si>
+  <si>
+    <t>SRC_PATIENT_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_BILLABLE_PERIOD_START</t>
+  </si>
+  <si>
+    <t>SRC_BILLABLE_PERIOD_END</t>
+  </si>
+  <si>
+    <t>SRC_CREATED</t>
+  </si>
+  <si>
+    <t>TIMESTAMP_NTZ</t>
+  </si>
+  <si>
+    <t>SRC_ENTERER_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_INSURER_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_PROVIDER_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_ORGANIZATION_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_PRESCRIPTION_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_ORIGINAL_PRESCRIPTION_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_PAYEE_TYPE</t>
+  </si>
+  <si>
+    <t>SRC_PAYEE_RESOURCE_TYPE</t>
+  </si>
+  <si>
+    <t>SRC_PAYEE_PARTY_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_REFERRAL_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_FACILITY_CODE</t>
+  </si>
+  <si>
+    <t>SRC_FACILITY_TYPE</t>
+  </si>
+  <si>
+    <t>VARIANT</t>
+  </si>
+  <si>
+    <t>SRC_FACILITY_CODE_TYPE_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_CLAIM_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_CLAIM_RESPONSE_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_OUTCOME</t>
+  </si>
+  <si>
+    <t>SRC_DISPOSITION</t>
+  </si>
+  <si>
+    <t>SRC_PRECEDENCE</t>
+  </si>
+  <si>
+    <t>SRC_INSURANCE_COVERAGE_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_INSURANCE_PRE_AUTH_REF</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_DATE</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_TYPE</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_LOCATION_ADDRESS_USE</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_LOCATION_ADDRESS_TYPE</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_LOCATION_ADDRESS_TEXT</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_LOCATION_ADDRESS_LINE</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_LOCATION_ADDRESS_CITY</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_LOCATION_ADDRESS_DISTRICT</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_LOCATION_ADDRESS_STATE</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_LOCATION_ADDRESS_POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_LOCATION_ADDRESS_COUNTRY</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_LOCATION_ADDRESS_PERIOD_START</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_LOCATION_ADDRESS_PERIOD_END</t>
+  </si>
+  <si>
+    <t>SRC_ACCIDENT_LOCATION_REFERENCE</t>
+  </si>
+  <si>
+    <t>SRC_EMPLOYMENT_IMPACTED_START</t>
+  </si>
+  <si>
+    <t>SRC_EMPLOYMENT_IMPACTED_END</t>
+  </si>
+  <si>
+    <t>SRC_HOSPITILIZATION_START</t>
+  </si>
+  <si>
+    <t>SRC_HOSPITILIZATION_END</t>
+  </si>
+  <si>
+    <t>SRC_TOTAL_COST</t>
+  </si>
+  <si>
+    <t>SRC_UNALLOC_DEDUCTABLE</t>
+  </si>
+  <si>
+    <t>SRC_TOTAL_BENEFIT</t>
+  </si>
+  <si>
+    <t>SRC_PAYMENT_TYPE</t>
+  </si>
+  <si>
+    <t>SRC_PAYMENT_ADJUSTMENT</t>
+  </si>
+  <si>
+    <t>SRC_PAYMENT_ADJUSTMENT_REASON</t>
+  </si>
+  <si>
+    <t>SRC_PAYMENT_DATE</t>
+  </si>
+  <si>
+    <t>SRC_PAYMENT_AMOUNT</t>
+  </si>
+  <si>
+    <t>SRC_PAYMENT_IDENTIFIER</t>
+  </si>
+  <si>
+    <t>SRC_FORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fac'||'|'||eob.src_provider_reference||'|'||eob.src_facility_code ||'|'||eob.src_patient_reference ||'|'||TO_CHAR(eob.src_billable_period_start,'YYYYMMDD')||'|'||TO_CHAR(eob.src_billable_period_end,'YYYYMMDD') AS pk_ip_stay_id 
+Eng  to provide a fk_bene_id in the ODS layer?
+</t>
+  </si>
+  <si>
+    <t>fac' AS stay_type_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insights uses: 'fac'||'|'||c1.src_prvdr_oscar_num||'|'||c1.src_fac_prvdr_npi_num||'|'||split_part(c1.fk_bene_id,'|',2)||'|'||TO_CHAR(c1.src_clm_from_dt,'YYYYMMDD')||'|'||TO_CHAR(c1.src_clm_thru_dt,'YYYYMMDD') AS pk_ip_stay_id
+</t>
+  </si>
+  <si>
+    <t>same as insights</t>
+  </si>
+  <si>
+    <t>eob.src_billable_period_start AS stay_from_dt</t>
+  </si>
+  <si>
+    <t>TO_CHAR(eob.src_billable_period_start, 'm-YYYY-MM') AS stay_from_month_cd</t>
+  </si>
+  <si>
+    <t>eob.src_billable_period_end AS stay_thru_dt</t>
+  </si>
+  <si>
+    <t>TO_CHAR(eob.src_billable_period_end, 'm-YYYY-MM') AS stay_thru_month_cd</t>
+  </si>
+  <si>
+    <t>DATEDIFF('day', eob.src_billable_period_start, eob.src_billable_period_end) AS stay_length_of_stay</t>
+  </si>
+  <si>
+    <t>insghts uses: 
+ARRAY_DISTINCT(ARRAY_AGG(COALESCE(c.src_clm_admsn_src_cd, '#NA'))WITHIN GROUP(ORDER BY c.src_clm_from_dt DESC,c.src_clm_thru_dt DESC)) AS stay_admission_source_cd_list</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insights uses: 
+ARRAY_DISTINCT(ARRAY_AGG(COALESCE(c.src_bene_ptnt_stus_cd, '#NA'))WITHIN GROUP(ORDER BY c.src_clm_from_dt DESC,c.src_clm_thru_dt DESC)) AS stay_discharge_status_cd_list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bb_eob.src_type IN (
+'10'  --HHA
+       , '20' --SNF
+       , '30' --SNF
+       ,'50' --Hospice
+       ,'60' --Inpatient
+       ,'61' --Inpatient
+       ) </t>
+  </si>
+  <si>
+    <t>aggregation done at the IP stay level
+the group by needs src_clm_bill_clsfctn_cd that Eng needs to put into data model</t>
+  </si>
+  <si>
+    <t>defined the same as primary for now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || providers.SRC_PROVIDER_NPI) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_id_list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || case when providers.SRC_ROLE ='primary' then providers.SRC_PROVIDER_NPI end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_primary_id_list 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || case when providers.SRC_ROLE ='primary' then providers.SRC_PROVIDER_NPI end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_operating_id_list 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || case when providers.SRC_ROLE = 'supervisor' then providers.SRC_PROVIDER_NPI end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_attending_id_list       
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || case when providers.SRC_ROLE in ('other','assist') then providers.SRC_PROVIDER_NPI end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_other_id_list
+</t>
+  </si>
+  <si>
+    <t>dspns_prvdr'||'|'||COALESCE('0123456789','#NA') AS facility_npi_num
+using sandbox EOB:
+'dspns_prvdr'||'|'||
+          case
+              WHEN src_facility_code_type_reference = 'http://hl7.org/fhir/sid/us-npi'
+                  THEN COALESCE(src_facility_code,'#NA')
+              ELSE
+                  '#NA'
+          END AS facility_npi_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dspns_prvdr'||'|'||'npi_num'||'|'||COALESCE('0123456789','#NA') AS fk_facility_id
+using sandbox eob: 
+'dspns_prvdr'||'|'||
+          case
+              WHEN src_facility_code_type_reference = 'http://hl7.org/fhir/sid/us-npi'
+                  THEN 'npi_num'
+              ELSE
+                  '#NA'
+          END ||'|'|| COALESCE(src_facility_code,'#NA') AS fk_facility_id </t>
+  </si>
+  <si>
+    <t>Insights uses src_prvdr_prsbng_id_qlfyr_cd and src_clm_srvc_prvdr_gnrc_id_num,  qlfyr code clarifies gnrc id (npi, ncpdp_num, tax_id).  I see no such info in the BB data except npi's in fac and org sections of EOB level.  Eng need to pull this.  Using dummy npi in the concatenate for now.  
+existing insights code, mixes and matches prvd_prsbng  qualifier and svc_prvdr code .. looks like a bug</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_srvc_prvdr_gnrc_id_num with qualifier code '11'.  I don’t see such fields in the BB data/spec.  Will use '#NA'
+also
+BB-&gt; CCLF mapping says the qualifier will be 'http://hl7.org/fhir/sid/us-npi' then '01' and therefore field will be '#NA'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">providers.fk_provider_id_list
+in order to get prsbng  and srvcg together,  
+using the sandbox eob:
+array_cat(providers.fk_provider_id_list, to_array('npi_num'||'|'||COALESCE(src_facility_code,'#NA'))) AS fk_provider_id_list
+</t>
+  </si>
+  <si>
+    <t>#NA' AS fk_provider_dispensing_id
+using sandbox eob: 
+CASE
+          WHEN src_facility_code_type_reference = 'http://hl7.org/fhir/sid/us-npi'
+              THEN 'npi_num'
+          ELSE
+              '#NA'
+      END||'|'||COALESCE(src_facility_code,'#NA') AS fk_provider_dispensing_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS provider_dispensing_id_type_cd
+using sandbox eob: 
+COALESCE(CASE WHEN src_facility_code_type_reference = 'http://hl7.org/fhir/sid/us-npi' THEN '01' END,'#NA') AS provider_dispensing_id_type_cd   
+</t>
+  </si>
+  <si>
+    <t>to_add, a field for capturing provider.identifier.system.</t>
+  </si>
+  <si>
+    <t>PDE' and others</t>
+  </si>
+  <si>
+    <t>prvdr_prsbng_id_qlfyr_cd:
+if careTeam.[0].provider.identifier.system =='http://hl7.org/fhir/sid/us-npi' then '01' else '#NA' end</t>
+  </si>
+  <si>
+    <t>insights uses src_clm_prsbng_prvdr_gnrc_id_num.  
+Will map the same way a primary</t>
+  </si>
+  <si>
+    <t>insights uses src_prvdr_prsbng_id_qlfyr_cd.  I don't see this in BB, using '01' untii we can get the system indicator to calculate using logiic</t>
+  </si>
+  <si>
+    <t>01 AS provider_prescribing_id_type_cd</t>
+  </si>
+  <si>
+    <t>trim(providers.fk_provider_primary_id_list[0]) AS fk_provider_prescribing_id</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(eob.src_provider_reference),'') || '|' ||
+      COALESCE(TO_VARCHAR(eob.src_billable_period_start),'') || '|' ||
+      COALESCE(TO_VARCHAR(eob.src_billable_period_end),'') || '|' ||
+      COALESCE(TO_VARCHAR(eob.src_patient_reference),'')
+      AS ODS_PT_A_CLM_NK</t>
+  </si>
+  <si>
+    <t>could be aliased at next level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRAY_AGG(eob.pk_eob_id) WITHIN GROUP (ORDER BY eob.src_billable_period_start DESC, eob.src_billable_period_end DESC) AS claim_pk_list
+</t>
   </si>
 </sst>
 </file>
@@ -2385,11 +2876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,7 +2898,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2737,13 +3228,13 @@
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2762,43 +3253,57 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>443</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -2819,9 +3324,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R81" sqref="R81"/>
+      <selection pane="topRight" activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,14 +3385,14 @@
         <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>206</v>
@@ -2940,22 +3445,22 @@
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2970,7 +3475,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>228</v>
@@ -2979,7 +3484,7 @@
         <v>230</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -2996,10 +3501,10 @@
         <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>183</v>
@@ -3034,10 +3539,10 @@
         <v>182</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>184</v>
@@ -3072,10 +3577,10 @@
         <v>171</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>185</v>
@@ -3104,10 +3609,10 @@
         <v>171</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>186</v>
@@ -3136,7 +3641,7 @@
         <v>198</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>198</v>
@@ -3165,7 +3670,7 @@
         <v>194</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>194</v>
@@ -3275,22 +3780,22 @@
         <v>198</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>217</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>232</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>333</v>
+        <v>514</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>238</v>
@@ -3310,7 +3815,7 @@
         <v>194</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>194</v>
@@ -3342,7 +3847,7 @@
         <v>194</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>194</v>
@@ -3374,7 +3879,7 @@
         <v>194</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>194</v>
@@ -3471,7 +3976,7 @@
         <v>241</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>241</v>
@@ -3489,10 +3994,10 @@
         <v>269</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>285</v>
+        <v>630</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>284</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -3527,13 +4032,13 @@
         <v>269</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R23" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="315" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3565,10 +4070,10 @@
         <v>269</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>292</v>
+        <v>629</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3623,7 +4128,7 @@
         <v>256</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>256</v>
@@ -3635,7 +4140,7 @@
         <v>269</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>269</v>
@@ -3661,7 +4166,7 @@
         <v>262</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>269</v>
@@ -3673,13 +4178,13 @@
         <v>276</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>269</v>
@@ -3708,7 +4213,7 @@
         <v>269</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>269</v>
@@ -3746,19 +4251,19 @@
         <v>274</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3793,7 +4298,7 @@
         <v>265</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>297</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3822,19 +4327,19 @@
         <v>279</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="255" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3842,34 +4347,34 @@
         <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>320</v>
+        <v>633</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3880,34 +4385,34 @@
         <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>336</v>
+        <v>515</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3918,31 +4423,31 @@
         <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>269</v>
@@ -3956,31 +4461,31 @@
         <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -3991,31 +4496,31 @@
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4026,31 +4531,31 @@
         <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>260</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4061,31 +4566,31 @@
         <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>260</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="195" x14ac:dyDescent="0.25">
@@ -4096,28 +4601,28 @@
         <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>260</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4128,28 +4633,28 @@
         <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>260</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>269</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4160,31 +4665,31 @@
         <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>260</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>269</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -4192,34 +4697,34 @@
         <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>260</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>269</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>315</v>
+        <v>634</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="240" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -4227,34 +4732,34 @@
         <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>260</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>269</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>332</v>
+        <v>635</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -4262,34 +4767,34 @@
         <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>260</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>269</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="Q44" s="2" t="s">
-        <v>317</v>
+      <c r="Q44" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -4297,31 +4802,31 @@
         <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>260</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>269</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>318</v>
+        <v>641</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>341</v>
+        <v>640</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="330" x14ac:dyDescent="0.25">
@@ -4332,31 +4837,31 @@
         <v>88</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>269</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>269</v>
@@ -4370,31 +4875,31 @@
         <v>89</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>269</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>269</v>
@@ -4408,31 +4913,31 @@
         <v>90</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>269</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>269</v>
@@ -4446,31 +4951,31 @@
         <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="N49" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>269</v>
@@ -4484,31 +4989,31 @@
         <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>269</v>
@@ -4522,31 +5027,31 @@
         <v>93</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="I51" t="s">
         <v>269</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>269</v>
@@ -4560,31 +5065,31 @@
         <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="I52" t="s">
         <v>269</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>269</v>
@@ -4598,31 +5103,31 @@
         <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>269</v>
@@ -4636,31 +5141,31 @@
         <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>269</v>
@@ -4674,31 +5179,31 @@
         <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>269</v>
@@ -4712,31 +5217,31 @@
         <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>269</v>
@@ -4750,31 +5255,31 @@
         <v>99</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="I57" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>269</v>
@@ -4788,31 +5293,31 @@
         <v>100</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="I58" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4823,31 +5328,31 @@
         <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -4858,31 +5363,31 @@
         <v>102</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -4890,31 +5395,31 @@
         <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>433</v>
+        <v>510</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4925,34 +5430,34 @@
         <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -4960,31 +5465,31 @@
         <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -4995,31 +5500,31 @@
         <v>106</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -5030,31 +5535,31 @@
         <v>107</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -5065,31 +5570,31 @@
         <v>108</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -5100,25 +5605,25 @@
         <v>109</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="N67" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="Q67" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>269</v>
@@ -5132,28 +5637,28 @@
         <v>110</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>269</v>
@@ -5167,22 +5672,22 @@
         <v>111</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
@@ -5193,34 +5698,34 @@
         <v>112</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="I70" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="N70" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -5231,19 +5736,19 @@
         <v>113</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="195" x14ac:dyDescent="0.25">
@@ -5254,31 +5759,31 @@
         <v>114</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -5289,31 +5794,31 @@
         <v>115</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="L73" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="R73" s="1" t="s">
         <v>269</v>
@@ -5327,37 +5832,37 @@
         <v>116</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N74" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="O74" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="195" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
@@ -5365,34 +5870,34 @@
         <v>117</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>269</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -5403,19 +5908,19 @@
         <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -5426,19 +5931,19 @@
         <v>119</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -5449,19 +5954,19 @@
         <v>120</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -5472,28 +5977,28 @@
         <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="R79" t="s">
         <v>269</v>
@@ -5507,31 +6012,31 @@
         <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="I80" t="s">
         <v>269</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>269</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5542,19 +6047,19 @@
         <v>123</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -5565,6 +6070,640 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="E6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C9" t="s">
+        <v>523</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C12" t="s">
+        <v>530</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C13" t="s">
+        <v>530</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>533</v>
+      </c>
+      <c r="C15" t="s">
+        <v>530</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>530</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>530</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>530</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
+        <v>530</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
+        <v>530</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>535</v>
+      </c>
+      <c r="C32" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>536</v>
+      </c>
+      <c r="C33" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>537</v>
+      </c>
+      <c r="C36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>530</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>519</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>538</v>
+      </c>
+      <c r="C42" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B55"/>
   <sheetViews>
@@ -6014,7 +7153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -6092,4 +7231,739 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C13" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>557</v>
+      </c>
+      <c r="C16" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>558</v>
+      </c>
+      <c r="C17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>561</v>
+      </c>
+      <c r="C19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>562</v>
+      </c>
+      <c r="C20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>563</v>
+      </c>
+      <c r="C21" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>564</v>
+      </c>
+      <c r="C22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>565</v>
+      </c>
+      <c r="C23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>566</v>
+      </c>
+      <c r="C24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>567</v>
+      </c>
+      <c r="C25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>568</v>
+      </c>
+      <c r="C26" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>569</v>
+      </c>
+      <c r="C27" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>570</v>
+      </c>
+      <c r="C28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>571</v>
+      </c>
+      <c r="C29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>573</v>
+      </c>
+      <c r="C30" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>574</v>
+      </c>
+      <c r="C31" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>575</v>
+      </c>
+      <c r="C32" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>576</v>
+      </c>
+      <c r="C33" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>577</v>
+      </c>
+      <c r="C34" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>578</v>
+      </c>
+      <c r="C35" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>579</v>
+      </c>
+      <c r="C36" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>580</v>
+      </c>
+      <c r="C37" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>581</v>
+      </c>
+      <c r="C38" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C39" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>583</v>
+      </c>
+      <c r="C40" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C41" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>585</v>
+      </c>
+      <c r="C42" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>586</v>
+      </c>
+      <c r="C43" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>587</v>
+      </c>
+      <c r="C44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>588</v>
+      </c>
+      <c r="C45" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>589</v>
+      </c>
+      <c r="C46" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>590</v>
+      </c>
+      <c r="C47" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>591</v>
+      </c>
+      <c r="C48" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>592</v>
+      </c>
+      <c r="C49" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>593</v>
+      </c>
+      <c r="C50" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>594</v>
+      </c>
+      <c r="C51" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>595</v>
+      </c>
+      <c r="C52" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>596</v>
+      </c>
+      <c r="C53" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>597</v>
+      </c>
+      <c r="C54" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>598</v>
+      </c>
+      <c r="C55" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>599</v>
+      </c>
+      <c r="C56" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>600</v>
+      </c>
+      <c r="C57" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>601</v>
+      </c>
+      <c r="C58" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>602</v>
+      </c>
+      <c r="C59" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>603</v>
+      </c>
+      <c r="C60" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>604</v>
+      </c>
+      <c r="C61" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>605</v>
+      </c>
+      <c r="C62" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>606</v>
+      </c>
+      <c r="C63" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>607</v>
+      </c>
+      <c r="C64" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>608</v>
+      </c>
+      <c r="C65" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="5340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="5340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="changes or adds" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="658">
   <si>
     <t>table</t>
   </si>
@@ -807,15 +807,6 @@
   </si>
   <si>
     <t>model has src_patient_reference, but I don’t see way to join to bb_patient</t>
-  </si>
-  <si>
-    <t>CASE
-          WHEN bb_eob.src_type IN ('10','20','30','50','60','61')
-           THEN 
-           'fac'||'|'||'012345'||'|'||'0123456789'||'|'||SRC_PATIENT_REFERENCE||'|'||to_char(bb_eob.src_billable_period_start, 'm-YYYY-MM')||'|'||to_char(bb_eob.src_billable_period_end, 'm-YYYY-MM')
-  ELSE
-            '#NA'
-      END AS fk_ip_stay_id</t>
   </si>
   <si>
     <t xml:space="preserve">CASE
@@ -858,14 +849,6 @@
   <si>
     <t>CASE
           WHEN bb_eob.src_type = '40'
-              THEN 'fac'||'|'||'012345'||'|'||'0123456789'||'|'||src_patient_reference||'|'||TO_CHAR(bb_eob.src_billable_period_start,'YYYYMMDD')||'|'||TO_CHAR(bb_eob.src_billable_period_end,'YYYYMMDD')
-          ELSE
-              '#NA'
-      END AS fk_visit_id</t>
-  </si>
-  <si>
-    <t>CASE
-          WHEN bb_eob.src_type = '40'
               THEN bb_eob.src_billable_period_start
           ELSE
               NULL
@@ -942,25 +925,6 @@
     <t>important for all src_types</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(bb_eob.src_billable_period_start, bb_eob_item.src_serviced_period_start) AS visit_from_dt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coalesce(bb_eob.src_billable_period_end, bb_eob_item.src_serviced_period_end) AS visit_thru_dt 
-</t>
-  </si>
-  <si>
-    <t>Insights uses claim level dates for these but Eng needs to populate src Billable perioid start end, so I'm coalescing with claim line level (eob_item) dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to_char(coalesce(bb_eob.src_billable_period_start, bb_eob_item.src_serviced_period_start) ,'m-YYYY-MM') AS visit_from_month_cd
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to_char(coalesce(bb_eob.src_billable_period_end, bb_eob_item.src_serviced_period_end) ,'m-YYYY-MM') AS visit_thru_month_cd
-</t>
-  </si>
-  <si>
     <t>fk_patient/bene_id</t>
   </si>
   <si>
@@ -1019,22 +983,13 @@
     <t xml:space="preserve">Insights uses src_fac_prvdr_npi_num which I believe is supplied in a facility section but Eng needs to retrieve into new field. Using dummy number for now., </t>
   </si>
   <si>
-    <t>012345' AS facility_ccn_num</t>
-  </si>
-  <si>
     <t>see above note.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COALESCE('ccn_num'||'|'||'012345', '#NA') AS fk_facility_id  </t>
   </si>
   <si>
     <t>https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_inpatient.bb.json#L246
 https://github.com/mikeoconnor-cj/FHIRStructDef/blob/master/eob_outpatient.bb.json#L188</t>
   </si>
   <si>
-    <t>0123456789' AS facility_npi_num</t>
-  </si>
-  <si>
     <t>clm_fac_type_cd</t>
   </si>
   <si>
@@ -1044,9 +999,6 @@
     <t>a type code at fac level</t>
   </si>
   <si>
-    <t>7' AS facility_type_cd</t>
-  </si>
-  <si>
     <t>insights uses src_clm_bill_fac_type_cd which is supplied in a facility section (clm_fac_type_cd) but eng needs to pull into new field.  Using dummy for now.</t>
   </si>
   <si>
@@ -1078,9 +1030,6 @@
   </si>
   <si>
     <t>Insights uses src_prvdr_oscar_num, src_clm_line_prod_rev_ctr_cd.  Oscar seems supplied in a prrovider section that needs to be pulled.   We are retrieving revenue codes.</t>
-  </si>
-  <si>
-    <t>ccn_num'||'|'||'012345'||'|'||bb_eob_item.src_revenue AS fk_facility_rev_ctr_id</t>
   </si>
   <si>
     <t>bb_eob_item.src_revenue AS facility_revenue_center_cd</t>
@@ -1190,15 +1139,9 @@
     <t>in Insights, the field concatenates cur_clm_uniq_id, clm_ctrl_num, clm_rndrg_prvdr_tax_num, fk_bene_id and claim from - to dates,  The 1st 3 aren't provide in BB data, so wil use bb_eob_identifier claim_id and claim_group and maybe src_provider (within eob_care_team) with the provider NPI but not all claims have care_teams.  Not sure why Insights uses the claim start end dates here instead of claim line dates.  fk_bene_id is TBD by Eng</t>
   </si>
   <si>
-    <t xml:space="preserve">COALESCE(primaryOnlyPrvdrNPILabel.providerID,array_construct('#NA')) AS fk_provider_id_list </t>
-  </si>
-  <si>
     <t>insights again uses src_rndrg_prvdr_npi_num.  Will use 'primary' at index 0</t>
   </si>
   <si>
-    <t xml:space="preserve">trim(primaryOnlyPrvdrNPILabel.providerID[0]) AS fk_provider_primary_id </t>
-  </si>
-  <si>
     <t>#NA' AS fk_provider_operating_id</t>
   </si>
   <si>
@@ -1208,9 +1151,6 @@
     <t>#NA' AS fk_provider_other_id</t>
   </si>
   <si>
-    <t xml:space="preserve">trim(primaryOnlyPrvdrNPILabel.providerID[0]) AS fk_provider_rendering_id </t>
-  </si>
-  <si>
     <t>insights uses src_clm_prvdr_spclty_cd.  Will providerSpclty at index 0</t>
   </si>
   <si>
@@ -1244,28 +1184,12 @@
     <t>allPrvdrNPILabel.providerID AS fk_provider_id_list</t>
   </si>
   <si>
-    <t>insights uses h.src_oprtg_prvdr_npi_num,h.src_atndg_prvdr_npi_num,h.src_othr_prvdr_npi_num.  Will used providers in primary roles and use the one at index 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coalesce(trim(primaryOnlyPrvdrNPILabel.providerID[0]), 'npiNum|#NA') AS fk_provider_primary_id 
-</t>
-  </si>
-  <si>
     <t>insights uses src_oprtg_prvdr_npi_num.  I don't see such a role in BB.  Will use '#NA'</t>
   </si>
   <si>
     <t xml:space="preserve">#NA' AS fk_provider_operating_id </t>
   </si>
   <si>
-    <t>insights uses src_atndg_prvdr_npi_num.  I don't see such a role in BB.  Will use '#NA'</t>
-  </si>
-  <si>
-    <t>insights uses h.src_othr_prvdr_npi_num.  Will use providers in supervisor, assist, other roles and select the one at index 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coalesce(trim(allOtherPrvdrNPILabel.providerID[0]), 'npiNum|#NA') AS fk_provider_other_id </t>
-  </si>
-  <si>
     <t>#NA' AS fk_provider_rendering_id</t>
   </si>
   <si>
@@ -1288,12 +1212,6 @@
   </si>
   <si>
     <t>#NA' AS provider_rendering_type_cd</t>
-  </si>
-  <si>
-    <t>insighs uses src_clm_srvc_prvdr_gnrc_id_num, I don't see this in BB unless fac section is relevant and Eng need to pull that.  Using #NA for now</t>
-  </si>
-  <si>
-    <t>insights uses src_prvdr_srvc_id_qlfyr_cd,  I don't see this in BB unless fac section is relevant and Eng need to pull that.  Using #NA for now</t>
   </si>
   <si>
     <t>insights uses src_ordrg_prvdr_npi_num, src_payto_prvdr_npi_num,  I do not see that the BB standard supplies these.   Will use all provider roles in careteam for now</t>
@@ -1418,9 +1336,6 @@
     <t>5b</t>
   </si>
   <si>
-    <t>src_procedure_code AS procedure_icd_10_cd</t>
-  </si>
-  <si>
     <t>#NA' AS procedure_icd_9_cd</t>
   </si>
   <si>
@@ -1475,14 +1390,6 @@
     <t>TO_CHAR(bb_eob_procedure.src_date,'m-YYYY-MM') AS activity_thru_month_cd</t>
   </si>
   <si>
-    <t xml:space="preserve">CASE
-          WHEN bb_eob.src_type IN ('10','20','30','50','60','61')
-              THEN 'fac'||'|'||'012345'||'|'||'0123455689'||'|'||bb_eob.src_patient_reference||'|'||TO_CHAR(bb_eob.src_billable_period_start,'YYYYMMDD')||'|'||TO_CHAR(bb_eob.src_billable_period_end,'YYYYMMDD')
-          ELSE
-              '#NA'
-      END AS fk_ip_stay_id </t>
-  </si>
-  <si>
     <t>CASE
           WHEN bb_eob.src_type IN ('10','20','30','50','60','61')
               THEN bb_eob.src_billable_period_start
@@ -1494,14 +1401,6 @@
     <t>Eng will need add fields (i.e.  src_provider, src_facility) to capture provider oscar num (prvdr_num?) and facility npi nbr.   For now, filling with dummy values.  Eng will need to add a fk to Patient (insights has an fk_bene_id).  Will just use src_patient_reference for now. Eng will need to populate billling period dates.</t>
   </si>
   <si>
-    <t xml:space="preserve">CASE
-          WHEN bb_eob.src_type = '40'
-              THEN 'fac_proc'||'|'||'012345'||'|'||'0123456789'||'|'||bb_eob.src_patient_reference||'|'||TO_CHAR(bb_eob.src_billable_period_start,'YYYYMMDD')||'|'||TO_CHAR(bb_eob.src_billable_period_end,'YYYYMMDD')
-          ELSE
-              '#NA'
-      END AS fk_visit_id </t>
-  </si>
-  <si>
     <t>CASE
           WHEN bb_eob.src_type  = '40'
               THEN bb_eob.src_billable_period_start
@@ -1510,14 +1409,6 @@
       END AS visit_from_dt</t>
   </si>
   <si>
-    <t>CASE
-          WHEN bb_eob.src_type IN ('10','40') --why '10' too..error? 
-              THEN bb_eob.src_billable_period_end
-          ELSE
-              NULL
-      END AS visit_thru_dt</t>
-  </si>
-  <si>
     <t xml:space="preserve">CASE
           WHEN bb_eob.src_type = '40'
               THEN TO_CHAR(bb_eob.src_billable_period_start,'m-YYYY-MM')
@@ -1526,18 +1417,11 @@
       END AS visit_from_month_cd </t>
   </si>
   <si>
-    <t xml:space="preserve">COALESCE('ccn_num'||'|'||'012345', '#NA') AS fk_facility_id </t>
-  </si>
-  <si>
     <t xml:space="preserve">1' AS facility_classification_cd </t>
   </si>
   <si>
     <t>insights uses: h.src_oprtg_prvdr_npi_num,h.src_atndg_prvdr_npi_num,h.src_othr_prvdr_npi_num.  Will use providers in all roles: primary, supervisor, assist, other
 or just pull the one provider whose sequence number = bb_eob_item.src_care_team_link_id</t>
-  </si>
-  <si>
-    <t>allPrvdrNPILabel.providerID AS fk_provider_id_list
-to_array('npi_num'||'|'||bb_eob_care_team.src_provider_npi) AS fk_provider_id_list2</t>
   </si>
   <si>
     <t>insights uses src_hcpcs_1_mdfr_cd, src_hcpcs_2_mdfr_cd etc.   For BB, the data in bb_eob_item.src_modifier is an array of dictionaries</t>
@@ -1558,9 +1442,6 @@
     <t>#NA' AS procedure_icd_10_cd</t>
   </si>
   <si>
-    <t>insights uses  COALESCE(h.src_clm_op_srvc_type_cd,'#NA').  BB has a line_cms_type_srvc_cd in Category section of Item which we likely pull into bb_eob_item.src_category   but only relevant for carrier claims.</t>
-  </si>
-  <si>
     <t>#NA' AS service_op_type_cd</t>
   </si>
   <si>
@@ -1580,9 +1461,6 @@
   </si>
   <si>
     <t xml:space="preserve">using same logic as fac_rev </t>
-  </si>
-  <si>
-    <t>coalesce(trim(allOtherPrvdrNPILabel.providerID[0]), 'npiNum|#NA') AS fk_provider_other_id</t>
   </si>
   <si>
     <t>using same logice as fac_rev</t>
@@ -1658,9 +1536,6 @@
   </si>
   <si>
     <t>populate src_quantity for 'PDE' claim, they're all NULL</t>
-  </si>
-  <si>
-    <t>PDE'</t>
   </si>
   <si>
     <t>to-add: for 'PDE' claims add fields for fill-num and days supply</t>
@@ -1989,15 +1864,6 @@
     <t xml:space="preserve"> COALESCE(eobInfoPvt.daw_prod_slctn_cd,'#NA') AS medication_dispense_as_written_code</t>
   </si>
   <si>
-    <t>COALESCE(TO_VARCHAR(bb_eob_item.src_serviced_date),'') || '|' ||
-      COALESCE(TO_VARCHAR('01'),'') || '|' ||    --dummied as '01' until pull from facility.system 
-      COALESCE(TO_VARCHAR(bb_eob.src_facility_reference),'') || '|' ||  --facility field is improved in sandbox
-      COALESCE(TO_VARCHAR(eobInfoPvt.dspnsng_stus_cd),'') || '|' ||
-      COALESCE(TO_VARCHAR(eobidPvt.rx_srvc_rfrnc_num),'') || '|' ||
-      COALESCE(TO_VARCHAR('02'),'')   --dummied as '2' until Eng pulls fill_num from JSON
-      AS ODS_PT_D_CLM_NK</t>
-  </si>
-  <si>
     <t>(CASE
           WHEN eobInfoPvt.clm_freq_cd = '8'
               THEN -1
@@ -2459,6 +2325,185 @@
   </si>
   <si>
     <t xml:space="preserve">ARRAY_AGG(eob.pk_eob_id) WITHIN GROUP (ORDER BY eob.src_billable_period_start DESC, eob.src_billable_period_end DESC) AS claim_pk_list
+</t>
+  </si>
+  <si>
+    <t>if diagnosis.&lt;for each EXCEPT drg&gt;.diagnosisCodeableConcept.coding.[0].system] == 'http://hl7.org/fhir/sid/icd-10-cm' then '0' else '9'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb_eob_diagnosis </t>
+  </si>
+  <si>
+    <t>to_add, a field for the  present on admission flag, see notes</t>
+  </si>
+  <si>
+    <t>diagnosis.&lt;for each - EXCEPT drg&gt;.extension.[url == 'https://bluebutton.cms.gov/resources/variables/clm_poa_ind_sw1'].valueCoding.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need a dx system inidicator. I'm prepending all the codes with 'icd_10_cm_cd' for now.  When get the indicator, add an AND to the CASE WHEN
+</t>
+  </si>
+  <si>
+    <t>providers.fk_provider_id_list</t>
+  </si>
+  <si>
+    <t>insights uses operating, attending, other.   Will use all primary providers getting the one at index 0</t>
+  </si>
+  <si>
+    <t>insights uses src_atndg_prvdr_npi_num.  I don't see such a role in BB.  Will use role 'supervisor' as index 0</t>
+  </si>
+  <si>
+    <t>insights uses h.src_othr_prvdr_npi_num.  Will use providers in assist, other roles and select the one at index 0</t>
+  </si>
+  <si>
+    <t>COALESCE(trim(providers.fk_provider_attending_id_list[0]),'#NA') AS fk_provider_attending_id</t>
+  </si>
+  <si>
+    <t>COALESCE(trim(providers.fk_provider_other_id_list[0]),'#NA') AS fk_provider_other_id</t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN bb_eob.src_type = '40'
+              THEN 'fac'||'|'||bb_eob.src_provider_reference||'|'||bb_eob.src_facility_code||'|'||bb_eob.src_patient_reference||'|'||TO_CHAR(bb_eob.src_billable_period_start,'YYYYMMDD')||'|'||TO_CHAR(bb_eob.src_billable_period_end,'YYYYMMDD')
+          ELSE
+              '#NA'
+      END AS fk_visit_id</t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN bb_eob.src_type IN ('10','20','30','50','60','61')
+           THEN 
+           'fac'||'|'||bb_eob.src_provider_reference||'|'||bb_eob.src_facility_code||'|'||bb_eob.src_patient_reference||'|'||to_char(bb_eob.src_billable_period_start, 'm-YYYY-MM')||'|'||to_char(bb_eob.src_billable_period_end, 'm-YYYY-MM')
+  ELSE
+            '#NA'
+      END AS fk_ip_stay_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COALESCE('ccn_num'||'|'||bb_eob.src_provider_reference, '#NA') AS fk_facility_id </t>
+  </si>
+  <si>
+    <t>bb_eob.src_provider_reference AS facility_ccn_num</t>
+  </si>
+  <si>
+    <t>bb_eob.src_facility_code AS facility_npi_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insights uses src_clm_bill_fac_type_cd which is supplied in a facility section (clm_fac_type_cd) but eng needs to pull into new field. </t>
+  </si>
+  <si>
+    <t>bb_eob.src_facility_type AS facility_type_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccn_num'||'|'||src_provider_reference||'|'||bb_eob_item.src_revenue AS fk_facility_rev_ctr_id </t>
+  </si>
+  <si>
+    <t>insights uses  COALESCE(h.src_clm_op_srvc_type_cd,'#NA').  BB has a line_cms_type_srvc_cd in Category section of Item which we likely pull into bb_eob_item.src_category   but only relevant for carrier claims.
+BB-&gt; cclf mapping says relevant JSON field isn't theree</t>
+  </si>
+  <si>
+    <t>PDE' and others too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insights uses claim level dates for these but Eng needs to populate src Billable perioid start end, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb_eob.src_billable_period_end,AS visit_thru_dt 
+</t>
+  </si>
+  <si>
+    <t>Insights uses claim level dates for these but Eng needs to populate src Billable perioid start end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb_eob.src_billable_period_start AS visit_from_dt
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to_char(bb_eob.src_billable_period_end,'m-YYYY-MM') AS visit_thru_month_cd
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to_char(bb_eob.src_billable_period_start,'m-YYYY-MM') AS visit_from_month_cd
+</t>
+  </si>
+  <si>
+    <t>coalesce(providers.fk_provider_primary_id_list,to_array('#NA')) AS fk_provider_id_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trim(providers.fk_provider_primary_id_list[0]) AS fk_provider_primary_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trim(providers.fk_provider_primary_id_list[0]) AS fk_provider_rendering_id </t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(bb_eob_item.src_serviced_date),'') || '|' ||
+      COALESCE(TO_VARCHAR('01'),'') || '|' ||    --dummied as '01' until pull from facility.system 
+      COALESCE(TO_VARCHAR(bb_eob.src_facility_reference),'') || '|' ||  --facility field is improved in sandbox
+      COALESCE(TO_VARCHAR(eobInfoPvt.dspnsng_stus_cd),'') || '|' ||
+      COALESCE(TO_VARCHAR(eobidPvt.rx_srvc_rfrnc_num),'') || '|' ||
+      COALESCE(TO_VARCHAR('02'),'')   --dummied as '2' until Eng pulls fill_num from JSON
+      AS ODS_PT_D_CLM_NK
+using sandbox:
+COALESCE(TO_VARCHAR(bb_eob_item.src_serviced_date),'') || '|' ||
+     COALESCE(CASE WHEN src_facility_code_type_reference = 'http://hl7.org/fhir/sid/us-npi' THEN '01' END,'#NA') || '|' ||    --dummied as '01' until pull from facility.system 
+     COALESCE(TO_VARCHAR(bb_eob.src_facility_code),'') || '|' ||  --facility field is improved in sandbox
+     COALESCE(TO_VARCHAR(eobInfoPvt.dspnsng_stus_cd),'') || '|' ||
+     COALESCE(TO_VARCHAR(eobidPvt.rx_srvc_rfrnc_num),'') || '|' ||
+     COALESCE(TO_VARCHAR('02'),'')   --dummied as '2' until Eng pulls fill_num from JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insights uses src_prvdr_srvc_id_qlfyr_cd,  I don't see this in BB unless fac section is relevant and Eng need to pull that.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insighs uses src_clm_srvc_prvdr_gnrc_id_num, I don't see this in BB unless fac section is relevant and Eng need to pull that. </t>
+  </si>
+  <si>
+    <t>to add: field for the procedure's system: icd9, icd10</t>
+  </si>
+  <si>
+    <t>see notes for bb-&gt; cclf mapg</t>
+  </si>
+  <si>
+    <t>if [procedure.&lt;for each&gt;.procedureCodeableConcept.coding.[0].system] == 'http://hl7.org/fhir/sid/icd-10-cm' then '0' else '9'</t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN bb_eob.src_type IN ('10','20','30','50','60','61')
+              THEN 'fac'||'|'||bb_eob.src_provider_reference||'|'||bb_eob.src_facility_code||'|'||bb_eob.src_patient_reference||'|'||TO_CHAR(bb_eob.src_billable_period_start,'YYYYMMDD')||'|'||TO_CHAR(bb_eob.src_billable_period_end,'YYYYMMDD')
+          ELSE
+              '#NA'
+      END AS fk_ip_stay_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE
+          WHEN bb_eob.src_type = '40'
+              THEN 'fac_proc'||'|'||bb_eob.src_provider_reference||'|'||bb_eob.src_facility_code||'|'||bb_eob.src_patient_reference||'|'||TO_CHAR(bb_eob.src_billable_period_start,'YYYYMMDD')||'|'||TO_CHAR(bb_eob.src_billable_period_end,'YYYYMMDD')
+          ELSE
+              '#NA'
+      END AS fk_visit_id </t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN bb_eob.src_type = '40' 
+              THEN bb_eob.src_billable_period_end
+          ELSE
+              NULL
+      END AS visit_thru_dt</t>
+  </si>
+  <si>
+    <t>COALESCE('ccn_num'||'|'||bb_eob.src_provider_reference, '#NA') AS fk_facility_id</t>
+  </si>
+  <si>
+    <t>type.coding.[system='https://bluebutton.cms.gov/resources/variables/clm_srvc_clsfctn_type_cd'].code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE WHEN '0'='0' THEN '#NA' ELSE bb_eob_procedure.src_procedure_code END AS procedure_icd_9_cd --need system indicator
+</t>
+  </si>
+  <si>
+    <t>Insights uses src_dgns_prcdr_icd_ind and src_clm_prcdr_cd of cclf_3_pt_a_proc_cd.  I assume this data would be pulled into bb_eob_procedure.src_procedure_cd and ?src_procedure_reference (we may need a 'system' field) but the table is not populated .  Eng needs to pull or client needs to supply.  Using a dummy calculation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE WHEN '0'='0' THEN bb_eob_procedure.src_procedure_code ELSE '#NA' END AS procedure_icd_10_cd --need system
 </t>
   </si>
 </sst>
@@ -2876,11 +2921,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,7 +2934,7 @@
     <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="61.140625" customWidth="1"/>
@@ -2898,7 +2943,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2913,7 +2958,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -2959,7 +3004,7 @@
         <v>170</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3013,7 +3058,7 @@
         <v>164</v>
       </c>
       <c r="I6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3035,6 +3080,9 @@
       <c r="G7" t="s">
         <v>18</v>
       </c>
+      <c r="H7" t="s">
+        <v>614</v>
+      </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
@@ -3076,10 +3124,10 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -3114,7 +3162,7 @@
         <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -3134,7 +3182,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G11" t="s">
         <v>190</v>
@@ -3143,7 +3191,7 @@
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3157,16 +3205,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G12" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
@@ -3183,16 +3231,19 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G13" t="s">
-        <v>255</v>
+        <v>244</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -3209,7 +3260,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>191</v>
@@ -3223,18 +3274,18 @@
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3242,10 +3293,10 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3253,57 +3304,82 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>431</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>637</v>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>615</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E24" t="s">
+        <v>648</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -3324,9 +3400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3385,17 +3461,17 @@
         <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>180</v>
@@ -3405,7 +3481,7 @@
         <v>181</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>159</v>
@@ -3422,16 +3498,16 @@
         <v>160</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3445,22 +3521,22 @@
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -3475,16 +3551,16 @@
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -3501,10 +3577,10 @@
         <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>183</v>
@@ -3522,7 +3598,7 @@
         <v>174</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -3539,10 +3615,10 @@
         <v>182</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>184</v>
@@ -3560,7 +3636,7 @@
         <v>175</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -3577,10 +3653,10 @@
         <v>171</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>185</v>
@@ -3609,10 +3685,10 @@
         <v>171</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>186</v>
@@ -3635,25 +3711,25 @@
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>192</v>
+        <v>626</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>384</v>
+        <v>650</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -3664,25 +3740,25 @@
         <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -3693,25 +3769,25 @@
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -3722,22 +3798,22 @@
         <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -3748,22 +3824,22 @@
         <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3774,31 +3850,31 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>199</v>
+        <v>625</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>387</v>
+        <v>651</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -3809,31 +3885,31 @@
         <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>219</v>
+        <v>638</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>221</v>
+        <v>637</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3841,28 +3917,28 @@
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>389</v>
+        <v>652</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>220</v>
+        <v>636</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>221</v>
+        <v>635</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -3873,25 +3949,25 @@
         <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>222</v>
+        <v>640</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -3902,25 +3978,25 @@
         <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>223</v>
+        <v>639</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -3931,35 +4007,35 @@
         <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3970,37 +4046,37 @@
         <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>245</v>
+        <v>627</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>391</v>
+        <v>653</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -4008,34 +4084,34 @@
         <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>243</v>
+        <v>628</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>243</v>
+        <v>628</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="R23" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="315" x14ac:dyDescent="0.25">
@@ -4046,34 +4122,34 @@
         <v>66</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>247</v>
+        <v>629</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>247</v>
+        <v>629</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4084,34 +4160,34 @@
         <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>251</v>
+        <v>631</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>252</v>
+        <v>630</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>251</v>
+        <v>631</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -4122,34 +4198,34 @@
         <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K26" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="O26" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4160,34 +4236,34 @@
         <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>263</v>
+        <v>632</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -4198,31 +4274,31 @@
         <v>70</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -4233,34 +4309,34 @@
         <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="Q29" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -4271,34 +4347,34 @@
         <v>72</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>632</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4309,34 +4385,34 @@
         <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="255" x14ac:dyDescent="0.25">
@@ -4347,34 +4423,34 @@
         <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>394</v>
+        <v>619</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>316</v>
+        <v>619</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>299</v>
+        <v>641</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>633</v>
+        <v>601</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4385,34 +4461,34 @@
         <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>318</v>
+        <v>483</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>317</v>
+        <v>620</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>336</v>
+        <v>483</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>301</v>
+        <v>642</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -4423,37 +4499,37 @@
         <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -4461,34 +4537,34 @@
         <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>303</v>
+        <v>623</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>303</v>
+        <v>621</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -4496,31 +4572,31 @@
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>323</v>
+        <v>624</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>322</v>
+        <v>622</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>407</v>
+        <v>624</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4531,31 +4607,31 @@
         <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>305</v>
+        <v>643</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4566,31 +4642,31 @@
         <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="195" x14ac:dyDescent="0.25">
@@ -4601,28 +4677,31 @@
         <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>331</v>
+        <v>311</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4633,28 +4712,31 @@
         <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4665,28 +4747,31 @@
         <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="330" x14ac:dyDescent="0.25">
@@ -4697,31 +4782,34 @@
         <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>311</v>
+        <v>296</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>332</v>
+        <v>646</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="240" x14ac:dyDescent="0.25">
@@ -4732,31 +4820,34 @@
         <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>328</v>
+        <v>308</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>635</v>
+        <v>603</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>333</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -4767,31 +4858,34 @@
         <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>639</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -4802,31 +4896,34 @@
         <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>314</v>
+        <v>299</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="330" x14ac:dyDescent="0.25">
@@ -4837,34 +4934,34 @@
         <v>88</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -4875,34 +4972,34 @@
         <v>89</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4913,34 +5010,34 @@
         <v>90</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="240" x14ac:dyDescent="0.25">
@@ -4951,34 +5048,34 @@
         <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="255" x14ac:dyDescent="0.25">
@@ -4989,34 +5086,34 @@
         <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -5027,34 +5124,34 @@
         <v>93</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="I51" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="360" x14ac:dyDescent="0.25">
@@ -5065,37 +5162,37 @@
         <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="I52" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="240" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="225" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -5103,34 +5200,34 @@
         <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>369</v>
+        <v>655</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>374</v>
+        <v>656</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="240" x14ac:dyDescent="0.25">
@@ -5141,37 +5238,37 @@
         <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>368</v>
+        <v>657</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -5179,34 +5276,34 @@
         <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>399</v>
+        <v>633</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -5217,34 +5314,34 @@
         <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -5255,34 +5352,34 @@
         <v>99</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -5293,31 +5390,31 @@
         <v>100</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -5328,31 +5425,31 @@
         <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -5363,28 +5460,28 @@
         <v>102</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="H60" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="N60" s="1" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -5395,31 +5492,31 @@
         <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -5430,31 +5527,31 @@
         <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -5465,31 +5562,31 @@
         <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -5500,31 +5597,31 @@
         <v>106</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -5535,31 +5632,31 @@
         <v>107</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -5570,31 +5667,31 @@
         <v>108</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -5605,28 +5702,28 @@
         <v>109</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -5637,31 +5734,31 @@
         <v>110</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -5672,22 +5769,22 @@
         <v>111</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
@@ -5698,34 +5795,34 @@
         <v>112</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>512</v>
+        <v>644</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -5736,19 +5833,19 @@
         <v>113</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="195" x14ac:dyDescent="0.25">
@@ -5759,31 +5856,31 @@
         <v>114</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -5794,34 +5891,34 @@
         <v>115</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="195" x14ac:dyDescent="0.25">
@@ -5832,34 +5929,34 @@
         <v>116</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -5870,34 +5967,34 @@
         <v>117</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -5908,19 +6005,19 @@
         <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -5931,19 +6028,19 @@
         <v>119</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -5954,19 +6051,19 @@
         <v>120</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -5977,31 +6074,31 @@
         <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="R79" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -6012,31 +6109,31 @@
         <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="I80" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6047,19 +6144,19 @@
         <v>123</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -6073,8 +6170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6088,24 +6185,24 @@
   <sheetData>
     <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>621</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="C3" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="D3" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -6119,10 +6216,10 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -6130,16 +6227,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="C5" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6147,16 +6244,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="C6" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="E6" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6164,13 +6261,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="C7" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6178,13 +6275,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6192,13 +6289,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="C9" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6206,13 +6303,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="C10" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -6220,13 +6317,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="C11" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -6234,13 +6331,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="C12" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -6248,13 +6345,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="C13" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6262,13 +6359,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -6276,13 +6373,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="C15" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6290,13 +6387,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="C16" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="D16" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6307,7 +6404,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6318,7 +6415,7 @@
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6329,7 +6426,7 @@
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6340,7 +6437,7 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6351,7 +6448,7 @@
         <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6362,7 +6459,7 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6373,7 +6470,7 @@
         <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="195" x14ac:dyDescent="0.25">
@@ -6384,13 +6481,13 @@
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -6401,13 +6498,13 @@
         <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -6418,13 +6515,13 @@
         <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -6435,10 +6532,10 @@
         <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -6449,13 +6546,13 @@
         <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -6463,7 +6560,10 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>530</v>
+        <v>498</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -6474,7 +6574,7 @@
         <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -6485,7 +6585,7 @@
         <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -6493,10 +6593,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="C32" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -6504,10 +6604,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="C33" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6518,7 +6618,7 @@
         <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -6529,7 +6629,7 @@
         <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -6537,10 +6637,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="C36" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -6552,7 +6652,7 @@
         <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -6563,7 +6663,7 @@
         <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6574,10 +6674,10 @@
         <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>645</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="300" x14ac:dyDescent="0.25">
@@ -6588,13 +6688,13 @@
         <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>644</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -6605,7 +6705,7 @@
         <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -6613,10 +6713,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="C42" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -6627,7 +6727,7 @@
         <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -6638,7 +6738,7 @@
         <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -6649,7 +6749,7 @@
         <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -6660,7 +6760,7 @@
         <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -6671,7 +6771,7 @@
         <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -6682,7 +6782,7 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6693,7 +6793,7 @@
         <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -7222,7 +7322,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -7237,8 +7337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7250,13 +7350,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="B1" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="C1" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7267,7 +7367,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7275,10 +7375,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7286,10 +7386,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="C4" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7297,10 +7397,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="C5" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7308,10 +7408,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="C6" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7319,10 +7419,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="C7" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7330,10 +7430,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -7341,10 +7441,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="C9" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7352,10 +7452,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="C10" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -7363,10 +7463,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="C11" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7374,10 +7474,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="C12" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7385,10 +7485,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="C13" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7396,10 +7496,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="C14" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7407,10 +7507,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="C15" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7418,10 +7518,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="C16" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7429,10 +7529,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="C17" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -7440,10 +7540,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="C18" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7451,10 +7551,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="C19" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7462,10 +7562,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="C20" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7473,10 +7573,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="C21" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7484,10 +7584,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="C22" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -7495,10 +7595,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="C23" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7506,10 +7606,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="C24" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7517,10 +7617,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="C25" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7528,10 +7628,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C26" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7539,10 +7639,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="C27" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7550,10 +7650,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="C28" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7561,10 +7661,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
       <c r="C29" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7572,10 +7672,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="C30" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7583,10 +7683,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="C31" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7594,10 +7694,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="C32" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7605,10 +7705,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="C33" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7616,10 +7716,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="C34" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7627,10 +7727,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C35" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7638,10 +7738,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="C36" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7649,10 +7749,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="C37" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7660,10 +7760,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="C38" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7671,10 +7771,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="C39" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -7682,10 +7782,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="C40" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -7693,10 +7793,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="C41" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7704,10 +7804,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="C42" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -7715,10 +7815,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="C43" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -7726,10 +7826,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="C44" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7737,10 +7837,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="C45" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7748,10 +7848,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="C46" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -7759,10 +7859,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="C47" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -7770,10 +7870,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="C48" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -7781,10 +7881,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
       <c r="C49" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -7792,10 +7892,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="C50" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7803,10 +7903,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="C51" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -7814,10 +7914,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="C52" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7825,10 +7925,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="C53" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -7836,10 +7936,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="C54" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -7847,10 +7947,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="C55" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -7858,10 +7958,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="C56" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -7869,10 +7969,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="C57" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -7880,10 +7980,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="C58" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -7891,10 +7991,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="C59" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -7902,10 +8002,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="C60" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -7913,10 +8013,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="C61" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -7924,10 +8024,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="C62" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -7935,10 +8035,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="C63" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7946,10 +8046,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="C64" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7957,10 +8057,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="C65" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="657">
   <si>
     <t>table</t>
   </si>
@@ -1181,9 +1181,6 @@
     <t>insights uses src_rndrg_prvdr_npi_num,  BB has care team member is varied roles: primary, supervisor, assist, other.  Will use provders in Primary roles</t>
   </si>
   <si>
-    <t>allPrvdrNPILabel.providerID AS fk_provider_id_list</t>
-  </si>
-  <si>
     <t>insights uses src_oprtg_prvdr_npi_num.  I don't see such a role in BB.  Will use '#NA'</t>
   </si>
   <si>
@@ -1214,9 +1211,6 @@
     <t>#NA' AS provider_rendering_type_cd</t>
   </si>
   <si>
-    <t>insights uses src_ordrg_prvdr_npi_num, src_payto_prvdr_npi_num,  I do not see that the BB standard supplies these.   Will use all provider roles in careteam for now</t>
-  </si>
-  <si>
     <t>insights uses src_ordrg_prvdr_npi_num.  I don’t; see that in the BB DME standard.  Will use providers in 'primary' roles and select the one at index 0</t>
   </si>
   <si>
@@ -1230,12 +1224,6 @@
   </si>
   <si>
     <t>insights uses src_payto_prvdr_npi_num.  I don’t seet this in BB Standard, Will again pull primary providers, selecting one at index 0</t>
-  </si>
-  <si>
-    <t>coalesce(trim(primaryOnlyPrvdrNPILabel.providerID[0]), 'npiNum|#NA') AS fk_provider_pay_to_id</t>
-  </si>
-  <si>
-    <t>coalesce(trim(primaryOnlyPrvdrNPILabel.providerID[0]), 'npiNum|#NA') AS fk_provider_ordering_id</t>
   </si>
   <si>
     <t xml:space="preserve">#NA' AS provider_prescribing_id_type_cd </t>
@@ -2505,6 +2493,15 @@
   <si>
     <t xml:space="preserve">CASE WHEN '0'='0' THEN bb_eob_procedure.src_procedure_code ELSE '#NA' END AS procedure_icd_10_cd --need system
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insights uses src_ordrg_prvdr_npi_num, src_payto_prvdr_npi_num,  I do not see that the BB standard supplies these.   Will use primarry provider roles in careteam </t>
+  </si>
+  <si>
+    <t>coalesce(trim(providers.fk_provider_primary_id_list[0]), 'npiNum|#NA') AS fk_provider_pay_to_id</t>
+  </si>
+  <si>
+    <t>insights uses src_ordrg_prvdr_npi_num.  I don’t; see that in the BB DME standard.  Will use '#NA'</t>
   </si>
 </sst>
 </file>
@@ -3081,7 +3078,7 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -3243,7 +3240,7 @@
         <v>244</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -3279,13 +3276,13 @@
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3312,35 +3309,35 @@
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3348,24 +3345,24 @@
         <v>282</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3373,13 +3370,13 @@
         <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E24" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -3400,9 +3397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,11 +3461,11 @@
         <v>284</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>204</v>
@@ -3521,22 +3518,22 @@
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -3551,7 +3548,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>221</v>
@@ -3577,10 +3574,10 @@
         <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>183</v>
@@ -3615,10 +3612,10 @@
         <v>182</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>184</v>
@@ -3653,10 +3650,10 @@
         <v>171</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>185</v>
@@ -3685,10 +3682,10 @@
         <v>171</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>186</v>
@@ -3711,13 +3708,13 @@
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>197</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>197</v>
@@ -3746,7 +3743,7 @@
         <v>193</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>193</v>
@@ -3850,16 +3847,16 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>197</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>215</v>
@@ -3871,7 +3868,7 @@
         <v>225</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>231</v>
@@ -3891,16 +3888,16 @@
         <v>193</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>193</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>226</v>
@@ -3923,16 +3920,16 @@
         <v>193</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>193</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>227</v>
@@ -3955,13 +3952,13 @@
         <v>193</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>193</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>228</v>
@@ -3990,7 +3987,7 @@
         <v>193</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>229</v>
@@ -4046,13 +4043,13 @@
         <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>234</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>234</v>
@@ -4070,10 +4067,10 @@
         <v>257</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -4084,13 +4081,13 @@
         <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>236</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>236</v>
@@ -4122,13 +4119,13 @@
         <v>66</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>235</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>235</v>
@@ -4146,7 +4143,7 @@
         <v>257</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>276</v>
@@ -4160,13 +4157,13 @@
         <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>241</v>
@@ -4204,7 +4201,7 @@
         <v>245</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>245</v>
@@ -4236,7 +4233,7 @@
         <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>251</v>
@@ -4374,7 +4371,7 @@
         <v>253</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4423,34 +4420,34 @@
         <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>300</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>301</v>
+        <v>637</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>312</v>
+        <v>654</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4461,34 +4458,34 @@
         <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -4499,16 +4496,16 @@
         <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>288</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>288</v>
@@ -4537,16 +4534,16 @@
         <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>289</v>
@@ -4555,7 +4552,7 @@
         <v>257</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>257</v>
@@ -4572,16 +4569,16 @@
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>290</v>
@@ -4607,31 +4604,31 @@
         <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>249</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4642,31 +4639,31 @@
         <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>249</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>291</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="195" x14ac:dyDescent="0.25">
@@ -4677,13 +4674,13 @@
         <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>249</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>257</v>
@@ -4695,13 +4692,13 @@
         <v>292</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -4712,13 +4709,13 @@
         <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>257</v>
@@ -4730,16 +4727,16 @@
         <v>257</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>318</v>
+        <v>655</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -4764,11 +4761,11 @@
       <c r="L41" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>319</v>
+      <c r="N41" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>313</v>
+        <v>656</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>295</v>
@@ -4806,10 +4803,10 @@
         <v>257</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="240" x14ac:dyDescent="0.25">
@@ -4820,13 +4817,13 @@
         <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>249</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>257</v>
@@ -4838,16 +4835,16 @@
         <v>257</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -4882,10 +4879,10 @@
         <v>257</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -4914,16 +4911,16 @@
         <v>257</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="330" x14ac:dyDescent="0.25">
@@ -4934,31 +4931,31 @@
         <v>88</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>257</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>257</v>
@@ -4972,31 +4969,31 @@
         <v>89</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>257</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>257</v>
@@ -5010,31 +5007,31 @@
         <v>90</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>257</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>257</v>
@@ -5048,31 +5045,31 @@
         <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K49" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q49" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>257</v>
@@ -5086,31 +5083,31 @@
         <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>257</v>
@@ -5124,31 +5121,31 @@
         <v>93</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I51" t="s">
+        <v>257</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q51" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I51" t="s">
-        <v>257</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>257</v>
@@ -5162,31 +5159,31 @@
         <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I52" t="s">
         <v>257</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>257</v>
@@ -5200,31 +5197,31 @@
         <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>249</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>257</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>257</v>
@@ -5238,31 +5235,31 @@
         <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>249</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>257</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>257</v>
@@ -5276,31 +5273,31 @@
         <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>257</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>257</v>
@@ -5314,31 +5311,31 @@
         <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>249</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="L56" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>257</v>
@@ -5352,31 +5349,31 @@
         <v>99</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>257</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>257</v>
@@ -5390,31 +5387,31 @@
         <v>100</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -5425,31 +5422,31 @@
         <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>249</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>257</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="165" x14ac:dyDescent="0.25">
@@ -5460,25 +5457,25 @@
         <v>102</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>257</v>
@@ -5492,31 +5489,31 @@
         <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>249</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>257</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -5527,31 +5524,31 @@
         <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>249</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>257</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -5562,31 +5559,31 @@
         <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>249</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>257</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -5597,31 +5594,31 @@
         <v>106</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>249</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>257</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -5632,31 +5629,31 @@
         <v>107</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>249</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>257</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -5667,31 +5664,31 @@
         <v>108</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>249</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>257</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -5702,25 +5699,25 @@
         <v>109</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>257</v>
@@ -5734,28 +5731,28 @@
         <v>110</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="L68" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="Q68" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>257</v>
@@ -5769,22 +5766,22 @@
         <v>111</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
@@ -5795,34 +5792,34 @@
         <v>112</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F70" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="R70" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -5833,19 +5830,19 @@
         <v>113</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="195" x14ac:dyDescent="0.25">
@@ -5856,31 +5853,31 @@
         <v>114</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="K72" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="L72" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="N72" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -5891,31 +5888,31 @@
         <v>115</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="N73" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="R73" s="1" t="s">
         <v>257</v>
@@ -5929,31 +5926,31 @@
         <v>116</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="I74" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>257</v>
@@ -5967,34 +5964,34 @@
         <v>117</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>257</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>257</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -6005,19 +6002,19 @@
         <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -6028,19 +6025,19 @@
         <v>119</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -6051,19 +6048,19 @@
         <v>120</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -6074,28 +6071,28 @@
         <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="K79" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L79" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="N79" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="N79" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="O79" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="R79" t="s">
         <v>257</v>
@@ -6109,31 +6106,31 @@
         <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I80" t="s">
+        <v>257</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q80" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="I80" t="s">
-        <v>257</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,19 +6141,19 @@
         <v>123</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -6185,24 +6182,24 @@
   <sheetData>
     <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -6216,7 +6213,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>219</v>
@@ -6227,16 +6224,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6244,16 +6241,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E6" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6261,13 +6258,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6275,13 +6272,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6289,13 +6286,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C9" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6303,13 +6300,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -6317,13 +6314,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C11" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -6331,13 +6328,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C12" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -6345,13 +6342,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6359,13 +6356,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C14" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -6373,13 +6370,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6387,13 +6384,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C16" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6404,7 +6401,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6415,7 +6412,7 @@
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6426,7 +6423,7 @@
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6437,7 +6434,7 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6448,7 +6445,7 @@
         <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6459,7 +6456,7 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6470,7 +6467,7 @@
         <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="195" x14ac:dyDescent="0.25">
@@ -6481,13 +6478,13 @@
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -6498,13 +6495,13 @@
         <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -6515,13 +6512,13 @@
         <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -6532,10 +6529,10 @@
         <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -6546,10 +6543,10 @@
         <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -6560,10 +6557,10 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -6574,7 +6571,7 @@
         <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -6585,7 +6582,7 @@
         <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -6593,10 +6590,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C32" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -6604,10 +6601,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C33" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6618,7 +6615,7 @@
         <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -6629,7 +6626,7 @@
         <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -6637,10 +6634,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C36" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -6652,7 +6649,7 @@
         <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -6663,7 +6660,7 @@
         <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6674,10 +6671,10 @@
         <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="300" x14ac:dyDescent="0.25">
@@ -6688,13 +6685,13 @@
         <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -6705,7 +6702,7 @@
         <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -6713,10 +6710,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C42" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -6727,7 +6724,7 @@
         <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -6738,7 +6735,7 @@
         <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -6749,7 +6746,7 @@
         <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -6760,7 +6757,7 @@
         <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -6771,7 +6768,7 @@
         <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -6782,7 +6779,7 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6793,7 +6790,7 @@
         <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -7350,13 +7347,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7367,7 +7364,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7375,10 +7372,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7386,10 +7383,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7397,10 +7394,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7408,10 +7405,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7419,10 +7416,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7430,10 +7427,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -7441,10 +7438,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7452,10 +7449,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -7463,10 +7460,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7474,10 +7471,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C12" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7485,10 +7482,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C13" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7496,10 +7493,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C14" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7507,10 +7504,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C15" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7518,10 +7515,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C16" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7529,10 +7526,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C17" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -7540,10 +7537,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C18" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7551,10 +7548,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C19" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7562,10 +7559,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C20" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7573,10 +7570,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C21" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7584,10 +7581,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -7595,10 +7592,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C23" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7606,10 +7603,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C24" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7617,10 +7614,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C25" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7628,10 +7625,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C26" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7639,10 +7636,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C27" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7650,10 +7647,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C28" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7661,10 +7658,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C29" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7672,10 +7669,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C30" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7683,10 +7680,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C31" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7694,10 +7691,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C32" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7705,10 +7702,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C33" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7716,10 +7713,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C34" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7727,10 +7724,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C35" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7738,10 +7735,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C36" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7749,10 +7746,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C37" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7760,10 +7757,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C38" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7771,10 +7768,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C39" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -7782,10 +7779,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C40" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -7793,10 +7790,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C41" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7804,10 +7801,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C42" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -7815,10 +7812,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C43" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -7826,10 +7823,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C44" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7837,10 +7834,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C45" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7848,10 +7845,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C46" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -7859,10 +7856,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C47" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -7870,10 +7867,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C48" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -7881,10 +7878,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C49" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -7892,10 +7889,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C50" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7903,10 +7900,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C51" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -7914,10 +7911,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C52" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7925,10 +7922,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C53" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -7936,10 +7933,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C54" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -7947,10 +7944,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C55" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -7958,10 +7955,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C56" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -7969,10 +7966,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C57" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -7980,10 +7977,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C58" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -7991,10 +7988,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C59" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -8002,10 +7999,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C60" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -8013,10 +8010,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C61" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -8024,10 +8021,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C62" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -8035,10 +8032,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C63" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -8046,10 +8043,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C64" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -8057,10 +8054,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C65" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="5340" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="changes or adds" sheetId="1" r:id="rId1"/>
     <sheet name="activity" sheetId="2" r:id="rId2"/>
     <sheet name="inpatient stay" sheetId="5" r:id="rId3"/>
-    <sheet name="visit" sheetId="3" r:id="rId4"/>
-    <sheet name="questions" sheetId="4" r:id="rId5"/>
-    <sheet name="SNDBX_BB BB_EOB" sheetId="6" r:id="rId6"/>
+    <sheet name="facility" sheetId="7" r:id="rId4"/>
+    <sheet name="visit" sheetId="3" r:id="rId5"/>
+    <sheet name="questions" sheetId="4" r:id="rId6"/>
+    <sheet name="SNDBX_BB BB_EOB" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -227,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="707">
   <si>
     <t>table</t>
   </si>
@@ -2146,11 +2147,6 @@
     <t>SRC_FORM</t>
   </si>
   <si>
-    <t xml:space="preserve">fac'||'|'||eob.src_provider_reference||'|'||eob.src_facility_code ||'|'||eob.src_patient_reference ||'|'||TO_CHAR(eob.src_billable_period_start,'YYYYMMDD')||'|'||TO_CHAR(eob.src_billable_period_end,'YYYYMMDD') AS pk_ip_stay_id 
-Eng  to provide a fk_bene_id in the ODS layer?
-</t>
-  </si>
-  <si>
     <t>fac' AS stay_type_cd</t>
   </si>
   <si>
@@ -2159,21 +2155,6 @@
   </si>
   <si>
     <t>same as insights</t>
-  </si>
-  <si>
-    <t>eob.src_billable_period_start AS stay_from_dt</t>
-  </si>
-  <si>
-    <t>TO_CHAR(eob.src_billable_period_start, 'm-YYYY-MM') AS stay_from_month_cd</t>
-  </si>
-  <si>
-    <t>eob.src_billable_period_end AS stay_thru_dt</t>
-  </si>
-  <si>
-    <t>TO_CHAR(eob.src_billable_period_end, 'm-YYYY-MM') AS stay_thru_month_cd</t>
-  </si>
-  <si>
-    <t>DATEDIFF('day', eob.src_billable_period_start, eob.src_billable_period_end) AS stay_length_of_stay</t>
   </si>
   <si>
     <t>insghts uses: 
@@ -2200,29 +2181,6 @@
   <si>
     <t>aggregation done at the IP stay level
 the group by needs src_clm_bill_clsfctn_cd that Eng needs to put into data model</t>
-  </si>
-  <si>
-    <t>defined the same as primary for now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || providers.SRC_PROVIDER_NPI) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_id_list
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || case when providers.SRC_ROLE ='primary' then providers.SRC_PROVIDER_NPI end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_primary_id_list 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || case when providers.SRC_ROLE ='primary' then providers.SRC_PROVIDER_NPI end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_operating_id_list 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || case when providers.SRC_ROLE = 'supervisor' then providers.SRC_PROVIDER_NPI end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_attending_id_list       
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || case when providers.SRC_ROLE in ('other','assist') then providers.SRC_PROVIDER_NPI end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_other_id_list
-</t>
   </si>
   <si>
     <t>dspns_prvdr'||'|'||COALESCE('0123456789','#NA') AS facility_npi_num
@@ -2302,13 +2260,6 @@
     <t>trim(providers.fk_provider_primary_id_list[0]) AS fk_provider_prescribing_id</t>
   </si>
   <si>
-    <t>COALESCE(TO_VARCHAR(eob.src_provider_reference),'') || '|' ||
-      COALESCE(TO_VARCHAR(eob.src_billable_period_start),'') || '|' ||
-      COALESCE(TO_VARCHAR(eob.src_billable_period_end),'') || '|' ||
-      COALESCE(TO_VARCHAR(eob.src_patient_reference),'')
-      AS ODS_PT_A_CLM_NK</t>
-  </si>
-  <si>
     <t>could be aliased at next level</t>
   </si>
   <si>
@@ -2326,10 +2277,6 @@
   </si>
   <si>
     <t>diagnosis.&lt;for each - EXCEPT drg&gt;.extension.[url == 'https://bluebutton.cms.gov/resources/variables/clm_poa_ind_sw1'].valueCoding.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need a dx system inidicator. I'm prepending all the codes with 'icd_10_cm_cd' for now.  When get the indicator, add an AND to the CASE WHEN
-</t>
   </si>
   <si>
     <t>providers.fk_provider_id_list</t>
@@ -2502,6 +2449,310 @@
   </si>
   <si>
     <t>insights uses src_ordrg_prvdr_npi_num.  I don’t; see that in the BB DME standard.  Will use '#NA'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'fac'||'|'||c1.src_provider_reference||'|'||COALESCE(c1.src_facility_code,'#NA')||'|'||c1.src_patient_reference ||'|'||TO_CHAR(c1.src_billable_period_start,'YYYYMMDD')||'|'||TO_CHAR(c1.src_billable_period_end,'YYYYMMDD') AS pk_ip_stay_id 
+Eng  to provide a fk_bene_id in the ODS layer?
+facility code isn't always reliable in src_type 60, so getting null PKs
+</t>
+  </si>
+  <si>
+    <t>c1.src_billable_period_start AS stay_from_dt</t>
+  </si>
+  <si>
+    <t>TO_CHAR(c1.src_billable_period_start, 'm-YYYY-MM') AS stay_from_month_cd</t>
+  </si>
+  <si>
+    <t>c1.src_billable_period_end AS stay_thru_dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO_CHAR(c1.src_billable_period_end, 'm-YYYY-MM') AS stay_thru_month_cd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEDIFF('day', c1.src_billable_period_start, c1.src_billable_period_end) AS stay_length_of_stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG(COALESCE(eobInfoPvt.clm_ip_admsn_type_cd, '#NA'))WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, eob.src_billable_period_end DESC)) AS stay_admission_type_cd_list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG(COALESCE(eobInfoPvt.clm_src_ip_admsn_cd, '#NA'))WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, eob.src_billable_period_end DESC)) AS stay_admission_source_cd_list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRAY_DISTINCT(ARRAY_AGG(COALESCE(eobInfoPvt.ptnt_dschrg_stus_cd, '#NA')) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, eob.src_billable_period_end DESC)) AS stay_discharge_status_cd_list
+</t>
+  </si>
+  <si>
+    <t>eob.src_patient_reference AS fk_bene_id 
+c1.fk_bene_id AS fk_patient_id</t>
+  </si>
+  <si>
+    <t>COALESCE(src_provider_reference,'#NA') AS src_prvdr_oscar_num 
+ccn_num'||'|'||c1.src_prvdr_oscar_num AS fk_facility_id
+    , c1.src_prvdr_oscar_num AS facility_ccn_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COALESCE(src_provider_reference,'#NA') AS src_prvdr_oscar_num 
+c1.src_prvdr_oscar_num AS facility_ccn_num    </t>
+  </si>
+  <si>
+    <t>COALESCE(eob.src_facility_code, '#NA') AS src_fac_prvdr_npi_num
+c1.src_fac_prvdr_npi_num AS facility_npi_num</t>
+  </si>
+  <si>
+    <t>COALESCE(eob.src_facility_type,'#NA') AS src_clm_bill_fac_type_cd
+c1.src_clm_bill_fac_type_cd AS facility_type_cd</t>
+  </si>
+  <si>
+    <t>Eng need to provider the field: src_clm_bill_clsfctn_cd</t>
+  </si>
+  <si>
+    <t>defined the same as primary for now,    might be to_array('#NA')</t>
+  </si>
+  <si>
+    <t>insights uses; MAX(d.src_clm_val_sqnc_num) AS diagnosis_facility_detail_cnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insights uses: ARRAY_AGG(COALESCE(d.src_clm_poa_ind,'#NA')) WITHIN GROUP(ORDER BY d.src_clm_from_dt DESC,d.src_clm_thru_dt DESC) AS diagnosis_facility_detail_present_on_admission_cd_list
+</t>
+  </si>
+  <si>
+    <t>insights uses: ARRAY_AGG(COALESCE(d.src_clm_prod_type_cd,'#NA')) WITHIN GROUP(ORDER BY d.src_clm_from_dt DESC,d.src_clm_thru_dt DESC) AS diagnosis_facility_detail_product_type_cd_list
+per bb-&gt;cclf mapping, that field is N/A
+usiing to_array('#NA') as diagnosis_facility_detail_product_type_cd_list</t>
+  </si>
+  <si>
+    <t>to_array('#NA') as diagnosis_facility_detail_product_type_cd_list</t>
+  </si>
+  <si>
+    <t>insights uses; SUM(
+              CASE
+                  WHEN c.src_clm_adjsmt_type_cd = '1'
+                      THEN -1
+                  ELSE
+                      1
+              END * c.src_clm_pmt_amt) AS src_clm_pmt_amt</t>
+  </si>
+  <si>
+    <t>SUM(
+              CASE
+                  WHEN eobInfoPvt.clm_freq_cd = '8' --Void/cancel prior claim
+                      THEN -1
+                  ELSE
+                      1
+              END * eob.src_payment_amount) AS src_clm_pmt_amt
+c1.src_clm_pmt_amt AS claim_paid_amt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field is present in source but Eng needs to bring into model  
+(diagnosis.&lt;for each - EXCEPT drg&gt;.extension.[url == 'https://bluebutton.cms.gov/resources/variables/clm_poa_ind_sw1'].valueCoding.code)
+using this for now: to_array('#NA') AS diagnosis_facility_detail_present_on_admission_cd_list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need a dx system inidicator. I'm prepending all the codes with 'icd_10_cm_cd' for now.  When get the indicator, add an AND to the CASE WHEN
+I have this filtering on Principal only (then concatenating Other) similar to insights, but sometimes I see admitting w/out principal so it looks weird to have a 'unfiltered' list that's blank in that case
+</t>
+  </si>
+  <si>
+    <t>insights uses: 
+ARRAY_AGG(
+              CASE
+                  WHEN COALESCE(d.src_dgns_prcdr_icd_ind,'9') = '0'
+                      THEN '#NA'
+                  ELSE
+                      COALESCE(d.src_clm_dgns_cd,'#NA')
+              END) WITHIN GROUP(ORDER BY d.src_clm_from_dt DESC,d.src_clm_thru_dt DESC) AS diagnosis_facility_detail_icd_9_cd_list</t>
+  </si>
+  <si>
+    <t>insights uses: 
+ARRAY_AGG(
+              CASE
+                  WHEN COALESCE(d.src_dgns_prcdr_icd_ind,'9') = '0'
+                      THEN COALESCE(d.src_clm_dgns_cd,'#NA')
+                  ELSE
+                      '#NA'
+              END) WITHIN GROUP(ORDER BY d.src_clm_from_dt DESC,d.src_clm_thru_dt DESC) AS diagnosis_facility_detail_icd_10_cd_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array_distinct(array_agg(eob.src_type) WITHIN GROUP (ORDER BY eob.src_billable_period_start DESC, eob.src_billable_period_end DESC)) AS claim_type_cd_list
+</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(eob.src_provider_reference),'') || '|' ||
+      COALESCE(TO_VARCHAR(eob.src_billable_period_start),'') || '|' ||
+      COALESCE(TO_VARCHAR(eob.src_billable_period_end),'') || '|' ||
+      COALESCE(TO_VARCHAR(eob.src_patient_reference),'')
+      AS ODS_PT_A_CLM_NK
+c1.ods_pt_a_clm_nk AS claim_nk</t>
+  </si>
+  <si>
+    <t>0.0 AS claim_allowed_amt</t>
+  </si>
+  <si>
+    <t>1234 AS load_run_id</t>
+  </si>
+  <si>
+    <t>insights uses: src_clm_nch_prmry_pyr_cd
+per bb-&gt;cclf mapping, N/A not there</t>
+  </si>
+  <si>
+    <t>dummy number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c2 cte: 
+ARRAY_DISTINCT(ARRAY_AGG(revItem.src_revenue) WITHIN GROUP (ORDER BY eob.src_billable_period_start DESC, revItem.SRC_SEQUENCE, eob.src_billable_period_end DESC)) AS facility_revenue_center_cd_list
+final query
+c2.facility_revenue_center_cd_list
+</t>
+  </si>
+  <si>
+    <t>c4:
+ARRAY_DISTINCT(ARRAY_AGG(case when trim(diagnoses.src_type[0]['coding'][0]['code']) = 'principal' AND 1=0 then COALESCE(diagnoses.src_diagnosis_code,'#NA') 
+         else '#NA' end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, diagnoses.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as diagnosis_facility_principal_icd_9_cd_list 
+, c4.diagnosis_facility_principal_icd_9_cd_list</t>
+  </si>
+  <si>
+    <t>c4:
+ARRAY_DISTINCT(ARRAY_AGG(case when trim(diagnoses.src_type[0]['coding'][0]['code']) = 'principal' AND 1=1 then COALESCE(diagnoses.src_diagnosis_code,'#NA') 
+         else '#NA' end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, diagnoses.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as diagnosis_facility_principal_icd_10_cd_list
+c4.diagnosis_facility_principal_icd_10_cd_list</t>
+  </si>
+  <si>
+    <t>ARRAY_DISTINCT(ARRAY_AGG(case when trim(diagnoses.src_type[0]['coding'][0]['code']) = 'admitting' AND 1=0 then COALESCE(diagnoses.src_diagnosis_code,'#NA') 
+         else '#NA' end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, diagnoses.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as diagnosis_facility_admitting_icd_9_cd_list 
+c4.diagnosis_facility_admitting_icd_9_cd_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c4:
+ARRAY_DISTINCT(ARRAY_AGG(case when trim(diagnoses.src_type[0]['coding'][0]['code']) = 'admitting' AND 1=1 then COALESCE(diagnoses.src_diagnosis_code,'#NA') 
+         else '#NA' end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, diagnoses.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as diagnosis_facility_admitting_icd_10_cd_list
+c4.diagnosis_facility_admitting_icd_10_cd_list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c4:
+ARRAY_DISTINCT(ARRAY_AGG(case when trim(diagnoses.src_type[0]['coding'][0]['code']) = 'principal' AND 1=1 then 'icd_10_cm_cd'||'|'|| COALESCE(diagnoses.src_diagnosis_code,'#NA')
+         when trim(diagnoses.src_type[0]['coding'][0]['code']) = 'principal' AND 1=0 then 'icd_9_cm_cd'||'|'|| COALESCE(diagnoses.src_diagnosis_code,'#NA')
+         else '#NA' end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, diagnoses.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_diagnosis_id_list
+c4: 
+ARRAY_DISTINCT(ARRAY_AGG(case when trim(diagnoses.src_type[0]['coding'][0]['code']) IS NULL AND diagnoses.src_package_code IS NULL AND 1=1 then 'icd_10_cm_cd'||'|'|| COALESCE(diagnoses.src_diagnosis_code,'#NA')
+         when trim(diagnoses.src_type[0]['coding'][0]['code']) IS NULL AND diagnoses.src_package_code IS NULL AND 1=0 then 'icd_9_cm_cd'||'|'|| COALESCE(diagnoses.src_diagnosis_code,'#NA')
+         else '#NA' end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, diagnoses.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_diagnosis_id_list_other
+final query: 
+CASE
+          WHEN ARRAY_FILTER(ARRAY_CAT(c4.fk_diagnosis_id_list,COALESCE(c4.fk_diagnosis_id_list_other, array_construct())), '.*#NA$') = ARRAY_CONSTRUCT()
+              THEN TO_ARRAY('#NA')
+          ELSE ARRAY_DISTINCT(ARRAY_FILTER(ARRAY_CAT(c4.fk_diagnosis_id_list,COALESCE(c4.fk_diagnosis_id_list_other, array_construct())), '.*#NA$'))
+      END AS fk_diagnosis_id_list </t>
+  </si>
+  <si>
+    <t>c4:
+max(case when trim(diagnoses.src_type[0]['coding'][0]['code']) IS NULL AND diagnoses.src_package_code IS NULL THEN diagnoses.SRC_SEQUENCE end) AS maxSqnc
+c4.maxSqnc AS diagnosis_facility_detail_cnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c4:
+ARRAY_DISTINCT(ARRAY_AGG(case when trim(diagnoses.src_type[0]['coding'][0]['code']) IS NULL AND diagnoses.src_package_code IS NULL AND 1=0 then COALESCE(diagnoses.src_diagnosis_code,'#NA')
+         else '#NA' end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, diagnoses.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as diagnosis_facility_detail_icd_9_cd_list 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c4: 
+ARRAY_DISTINCT(ARRAY_AGG(case when trim(diagnoses.src_type[0]['coding'][0]['code']) IS NULL AND diagnoses.src_package_code IS NULL AND 1=1 then COALESCE(diagnoses.src_diagnosis_code,'#NA')
+         else '#NA' end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, diagnoses.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as diagnosis_facility_detail_icd_10_cd_list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c4: 
+ARRAY_DISTINCT(ARRAY_AGG(diagnoses.src_package_code) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, diagnoses.SRC_SEQUENCE, eob.src_billable_period_end DESC)) AS claim_drg_cd_list 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careTeam:
+ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || coalesce(providers.SRC_PROVIDER_NPI, '#NA')) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_id_list
+final query: 
+CASE 
+  WHEN array_filter(COALESCE(careTeam.fk_provider_id_list, array_construct()), 'npi_num\\|#NA') = array_construct() THEN TO_ARRAY('npi_num|#NA')
+  ELSE array_distinct(array_filter(careTeam.fk_provider_id_list, 'npi_num\\|#NA'))
+   END AS fk_provider_id_list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careTeam: 
+ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || case when providers.SRC_ROLE ='primary' then providers.SRC_PROVIDER_NPI end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_primary_id_list 
+coalesce(careTeam.fk_provider_primary_id_list, array_construct()) AS fk_provider_primary_id_list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careTeam: 
+ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || case when providers.SRC_ROLE ='primary' then providers.SRC_PROVIDER_NPI end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_operating_id_list 
+coalesce(careTeam.fk_provider_operating_id_list, array_construct()) AS fk_provider_operating_id_list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careTeam: 
+ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || case when providers.SRC_ROLE = 'supervisor' then providers.SRC_PROVIDER_NPI end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_attending_id_list       
+coalesce(careTeam.fk_provider_attending_id_list, array_construct()) AS fk_provider_attending_id_list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careTeam: 
+ARRAY_DISTINCT(ARRAY_AGG('npi_num' || '|' || case when providers.SRC_ROLE in ('other','assist') then providers.SRC_PROVIDER_NPI end) WITHIN GROUP(ORDER BY eob.src_billable_period_start DESC, providers.SRC_SEQUENCE, eob.src_billable_period_end DESC)) as fk_provider_other_id_list
+coalesce(careTeam.fk_provider_other_id_list, array_construct()) AS fk_provider_other_id_list
+</t>
+  </si>
+  <si>
+    <t>PK_FACILITY_ID</t>
+  </si>
+  <si>
+    <t>NUM_TYPE_CD</t>
+  </si>
+  <si>
+    <t>FACILITY_NUM</t>
+  </si>
+  <si>
+    <t>OSCAR_CCN_NUM</t>
+  </si>
+  <si>
+    <t>NPI_NUM</t>
+  </si>
+  <si>
+    <t>TAX_ID_NUM</t>
+  </si>
+  <si>
+    <t>FACILITY_SUBTYPE_CD</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ADDR_LINE_1</t>
+  </si>
+  <si>
+    <t>ADDR_LINE_2</t>
+  </si>
+  <si>
+    <t>ADDR_CITY</t>
+  </si>
+  <si>
+    <t>ADDR_COUNTY_CD</t>
+  </si>
+  <si>
+    <t>ADDR_STATE_CD</t>
+  </si>
+  <si>
+    <t>ADDR_ZIP_CD</t>
+  </si>
+  <si>
+    <t>ADDR_POINT</t>
+  </si>
+  <si>
+    <t>FACILITY_CERTIFICATION_TYPE_CD</t>
+  </si>
+  <si>
+    <t>FACILITY_CERTIFICATION_TYPE_ROLLUP_CD</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2637,6 +2888,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2921,8 +3173,8 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,7 +3330,7 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -3240,7 +3492,7 @@
         <v>244</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -3323,7 +3575,7 @@
         <v>396</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3340,29 +3592,29 @@
         <v>398</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>282</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3370,13 +3622,13 @@
         <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="E24" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -3397,9 +3649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N21" sqref="N21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3708,13 +3960,13 @@
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>197</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>197</v>
@@ -3847,13 +4099,13 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>197</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>358</v>
@@ -3894,10 +4146,10 @@
         <v>193</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>226</v>
@@ -3920,16 +4172,16 @@
         <v>193</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>193</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>227</v>
@@ -3958,7 +4210,7 @@
         <v>193</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>228</v>
@@ -3987,7 +4239,7 @@
         <v>193</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>229</v>
@@ -4043,13 +4295,13 @@
         <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>234</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>234</v>
@@ -4067,10 +4319,10 @@
         <v>257</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -4081,13 +4333,13 @@
         <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>236</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>236</v>
@@ -4119,13 +4371,13 @@
         <v>66</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>235</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>235</v>
@@ -4143,7 +4395,7 @@
         <v>257</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>276</v>
@@ -4157,13 +4409,13 @@
         <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>241</v>
@@ -4233,7 +4485,7 @@
         <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>251</v>
@@ -4371,7 +4623,7 @@
         <v>253</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -4420,31 +4672,31 @@
         <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>362</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>372</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>300</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>308</v>
@@ -4461,7 +4713,7 @@
         <v>479</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>479</v>
@@ -4470,7 +4722,7 @@
         <v>373</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>287</v>
@@ -4534,13 +4786,13 @@
         <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>371</v>
@@ -4569,13 +4821,13 @@
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>374</v>
@@ -4616,7 +4868,7 @@
         <v>257</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>287</v>
@@ -4727,7 +4979,7 @@
         <v>257</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>315</v>
@@ -4765,7 +5017,7 @@
         <v>295</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>295</v>
@@ -4803,10 +5055,10 @@
         <v>257</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="240" x14ac:dyDescent="0.25">
@@ -4841,10 +5093,10 @@
         <v>257</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -4879,10 +5131,10 @@
         <v>257</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -4917,10 +5169,10 @@
         <v>257</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="330" x14ac:dyDescent="0.25">
@@ -5203,10 +5455,10 @@
         <v>249</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>342</v>
@@ -5241,7 +5493,7 @@
         <v>249</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>347</v>
@@ -5276,7 +5528,7 @@
         <v>367</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>367</v>
@@ -5816,7 +6068,7 @@
         <v>441</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>446</v>
@@ -6167,14 +6419,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
@@ -6185,7 +6437,7 @@
         <v>504</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6219,7 +6471,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6230,10 +6482,10 @@
         <v>483</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6247,10 +6499,10 @@
         <v>483</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6264,7 +6516,7 @@
         <v>487</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>577</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6278,7 +6530,7 @@
         <v>483</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6292,7 +6544,7 @@
         <v>487</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>579</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6306,7 +6558,7 @@
         <v>483</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>580</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -6320,10 +6572,10 @@
         <v>492</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6333,11 +6585,14 @@
       <c r="C12" t="s">
         <v>494</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>649</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6347,8 +6602,11 @@
       <c r="C13" t="s">
         <v>494</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>650</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6362,10 +6620,10 @@
         <v>483</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -6375,8 +6633,11 @@
       <c r="C15" t="s">
         <v>494</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>651</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6390,10 +6651,10 @@
         <v>483</v>
       </c>
       <c r="D16" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -6403,8 +6664,11 @@
       <c r="C17" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -6414,8 +6678,11 @@
       <c r="C18" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -6425,8 +6692,11 @@
       <c r="C19" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -6436,8 +6706,11 @@
       <c r="C20" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -6447,8 +6720,11 @@
       <c r="C21" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -6458,8 +6734,14 @@
       <c r="C22" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -6469,8 +6751,11 @@
       <c r="C23" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -6481,13 +6766,13 @@
         <v>494</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>588</v>
+        <v>685</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -6498,13 +6783,13 @@
         <v>494</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>589</v>
+        <v>686</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -6515,13 +6800,13 @@
         <v>494</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>590</v>
+        <v>687</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -6532,10 +6817,10 @@
         <v>494</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -6546,10 +6831,10 @@
         <v>494</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -6559,11 +6844,14 @@
       <c r="C29" t="s">
         <v>494</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -6573,8 +6861,11 @@
       <c r="C30" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -6584,8 +6875,11 @@
       <c r="C31" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -6595,8 +6889,11 @@
       <c r="C32" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -6606,8 +6903,11 @@
       <c r="C33" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -6617,8 +6917,14 @@
       <c r="C34" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -6628,8 +6934,14 @@
       <c r="C35" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -6639,9 +6951,14 @@
       <c r="C36" t="s">
         <v>494</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -6651,8 +6968,14 @@
       <c r="C37" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -6661,6 +6984,12 @@
       </c>
       <c r="C38" t="s">
         <v>494</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6674,10 +7003,10 @@
         <v>494</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -6688,13 +7017,13 @@
         <v>483</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>607</v>
+        <v>670</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -6704,8 +7033,11 @@
       <c r="C41" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -6715,8 +7047,11 @@
       <c r="C42" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -6726,8 +7061,14 @@
       <c r="C43" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E43" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -6737,8 +7078,14 @@
       <c r="C44" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -6748,8 +7095,11 @@
       <c r="C45" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -6759,8 +7109,14 @@
       <c r="C46" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -6770,8 +7126,11 @@
       <c r="C47" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -6781,8 +7140,14 @@
       <c r="C48" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -6791,6 +7156,9 @@
       </c>
       <c r="C49" t="s">
         <v>483</v>
+      </c>
+      <c r="D49" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6801,6 +7169,288 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>696</v>
+      </c>
+      <c r="C13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>697</v>
+      </c>
+      <c r="C14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>698</v>
+      </c>
+      <c r="C15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>699</v>
+      </c>
+      <c r="C16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>700</v>
+      </c>
+      <c r="C17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>701</v>
+      </c>
+      <c r="C18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>702</v>
+      </c>
+      <c r="C19" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C20" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>704</v>
+      </c>
+      <c r="C21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>705</v>
+      </c>
+      <c r="C25" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>706</v>
+      </c>
+      <c r="C26" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B55"/>
   <sheetViews>
@@ -7250,7 +7900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -7330,12 +7980,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="5340" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="5340" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="changes or adds" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="764">
   <si>
     <t>table</t>
   </si>
@@ -2753,6 +2753,284 @@
   </si>
   <si>
     <t>FACILITY_CERTIFICATION_TYPE_ROLLUP_CD</t>
+  </si>
+  <si>
+    <t>filtering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1.src_type IN ('10'  --HHA
+       , '20' --SNF
+       , '30' --SNF
+       ,'40' --Outpatient
+       ,'50' --Hospice
+       ,'60' --Inpatient
+       ,'61' --Inpatient
+       ,'81' --dme
+       ,'82' --dme
+       ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tin'||'|'||'#NA' AS pk_facility_id </t>
+  </si>
+  <si>
+    <t>c7.src_type = 'PDE'</t>
+  </si>
+  <si>
+    <t>claims: 
+DISTINCT 'dspns_prvdr' AS num_type_cd
+  , CASE 
+   WHEN c7.src_facility_code_type_reference = 'http://hl7.org/fhir/sid/us-npi'
+    THEN 'npi_num'
+   --don't have any examples of the systems for UPIN/06 or NCPDP/07 or tin
+   ELSE '#NA'
+   END || '|' || COALESCE(c7.src_facility_code,'#NA') AS facility_num 
+final select: 
+claims.num_type_cd||'|'||claims.facility_num AS pk_facility_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5.src_type IN ('71'  
+       , '72')
+this section of etl relies on clm_rndrg_prvdr_tax_num which is not provided by blue button.  Do we remove the section? </t>
+  </si>
+  <si>
+    <t>join condition: 
+FROM local_chrisfreyder.sndbx_bb.bb_EOB c1, 
+         lateral flatten(array_construct(
+               COALESCE(src_provider_reference, '#NA')
+             , COALESCE(src_facility_code, '#NA')
+         )) c1t
+CASE
+          WHEN c1t.index = 0
+              THEN 'ccn_num'
+          ELSE
+              'npi_num'
+      END || '|' || c1t.value AS pk_facility_id</t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN c1t.index = 0
+              THEN 'ccn_num'
+          ELSE
+              'npi_num'
+      END AS num_type_cd</t>
+  </si>
+  <si>
+    <t>tin' AS num_type_cd</t>
+  </si>
+  <si>
+    <t>claims.num_type_cd</t>
+  </si>
+  <si>
+    <t>claims: 
+c1t.value AS facility_num</t>
+  </si>
+  <si>
+    <t>#NA' AS facility_num</t>
+  </si>
+  <si>
+    <t>claims.facility_num</t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN c1t.index = 0
+              THEN c1t.value
+          ELSE
+              '#NA'
+      END AS oscar_ccn_num</t>
+  </si>
+  <si>
+    <t>#NA' AS oscar_ccn_num</t>
+  </si>
+  <si>
+    <t>CASE
+          WHEN c1t.index = 1
+              THEN c1t.value
+          ELSE
+              '#NA'
+      END AS npi_num</t>
+  </si>
+  <si>
+    <t>#NA' AS npi_num</t>
+  </si>
+  <si>
+    <t>claims: 
+CASE
+        WHEN c7.src_facility_code_type_reference = 'http://hl7.org/fhir/sid/us-npi'
+            THEN COALESCE(c7.src_facility_code,'#NA')
+        ELSE
+            '#NA'
+           END AS npi_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od: 
+ SELECT
+        src_facility_ccn
+        ,src_tin
+     FROM prod_humana.ods.nh_network_model_3_fac nsf3
+final query: 
+od.src_tin AS fk_tin_id
+</t>
+  </si>
+  <si>
+    <t>final query: 
+COALESCE(od.src_tin, '#NA') AS tax_id_num</t>
+  </si>
+  <si>
+    <t>insights uses: COALESCE(c5.src_clm_rndrg_prvdr_tax_num,'#NA') AS tax_id_num</t>
+  </si>
+  <si>
+    <t>insights uses: COALESCE(c5.src_clm_rndrg_prvdr_tax_num,'#NA') AS facility_num</t>
+  </si>
+  <si>
+    <t>insights uses: 'tin'||'|'||COALESCE(c5.src_clm_rndrg_prvdr_tax_num,'#NA') AS pk_facility_id</t>
+  </si>
+  <si>
+    <t>NULL AS fk_tin_id</t>
+  </si>
+  <si>
+    <t>#NA' AS tax_id_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes: </t>
+  </si>
+  <si>
+    <t>insights uses: 
+claims: 
+CASE
+              WHEN c7.src_prvdr_srvc_id_qlfyr_cd = '11'
+                  THEN COALESCE(c7.src_clm_srvc_prvdr_gnrc_id_num,'#NA')
+              ELSE
+                  '#NA'
+          END AS tin
+final query:
+claims.tin AS tax_id_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claims: 
+, '#NA' AS tin
+ --don't have any examples of the systems for tin
+ --   CASE
+ --              WHEN c7.src_prvdr_srvc_id_qlfyr_cd = '11'
+ --                  THEN COALESCE(c7.src_clm_srvc_prvdr_gnrc_id_num,'#NA')
+ --              ELSE
+ --                  '#NA'
+ --          END AS tin </t>
+  </si>
+  <si>
+    <t>fo: 
+SELECT
+        , od_ccn.prvdr_ctgry_cd AS fac_type_cd
+        , od_ccn.prvdr_ctgry_cd||'-'||od_ccn.prvdr_ctgry_sbtyp_cd AS fac_subtype_cd
+    FROM {{env}}_common.od.od_ccn_prvdr_service_reg_201609 od_ccn
+final query: 
+COALESCE(fo.fac_type_cd, '#NA') AS facility_type_cd</t>
+  </si>
+  <si>
+    <t>final query: 
+COALESCE(fo.fac_subtype_cd, '#NA') AS facility_subtype_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS facility_subtype_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fo: 
+od_ccn.fac_name AS name
+fn: 
+SELECT 
+COALESCE(TRIM(od_npi.prov_org_name_legal_business_name), TRIM(COALESCE(od_npi.prov_name_prefix_text||' ','')||COALESCE(od_npi.prov_first_name,'')||COALESCE(' '||od_npi.prov_middle_name,'')||COALESCE(' '||od_npi.prov_last_name_legal_name,'')||COALESCE(' '||od_npi.prov_name_suffix_text,'')||COALESCE(', '||od_npi.prov_cred_text,'')),'unknown') AS name
+FROM {{env}}_common.od.od_npi_nppes_data od_npi
+union distinct
+SELECT
+COALESCE(od_rehab.name,'Unknown') AS name
+FROM {{env}}_common.od.od_hosp_rehab_facility_2017 od_rehab
+final query:COALESCE(fo.name, fn.name, 'unknown') AS name
+</t>
+  </si>
+  <si>
+    <t>physician tin ['||'#NA'||']' AS NAME</t>
+  </si>
+  <si>
+    <t>fn: 
+SELECT 
+COALESCE(TRIM(od_npi.prov_org_name_legal_business_name), TRIM(COALESCE(od_npi.prov_name_prefix_text||' ','')||COALESCE(od_npi.prov_first_name,'')||COALESCE(' '||od_npi.prov_middle_name,'')||COALESCE(' '||od_npi.prov_last_name_legal_name,'')||COALESCE(' '||od_npi.prov_name_suffix_text,'')||COALESCE(', '||od_npi.prov_cred_text,'')),'unknown') AS name
+FROM {{env}}_common.od.od_npi_nppes_data od_npi
+union distinct
+SELECT
+COALESCE(od_rehab.name,'Unknown') AS name
+FROM {{env}}_common.od.od_hosp_rehab_facility_2017 od_rehab
+final query: 
+COALESCE(fn.name, 'dispensing provider ['||claims.facility_num||']') AS name</t>
+  </si>
+  <si>
+    <t>COALESCE(fo.addr_line_1, fn.addr_line_1, 'unknown') AS addr_line_1</t>
+  </si>
+  <si>
+    <t>COALESCE(fn.addr_line_2, 'unknown') AS addr_line_2</t>
+  </si>
+  <si>
+    <t>COALESCE(fo.addr_city, fn.addr_city, 'unknown') AS addr_city</t>
+  </si>
+  <si>
+    <t>COALESCE(fo.addr_county_cd, '#NA') AS addr_county_cd</t>
+  </si>
+  <si>
+    <t>COALESCE(fo.addr_state_cd, fn.addr_state_cd, '#NA') AS addr_state_cd</t>
+  </si>
+  <si>
+    <t>COALESCE(fo.addr_zip_cd, fn.addr_zip_cd, '#NA') AS addr_zip_cd</t>
+  </si>
+  <si>
+    <t>NULL AS addr_point</t>
+  </si>
+  <si>
+    <t>fac_type_3_4 and fac_typ_3_1  created from {env}}_common.ref.code_xref_map
+COALESCE(fac_type_3_4.target_1_value,fac_type_3_1.target_1_value) facility_certification_type_cd</t>
+  </si>
+  <si>
+    <t>COALESCE(fac_type_3_4.target_2_value,fac_type_3_1.target_2_value) AS facility_certification_type_rollup_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS facility_certification_type_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NA' AS facility_certification_type_rollup_cd
+    , </t>
+  </si>
+  <si>
+    <t>#NA'  AS addr_line_1</t>
+  </si>
+  <si>
+    <t>#NA'  AS addr_line_2</t>
+  </si>
+  <si>
+    <t>#NA'  AS addr_city</t>
+  </si>
+  <si>
+    <t>#NA' AS addr_county_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS addr_state_cd</t>
+  </si>
+  <si>
+    <t>#NA' AS addr_zip_cd</t>
+  </si>
+  <si>
+    <t>NULL  AS addr_point</t>
+  </si>
+  <si>
+    <t>COALESCE(fn.addr_line_1, 'unknown') AS addr_line_1</t>
+  </si>
+  <si>
+    <t>unknown' AS addr_line_2</t>
+  </si>
+  <si>
+    <t>COALESCE(fn.addr_city, 'unknown') AS addr_city</t>
+  </si>
+  <si>
+    <t>COALESCE(fn.addr_state_cd, '#NA') AS addr_state_cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COALESCE(fn.addr_zip_cd, '#NA') AS addr_zip_cd</t>
   </si>
 </sst>
 </file>
@@ -2860,7 +3138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2889,6 +3167,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3649,9 +3933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6419,7 +6703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -7170,18 +7454,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C26"/>
+  <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H2" t="s">
+        <v>732</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>480</v>
       </c>
@@ -7192,7 +7501,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7202,8 +7511,17 @@
       <c r="C4" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7213,8 +7531,21 @@
       <c r="C5" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7224,8 +7555,17 @@
       <c r="C6" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="J6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -7235,8 +7575,21 @@
       <c r="C7" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -7246,8 +7599,17 @@
       <c r="C8" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7257,8 +7619,17 @@
       <c r="C9" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -7268,8 +7639,17 @@
       <c r="C10" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="J10" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -7279,8 +7659,24 @@
       <c r="C11" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -7290,8 +7686,17 @@
       <c r="C12" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -7301,8 +7706,17 @@
       <c r="C13" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -7312,8 +7726,17 @@
       <c r="C14" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -7323,8 +7746,17 @@
       <c r="C15" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -7334,8 +7766,17 @@
       <c r="C16" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -7345,8 +7786,17 @@
       <c r="C17" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -7356,8 +7806,17 @@
       <c r="C18" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -7367,8 +7826,17 @@
       <c r="C19" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -7378,8 +7846,17 @@
       <c r="C20" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -7389,8 +7866,17 @@
       <c r="C21" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>747</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -7400,8 +7886,17 @@
       <c r="C22" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -7411,8 +7906,17 @@
       <c r="C23" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -7422,8 +7926,17 @@
       <c r="C24" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -7433,8 +7946,17 @@
       <c r="C25" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -7444,9 +7966,19 @@
       <c r="C26" t="s">
         <v>483</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>751</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="5340" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="5340" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="changes or adds" sheetId="1" r:id="rId1"/>
     <sheet name="activity" sheetId="2" r:id="rId2"/>
     <sheet name="inpatient stay" sheetId="5" r:id="rId3"/>
     <sheet name="facility" sheetId="7" r:id="rId4"/>
-    <sheet name="visit" sheetId="3" r:id="rId5"/>
-    <sheet name="questions" sheetId="4" r:id="rId6"/>
-    <sheet name="SNDBX_BB BB_EOB" sheetId="6" r:id="rId7"/>
+    <sheet name="patient_roster" sheetId="8" r:id="rId5"/>
+    <sheet name="visit" sheetId="3" r:id="rId6"/>
+    <sheet name="questions" sheetId="4" r:id="rId7"/>
+    <sheet name="SNDBX_BB BB_EOB" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -228,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="774">
   <si>
     <t>table</t>
   </si>
@@ -3031,6 +3032,36 @@
   </si>
   <si>
     <t xml:space="preserve"> COALESCE(fn.addr_zip_cd, '#NA') AS addr_zip_cd</t>
+  </si>
+  <si>
+    <t>MONTH_CD</t>
+  </si>
+  <si>
+    <t>FK_NETWORK_ID</t>
+  </si>
+  <si>
+    <t>FK_GROUP_ID</t>
+  </si>
+  <si>
+    <t>FK_PROVIDER_ID</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION_CURR_PERIOD_FLAG</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION_PREV_PERIOD_FLAG</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION_ANY_PERIOD_FLAG</t>
+  </si>
+  <si>
+    <t>ASSIGNABLE_CURR_PERIOD_FLAG</t>
+  </si>
+  <si>
+    <t>ASSIGNABLE_PREV_PERIOD_FLAG</t>
+  </si>
+  <si>
+    <t>ASSIGNABLE_ANY_PERIOD_FLAG</t>
   </si>
 </sst>
 </file>
@@ -3457,7 +3488,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -6703,8 +6734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7456,8 +7487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7984,6 +8015,208 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>765</v>
+      </c>
+      <c r="C7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>766</v>
+      </c>
+      <c r="C8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>767</v>
+      </c>
+      <c r="C9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>768</v>
+      </c>
+      <c r="C10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>769</v>
+      </c>
+      <c r="C11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>770</v>
+      </c>
+      <c r="C12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>771</v>
+      </c>
+      <c r="C13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>772</v>
+      </c>
+      <c r="C14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B55"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -8432,7 +8665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -8512,7 +8745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>

--- a/bb_mapping.xlsx
+++ b/bb_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="5340" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="changes or adds" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="790">
   <si>
     <t>table</t>
   </si>
@@ -3062,6 +3062,55 @@
   </si>
   <si>
     <t>ASSIGNABLE_ANY_PERIOD_FLAG</t>
+  </si>
+  <si>
+    <t>{{ dag_run.conf.org_id }}' AS org_id</t>
+  </si>
+  <si>
+    <t>coverage.src_beneficiary_reference AS fk_bene_id</t>
+  </si>
+  <si>
+    <t>it would be better to have this populated by BB_COVERAGE_EXTENSION.FK_PATIENT_ID since the prefix 'Patient /' has been removed and 'cms_bb|' added and so connect to the pk in patient</t>
+  </si>
+  <si>
+    <t>rcm.value AS month_cd</t>
+  </si>
+  <si>
+    <t>bb_coverage_extension where  src_url like '%rfrnc_yr%' joins to reference year by the year value and then to reference month</t>
+  </si>
+  <si>
+    <t>{{org_src_id}}'||'|'||'{{ dag_run.conf.org_id }}' AS fk_network_id</t>
+  </si>
+  <si>
+    <t>Insights uses: '{{org_src_id}}'||'|'||'{{ dag_run.conf.org_id }}'|| last_value(a.src_ps_id) over (partition by a.fk_bene_id, b.src_month_cd order by a.src_ps_id desc) as fk_group_id
+src_ps_id comes from mdpcp_assgn_attribd, we do not have bb equivalent</t>
+  </si>
+  <si>
+    <t>this is TBD</t>
+  </si>
+  <si>
+    <t>#NA' AS  fk_provider_id</t>
+  </si>
+  <si>
+    <t>TRUE as attribution_curr_period_flag</t>
+  </si>
+  <si>
+    <t>TRUE as attribution_any_period_flag</t>
+  </si>
+  <si>
+    <t>TRUE as assignable_any_period_flag</t>
+  </si>
+  <si>
+    <t>FALSE as attribution_prev_period_flag</t>
+  </si>
+  <si>
+    <t>FALSE as assignable_curr_period_flag</t>
+  </si>
+  <si>
+    <t>FALSE as assignable_prev_period_flag</t>
+  </si>
+  <si>
+    <t>spelling error bug.  https://navhealth.atlassian.net/browse/VBC-282</t>
   </si>
 </sst>
 </file>
@@ -3169,7 +3218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3204,6 +3253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3487,9 +3537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3581,6 +3631,9 @@
       <c r="C4" t="s">
         <v>178</v>
       </c>
+      <c r="H4" t="s">
+        <v>789</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>179</v>
       </c>
@@ -3964,9 +4017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6734,8 +6787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7487,8 +7540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8017,15 +8070,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8045,7 +8100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8055,8 +8110,11 @@
       <c r="C4" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8066,8 +8124,14 @@
       <c r="C5" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8077,8 +8141,14 @@
       <c r="C6" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8088,8 +8158,11 @@
       <c r="C7" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8098,6 +8171,12 @@
       </c>
       <c r="C8" t="s">
         <v>483</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8110,8 +8189,11 @@
       <c r="C9" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="10" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8121,8 +8203,11 @@
       <c r="C10" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -8131,6 +8216,9 @@
       </c>
       <c r="C11" t="s">
         <v>510</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8143,6 +8231,9 @@
       <c r="C12" t="s">
         <v>510</v>
       </c>
+      <c r="D12" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -8154,6 +8245,9 @@
       <c r="C13" t="s">
         <v>510</v>
       </c>
+      <c r="D13" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -8165,6 +8259,9 @@
       <c r="C14" t="s">
         <v>510</v>
       </c>
+      <c r="D14" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -8176,8 +8273,11 @@
       <c r="C15" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -8187,8 +8287,11 @@
       <c r="C16" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -8198,8 +8301,11 @@
       <c r="C17" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -8209,9 +8315,13 @@
       <c r="C18" t="s">
         <v>503</v>
       </c>
+      <c r="D18" t="s">
+        <v>471</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
